--- a/src/main/resources/protocol.xlsx
+++ b/src/main/resources/protocol.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t xml:space="preserve">г. Новочеркасск</t>
   </si>
@@ -106,9 +106,6 @@
     <t xml:space="preserve">Kabs, о.е.</t>
   </si>
   <si>
-    <t xml:space="preserve">#T1#</t>
-  </si>
-  <si>
     <t xml:space="preserve">Результат</t>
   </si>
   <si>
@@ -122,36 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">#MGRKABS#</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MGRTEMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">#</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">#VIUNAME#</t>
@@ -732,7 +699,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -922,10 +889,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1218,8 +1181,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A50" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8642,23 +8605,21 @@
     </row>
     <row r="21" s="30" customFormat="true" ht="28.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="35"/>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="D21" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="E21" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="F21" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="G21" s="41" t="s">
         <v>28</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>29</v>
       </c>
       <c r="H21" s="41"/>
       <c r="I21" s="39"/>
@@ -8667,20 +8628,18 @@
     </row>
     <row r="22" s="31" customFormat="true" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="35"/>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="E22" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="F22" s="47" t="s">
         <v>32</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>34</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -9714,16 +9673,16 @@
       <c r="J23" s="44"/>
     </row>
     <row r="24" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
       <c r="AMC24" s="38"/>
       <c r="AMD24" s="38"/>
       <c r="AME24" s="38"/>
@@ -9736,7 +9695,7 @@
     <row r="25" s="30" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="32"/>
       <c r="B25" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
@@ -10780,14 +10739,14 @@
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H27" s="41"/>
       <c r="I27" s="39"/>
@@ -11810,15 +11769,15 @@
     <row r="28" s="31" customFormat="true" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="35"/>
       <c r="B28" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -12841,15 +12800,15 @@
     </row>
     <row r="29" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="43"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="53"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="52"/>
       <c r="AMC29" s="38"/>
       <c r="AMD29" s="38"/>
       <c r="AME29" s="38"/>
@@ -12860,16 +12819,16 @@
       <c r="AMJ29" s="38"/>
     </row>
     <row r="30" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="51"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
       <c r="AMC30" s="38"/>
       <c r="AMD30" s="38"/>
       <c r="AME30" s="38"/>
@@ -12882,7 +12841,7 @@
     <row r="31" s="30" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="32"/>
       <c r="B31" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
@@ -12891,7 +12850,7 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
-      <c r="J31" s="54"/>
+      <c r="J31" s="53"/>
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
@@ -14936,15 +14895,15 @@
     <row r="33" s="31" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="35"/>
       <c r="B33" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="39"/>
@@ -15968,15 +15927,15 @@
     <row r="34" s="31" customFormat="true" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="35"/>
       <c r="B34" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="39"/>
@@ -16999,12 +16958,12 @@
     </row>
     <row r="35" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="35"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
       <c r="J35" s="42"/>
@@ -17020,15 +16979,15 @@
     <row r="36" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="35"/>
       <c r="B36" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="39"/>
@@ -17046,15 +17005,15 @@
     <row r="37" s="31" customFormat="true" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="35"/>
       <c r="B37" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="39"/>
@@ -17073,10 +17032,10 @@
       <c r="A38" s="35"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="39"/>
       <c r="I38" s="39"/>
       <c r="J38" s="42"/>
@@ -17093,12 +17052,12 @@
       <c r="A39" s="35"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
-      <c r="D39" s="55" t="s">
-        <v>54</v>
+      <c r="D39" s="54" t="s">
+        <v>52</v>
       </c>
-      <c r="E39" s="55"/>
+      <c r="E39" s="54"/>
       <c r="F39" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" s="41"/>
       <c r="H39" s="39"/>
@@ -17118,7 +17077,7 @@
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
@@ -17156,16 +17115,16 @@
       <c r="AMJ41" s="38"/>
     </row>
     <row r="42" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="51"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="50"/>
       <c r="AMC42" s="38"/>
       <c r="AMD42" s="38"/>
       <c r="AME42" s="38"/>
@@ -17177,16 +17136,16 @@
     </row>
     <row r="43" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="32"/>
-      <c r="B43" s="56" t="s">
-        <v>56</v>
+      <c r="B43" s="55" t="s">
+        <v>54</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
       <c r="J43" s="46"/>
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
@@ -18205,14 +18164,14 @@
     </row>
     <row r="44" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="35"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
       <c r="J44" s="36"/>
       <c r="K44" s="37"/>
       <c r="L44" s="31"/>
@@ -19232,28 +19191,28 @@
     <row r="45" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="35"/>
       <c r="B45" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="E45" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="F45" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="H45" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="I45" s="29" t="s">
         <v>62</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>64</v>
       </c>
       <c r="J45" s="42"/>
       <c r="K45" s="26"/>
@@ -20274,28 +20233,28 @@
     <row r="46" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="35"/>
       <c r="B46" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="E46" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="F46" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="G46" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="H46" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="I46" s="29" t="s">
         <v>70</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>72</v>
       </c>
       <c r="J46" s="42"/>
       <c r="K46" s="26"/>
@@ -22341,15 +22300,15 @@
     </row>
     <row r="48" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="35"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="58"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="57"/>
       <c r="K48" s="30"/>
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
@@ -23368,7 +23327,7 @@
     <row r="49" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="35"/>
       <c r="B49" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" s="41"/>
       <c r="D49" s="41"/>
@@ -23377,8 +23336,8 @@
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="60"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="59"/>
       <c r="L49" s="30"/>
       <c r="M49" s="30"/>
       <c r="N49" s="30"/>
@@ -24403,8 +24362,8 @@
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="60"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="59"/>
       <c r="L50" s="30"/>
       <c r="M50" s="30"/>
       <c r="N50" s="30"/>
@@ -26446,16 +26405,16 @@
       <c r="AMJ51" s="30"/>
     </row>
     <row r="52" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="61"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="63"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="62"/>
       <c r="K52" s="30"/>
       <c r="L52" s="30"/>
       <c r="M52" s="30"/>
@@ -27473,16 +27432,16 @@
     </row>
     <row r="53" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="32"/>
-      <c r="B53" s="64" t="s">
-        <v>73</v>
+      <c r="B53" s="63" t="s">
+        <v>71</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
       <c r="J53" s="46"/>
       <c r="AMC53" s="38"/>
       <c r="AMD53" s="38"/>
@@ -27495,14 +27454,14 @@
     </row>
     <row r="54" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="35"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
       <c r="J54" s="36"/>
       <c r="AMC54" s="38"/>
       <c r="AMD54" s="38"/>
@@ -27516,23 +27475,23 @@
     <row r="55" s="31" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="35"/>
       <c r="B55" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="E55" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="F55" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="42"/>
       <c r="AMC55" s="38"/>
       <c r="AMD55" s="38"/>
@@ -27545,24 +27504,24 @@
     </row>
     <row r="56" s="31" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="35"/>
-      <c r="B56" s="65" t="s">
+      <c r="B56" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="E56" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="F56" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E56" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
       <c r="J56" s="42"/>
       <c r="AMC56" s="38"/>
       <c r="AMD56" s="38"/>
@@ -27575,17 +27534,17 @@
     </row>
     <row r="57" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="35"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="66"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
       <c r="AMC57" s="38"/>
       <c r="AMD57" s="38"/>
       <c r="AME57" s="38"/>
@@ -27598,22 +27557,22 @@
     <row r="58" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="35"/>
       <c r="B58" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G58" s="29"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="66"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
       <c r="AMC58" s="38"/>
       <c r="AMD58" s="38"/>
       <c r="AME58" s="38"/>
@@ -27626,22 +27585,22 @@
     <row r="59" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="35"/>
       <c r="B59" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E59" s="29"/>
       <c r="F59" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G59" s="29"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
       <c r="AMC59" s="38"/>
       <c r="AMD59" s="38"/>
       <c r="AME59" s="38"/>
@@ -27653,17 +27612,17 @@
     </row>
     <row r="60" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="35"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
       <c r="AMC60" s="38"/>
       <c r="AMD60" s="38"/>
       <c r="AME60" s="38"/>
@@ -27675,17 +27634,17 @@
     </row>
     <row r="61" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="35"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="66"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
       <c r="AMC61" s="38"/>
       <c r="AMD61" s="38"/>
       <c r="AME61" s="38"/>
@@ -27698,7 +27657,7 @@
     <row r="62" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="35"/>
       <c r="B62" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" s="41"/>
       <c r="D62" s="41"/>
@@ -27707,7 +27666,7 @@
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
-      <c r="J62" s="59"/>
+      <c r="J62" s="58"/>
       <c r="AMC62" s="38"/>
       <c r="AMD62" s="38"/>
       <c r="AME62" s="38"/>
@@ -27727,7 +27686,7 @@
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
       <c r="I63" s="29"/>
-      <c r="J63" s="59"/>
+      <c r="J63" s="58"/>
       <c r="AMC63" s="38"/>
       <c r="AMD63" s="38"/>
       <c r="AME63" s="38"/>
@@ -27758,1030 +27717,1030 @@
       <c r="AMJ64" s="38"/>
     </row>
     <row r="65" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="67"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67"/>
-      <c r="T65" s="67"/>
-      <c r="U65" s="67"/>
-      <c r="V65" s="67"/>
-      <c r="W65" s="67"/>
-      <c r="X65" s="67"/>
-      <c r="Y65" s="67"/>
-      <c r="Z65" s="67"/>
-      <c r="AA65" s="67"/>
-      <c r="AB65" s="67"/>
-      <c r="AC65" s="67"/>
-      <c r="AD65" s="67"/>
-      <c r="AE65" s="67"/>
-      <c r="AF65" s="67"/>
-      <c r="AG65" s="67"/>
-      <c r="AH65" s="67"/>
-      <c r="AI65" s="67"/>
-      <c r="AJ65" s="67"/>
-      <c r="AK65" s="67"/>
-      <c r="AL65" s="67"/>
-      <c r="AM65" s="67"/>
-      <c r="AN65" s="67"/>
-      <c r="AO65" s="67"/>
-      <c r="AP65" s="67"/>
-      <c r="AQ65" s="67"/>
-      <c r="AR65" s="67"/>
-      <c r="AS65" s="67"/>
-      <c r="AT65" s="67"/>
-      <c r="AU65" s="67"/>
-      <c r="AV65" s="67"/>
-      <c r="AW65" s="67"/>
-      <c r="AX65" s="67"/>
-      <c r="AY65" s="67"/>
-      <c r="AZ65" s="67"/>
-      <c r="BA65" s="67"/>
-      <c r="BB65" s="67"/>
-      <c r="BC65" s="67"/>
-      <c r="BD65" s="67"/>
-      <c r="BE65" s="67"/>
-      <c r="BF65" s="67"/>
-      <c r="BG65" s="67"/>
-      <c r="BH65" s="67"/>
-      <c r="BI65" s="67"/>
-      <c r="BJ65" s="67"/>
-      <c r="BK65" s="67"/>
-      <c r="BL65" s="67"/>
-      <c r="BM65" s="67"/>
-      <c r="BN65" s="67"/>
-      <c r="BO65" s="67"/>
-      <c r="BP65" s="67"/>
-      <c r="BQ65" s="67"/>
-      <c r="BR65" s="67"/>
-      <c r="BS65" s="67"/>
-      <c r="BT65" s="67"/>
-      <c r="BU65" s="67"/>
-      <c r="BV65" s="67"/>
-      <c r="BW65" s="67"/>
-      <c r="BX65" s="67"/>
-      <c r="BY65" s="67"/>
-      <c r="BZ65" s="67"/>
-      <c r="CA65" s="67"/>
-      <c r="CB65" s="67"/>
-      <c r="CC65" s="67"/>
-      <c r="CD65" s="67"/>
-      <c r="CE65" s="67"/>
-      <c r="CF65" s="67"/>
-      <c r="CG65" s="67"/>
-      <c r="CH65" s="67"/>
-      <c r="CI65" s="67"/>
-      <c r="CJ65" s="67"/>
-      <c r="CK65" s="67"/>
-      <c r="CL65" s="67"/>
-      <c r="CM65" s="67"/>
-      <c r="CN65" s="67"/>
-      <c r="CO65" s="67"/>
-      <c r="CP65" s="67"/>
-      <c r="CQ65" s="67"/>
-      <c r="CR65" s="67"/>
-      <c r="CS65" s="67"/>
-      <c r="CT65" s="67"/>
-      <c r="CU65" s="67"/>
-      <c r="CV65" s="67"/>
-      <c r="CW65" s="67"/>
-      <c r="CX65" s="67"/>
-      <c r="CY65" s="67"/>
-      <c r="CZ65" s="67"/>
-      <c r="DA65" s="67"/>
-      <c r="DB65" s="67"/>
-      <c r="DC65" s="67"/>
-      <c r="DD65" s="67"/>
-      <c r="DE65" s="67"/>
-      <c r="DF65" s="67"/>
-      <c r="DG65" s="67"/>
-      <c r="DH65" s="67"/>
-      <c r="DI65" s="67"/>
-      <c r="DJ65" s="67"/>
-      <c r="DK65" s="67"/>
-      <c r="DL65" s="67"/>
-      <c r="DM65" s="67"/>
-      <c r="DN65" s="67"/>
-      <c r="DO65" s="67"/>
-      <c r="DP65" s="67"/>
-      <c r="DQ65" s="67"/>
-      <c r="DR65" s="67"/>
-      <c r="DS65" s="67"/>
-      <c r="DT65" s="67"/>
-      <c r="DU65" s="67"/>
-      <c r="DV65" s="67"/>
-      <c r="DW65" s="67"/>
-      <c r="DX65" s="67"/>
-      <c r="DY65" s="67"/>
-      <c r="DZ65" s="67"/>
-      <c r="EA65" s="67"/>
-      <c r="EB65" s="67"/>
-      <c r="EC65" s="67"/>
-      <c r="ED65" s="67"/>
-      <c r="EE65" s="67"/>
-      <c r="EF65" s="67"/>
-      <c r="EG65" s="67"/>
-      <c r="EH65" s="67"/>
-      <c r="EI65" s="67"/>
-      <c r="EJ65" s="67"/>
-      <c r="EK65" s="67"/>
-      <c r="EL65" s="67"/>
-      <c r="EM65" s="67"/>
-      <c r="EN65" s="67"/>
-      <c r="EO65" s="67"/>
-      <c r="EP65" s="67"/>
-      <c r="EQ65" s="67"/>
-      <c r="ER65" s="67"/>
-      <c r="ES65" s="67"/>
-      <c r="ET65" s="67"/>
-      <c r="EU65" s="67"/>
-      <c r="EV65" s="67"/>
-      <c r="EW65" s="67"/>
-      <c r="EX65" s="67"/>
-      <c r="EY65" s="67"/>
-      <c r="EZ65" s="67"/>
-      <c r="FA65" s="67"/>
-      <c r="FB65" s="67"/>
-      <c r="FC65" s="67"/>
-      <c r="FD65" s="67"/>
-      <c r="FE65" s="67"/>
-      <c r="FF65" s="67"/>
-      <c r="FG65" s="67"/>
-      <c r="FH65" s="67"/>
-      <c r="FI65" s="67"/>
-      <c r="FJ65" s="67"/>
-      <c r="FK65" s="67"/>
-      <c r="FL65" s="67"/>
-      <c r="FM65" s="67"/>
-      <c r="FN65" s="67"/>
-      <c r="FO65" s="67"/>
-      <c r="FP65" s="67"/>
-      <c r="FQ65" s="67"/>
-      <c r="FR65" s="67"/>
-      <c r="FS65" s="67"/>
-      <c r="FT65" s="67"/>
-      <c r="FU65" s="67"/>
-      <c r="FV65" s="67"/>
-      <c r="FW65" s="67"/>
-      <c r="FX65" s="67"/>
-      <c r="FY65" s="67"/>
-      <c r="FZ65" s="67"/>
-      <c r="GA65" s="67"/>
-      <c r="GB65" s="67"/>
-      <c r="GC65" s="67"/>
-      <c r="GD65" s="67"/>
-      <c r="GE65" s="67"/>
-      <c r="GF65" s="67"/>
-      <c r="GG65" s="67"/>
-      <c r="GH65" s="67"/>
-      <c r="GI65" s="67"/>
-      <c r="GJ65" s="67"/>
-      <c r="GK65" s="67"/>
-      <c r="GL65" s="67"/>
-      <c r="GM65" s="67"/>
-      <c r="GN65" s="67"/>
-      <c r="GO65" s="67"/>
-      <c r="GP65" s="67"/>
-      <c r="GQ65" s="67"/>
-      <c r="GR65" s="67"/>
-      <c r="GS65" s="67"/>
-      <c r="GT65" s="67"/>
-      <c r="GU65" s="67"/>
-      <c r="GV65" s="67"/>
-      <c r="GW65" s="67"/>
-      <c r="GX65" s="67"/>
-      <c r="GY65" s="67"/>
-      <c r="GZ65" s="67"/>
-      <c r="HA65" s="67"/>
-      <c r="HB65" s="67"/>
-      <c r="HC65" s="67"/>
-      <c r="HD65" s="67"/>
-      <c r="HE65" s="67"/>
-      <c r="HF65" s="67"/>
-      <c r="HG65" s="67"/>
-      <c r="HH65" s="67"/>
-      <c r="HI65" s="67"/>
-      <c r="HJ65" s="67"/>
-      <c r="HK65" s="67"/>
-      <c r="HL65" s="67"/>
-      <c r="HM65" s="67"/>
-      <c r="HN65" s="67"/>
-      <c r="HO65" s="67"/>
-      <c r="HP65" s="67"/>
-      <c r="HQ65" s="67"/>
-      <c r="HR65" s="67"/>
-      <c r="HS65" s="67"/>
-      <c r="HT65" s="67"/>
-      <c r="HU65" s="67"/>
-      <c r="HV65" s="67"/>
-      <c r="HW65" s="67"/>
-      <c r="HX65" s="67"/>
-      <c r="HY65" s="67"/>
-      <c r="HZ65" s="67"/>
-      <c r="IA65" s="67"/>
-      <c r="IB65" s="67"/>
-      <c r="IC65" s="67"/>
-      <c r="ID65" s="67"/>
-      <c r="IE65" s="67"/>
-      <c r="IF65" s="67"/>
-      <c r="IG65" s="67"/>
-      <c r="IH65" s="67"/>
-      <c r="II65" s="67"/>
-      <c r="IJ65" s="67"/>
-      <c r="IK65" s="67"/>
-      <c r="IL65" s="67"/>
-      <c r="IM65" s="67"/>
-      <c r="IN65" s="67"/>
-      <c r="IO65" s="67"/>
-      <c r="IP65" s="67"/>
-      <c r="IQ65" s="67"/>
-      <c r="IR65" s="67"/>
-      <c r="IS65" s="67"/>
-      <c r="IT65" s="67"/>
-      <c r="IU65" s="67"/>
-      <c r="IV65" s="67"/>
-      <c r="IW65" s="67"/>
-      <c r="IX65" s="67"/>
-      <c r="IY65" s="67"/>
-      <c r="IZ65" s="67"/>
-      <c r="JA65" s="67"/>
-      <c r="JB65" s="67"/>
-      <c r="JC65" s="67"/>
-      <c r="JD65" s="67"/>
-      <c r="JE65" s="67"/>
-      <c r="JF65" s="67"/>
-      <c r="JG65" s="67"/>
-      <c r="JH65" s="67"/>
-      <c r="JI65" s="67"/>
-      <c r="JJ65" s="67"/>
-      <c r="JK65" s="67"/>
-      <c r="JL65" s="67"/>
-      <c r="JM65" s="67"/>
-      <c r="JN65" s="67"/>
-      <c r="JO65" s="67"/>
-      <c r="JP65" s="67"/>
-      <c r="JQ65" s="67"/>
-      <c r="JR65" s="67"/>
-      <c r="JS65" s="67"/>
-      <c r="JT65" s="67"/>
-      <c r="JU65" s="67"/>
-      <c r="JV65" s="67"/>
-      <c r="JW65" s="67"/>
-      <c r="JX65" s="67"/>
-      <c r="JY65" s="67"/>
-      <c r="JZ65" s="67"/>
-      <c r="KA65" s="67"/>
-      <c r="KB65" s="67"/>
-      <c r="KC65" s="67"/>
-      <c r="KD65" s="67"/>
-      <c r="KE65" s="67"/>
-      <c r="KF65" s="67"/>
-      <c r="KG65" s="67"/>
-      <c r="KH65" s="67"/>
-      <c r="KI65" s="67"/>
-      <c r="KJ65" s="67"/>
-      <c r="KK65" s="67"/>
-      <c r="KL65" s="67"/>
-      <c r="KM65" s="67"/>
-      <c r="KN65" s="67"/>
-      <c r="KO65" s="67"/>
-      <c r="KP65" s="67"/>
-      <c r="KQ65" s="67"/>
-      <c r="KR65" s="67"/>
-      <c r="KS65" s="67"/>
-      <c r="KT65" s="67"/>
-      <c r="KU65" s="67"/>
-      <c r="KV65" s="67"/>
-      <c r="KW65" s="67"/>
-      <c r="KX65" s="67"/>
-      <c r="KY65" s="67"/>
-      <c r="KZ65" s="67"/>
-      <c r="LA65" s="67"/>
-      <c r="LB65" s="67"/>
-      <c r="LC65" s="67"/>
-      <c r="LD65" s="67"/>
-      <c r="LE65" s="67"/>
-      <c r="LF65" s="67"/>
-      <c r="LG65" s="67"/>
-      <c r="LH65" s="67"/>
-      <c r="LI65" s="67"/>
-      <c r="LJ65" s="67"/>
-      <c r="LK65" s="67"/>
-      <c r="LL65" s="67"/>
-      <c r="LM65" s="67"/>
-      <c r="LN65" s="67"/>
-      <c r="LO65" s="67"/>
-      <c r="LP65" s="67"/>
-      <c r="LQ65" s="67"/>
-      <c r="LR65" s="67"/>
-      <c r="LS65" s="67"/>
-      <c r="LT65" s="67"/>
-      <c r="LU65" s="67"/>
-      <c r="LV65" s="67"/>
-      <c r="LW65" s="67"/>
-      <c r="LX65" s="67"/>
-      <c r="LY65" s="67"/>
-      <c r="LZ65" s="67"/>
-      <c r="MA65" s="67"/>
-      <c r="MB65" s="67"/>
-      <c r="MC65" s="67"/>
-      <c r="MD65" s="67"/>
-      <c r="ME65" s="67"/>
-      <c r="MF65" s="67"/>
-      <c r="MG65" s="67"/>
-      <c r="MH65" s="67"/>
-      <c r="MI65" s="67"/>
-      <c r="MJ65" s="67"/>
-      <c r="MK65" s="67"/>
-      <c r="ML65" s="67"/>
-      <c r="MM65" s="67"/>
-      <c r="MN65" s="67"/>
-      <c r="MO65" s="67"/>
-      <c r="MP65" s="67"/>
-      <c r="MQ65" s="67"/>
-      <c r="MR65" s="67"/>
-      <c r="MS65" s="67"/>
-      <c r="MT65" s="67"/>
-      <c r="MU65" s="67"/>
-      <c r="MV65" s="67"/>
-      <c r="MW65" s="67"/>
-      <c r="MX65" s="67"/>
-      <c r="MY65" s="67"/>
-      <c r="MZ65" s="67"/>
-      <c r="NA65" s="67"/>
-      <c r="NB65" s="67"/>
-      <c r="NC65" s="67"/>
-      <c r="ND65" s="67"/>
-      <c r="NE65" s="67"/>
-      <c r="NF65" s="67"/>
-      <c r="NG65" s="67"/>
-      <c r="NH65" s="67"/>
-      <c r="NI65" s="67"/>
-      <c r="NJ65" s="67"/>
-      <c r="NK65" s="67"/>
-      <c r="NL65" s="67"/>
-      <c r="NM65" s="67"/>
-      <c r="NN65" s="67"/>
-      <c r="NO65" s="67"/>
-      <c r="NP65" s="67"/>
-      <c r="NQ65" s="67"/>
-      <c r="NR65" s="67"/>
-      <c r="NS65" s="67"/>
-      <c r="NT65" s="67"/>
-      <c r="NU65" s="67"/>
-      <c r="NV65" s="67"/>
-      <c r="NW65" s="67"/>
-      <c r="NX65" s="67"/>
-      <c r="NY65" s="67"/>
-      <c r="NZ65" s="67"/>
-      <c r="OA65" s="67"/>
-      <c r="OB65" s="67"/>
-      <c r="OC65" s="67"/>
-      <c r="OD65" s="67"/>
-      <c r="OE65" s="67"/>
-      <c r="OF65" s="67"/>
-      <c r="OG65" s="67"/>
-      <c r="OH65" s="67"/>
-      <c r="OI65" s="67"/>
-      <c r="OJ65" s="67"/>
-      <c r="OK65" s="67"/>
-      <c r="OL65" s="67"/>
-      <c r="OM65" s="67"/>
-      <c r="ON65" s="67"/>
-      <c r="OO65" s="67"/>
-      <c r="OP65" s="67"/>
-      <c r="OQ65" s="67"/>
-      <c r="OR65" s="67"/>
-      <c r="OS65" s="67"/>
-      <c r="OT65" s="67"/>
-      <c r="OU65" s="67"/>
-      <c r="OV65" s="67"/>
-      <c r="OW65" s="67"/>
-      <c r="OX65" s="67"/>
-      <c r="OY65" s="67"/>
-      <c r="OZ65" s="67"/>
-      <c r="PA65" s="67"/>
-      <c r="PB65" s="67"/>
-      <c r="PC65" s="67"/>
-      <c r="PD65" s="67"/>
-      <c r="PE65" s="67"/>
-      <c r="PF65" s="67"/>
-      <c r="PG65" s="67"/>
-      <c r="PH65" s="67"/>
-      <c r="PI65" s="67"/>
-      <c r="PJ65" s="67"/>
-      <c r="PK65" s="67"/>
-      <c r="PL65" s="67"/>
-      <c r="PM65" s="67"/>
-      <c r="PN65" s="67"/>
-      <c r="PO65" s="67"/>
-      <c r="PP65" s="67"/>
-      <c r="PQ65" s="67"/>
-      <c r="PR65" s="67"/>
-      <c r="PS65" s="67"/>
-      <c r="PT65" s="67"/>
-      <c r="PU65" s="67"/>
-      <c r="PV65" s="67"/>
-      <c r="PW65" s="67"/>
-      <c r="PX65" s="67"/>
-      <c r="PY65" s="67"/>
-      <c r="PZ65" s="67"/>
-      <c r="QA65" s="67"/>
-      <c r="QB65" s="67"/>
-      <c r="QC65" s="67"/>
-      <c r="QD65" s="67"/>
-      <c r="QE65" s="67"/>
-      <c r="QF65" s="67"/>
-      <c r="QG65" s="67"/>
-      <c r="QH65" s="67"/>
-      <c r="QI65" s="67"/>
-      <c r="QJ65" s="67"/>
-      <c r="QK65" s="67"/>
-      <c r="QL65" s="67"/>
-      <c r="QM65" s="67"/>
-      <c r="QN65" s="67"/>
-      <c r="QO65" s="67"/>
-      <c r="QP65" s="67"/>
-      <c r="QQ65" s="67"/>
-      <c r="QR65" s="67"/>
-      <c r="QS65" s="67"/>
-      <c r="QT65" s="67"/>
-      <c r="QU65" s="67"/>
-      <c r="QV65" s="67"/>
-      <c r="QW65" s="67"/>
-      <c r="QX65" s="67"/>
-      <c r="QY65" s="67"/>
-      <c r="QZ65" s="67"/>
-      <c r="RA65" s="67"/>
-      <c r="RB65" s="67"/>
-      <c r="RC65" s="67"/>
-      <c r="RD65" s="67"/>
-      <c r="RE65" s="67"/>
-      <c r="RF65" s="67"/>
-      <c r="RG65" s="67"/>
-      <c r="RH65" s="67"/>
-      <c r="RI65" s="67"/>
-      <c r="RJ65" s="67"/>
-      <c r="RK65" s="67"/>
-      <c r="RL65" s="67"/>
-      <c r="RM65" s="67"/>
-      <c r="RN65" s="67"/>
-      <c r="RO65" s="67"/>
-      <c r="RP65" s="67"/>
-      <c r="RQ65" s="67"/>
-      <c r="RR65" s="67"/>
-      <c r="RS65" s="67"/>
-      <c r="RT65" s="67"/>
-      <c r="RU65" s="67"/>
-      <c r="RV65" s="67"/>
-      <c r="RW65" s="67"/>
-      <c r="RX65" s="67"/>
-      <c r="RY65" s="67"/>
-      <c r="RZ65" s="67"/>
-      <c r="SA65" s="67"/>
-      <c r="SB65" s="67"/>
-      <c r="SC65" s="67"/>
-      <c r="SD65" s="67"/>
-      <c r="SE65" s="67"/>
-      <c r="SF65" s="67"/>
-      <c r="SG65" s="67"/>
-      <c r="SH65" s="67"/>
-      <c r="SI65" s="67"/>
-      <c r="SJ65" s="67"/>
-      <c r="SK65" s="67"/>
-      <c r="SL65" s="67"/>
-      <c r="SM65" s="67"/>
-      <c r="SN65" s="67"/>
-      <c r="SO65" s="67"/>
-      <c r="SP65" s="67"/>
-      <c r="SQ65" s="67"/>
-      <c r="SR65" s="67"/>
-      <c r="SS65" s="67"/>
-      <c r="ST65" s="67"/>
-      <c r="SU65" s="67"/>
-      <c r="SV65" s="67"/>
-      <c r="SW65" s="67"/>
-      <c r="SX65" s="67"/>
-      <c r="SY65" s="67"/>
-      <c r="SZ65" s="67"/>
-      <c r="TA65" s="67"/>
-      <c r="TB65" s="67"/>
-      <c r="TC65" s="67"/>
-      <c r="TD65" s="67"/>
-      <c r="TE65" s="67"/>
-      <c r="TF65" s="67"/>
-      <c r="TG65" s="67"/>
-      <c r="TH65" s="67"/>
-      <c r="TI65" s="67"/>
-      <c r="TJ65" s="67"/>
-      <c r="TK65" s="67"/>
-      <c r="TL65" s="67"/>
-      <c r="TM65" s="67"/>
-      <c r="TN65" s="67"/>
-      <c r="TO65" s="67"/>
-      <c r="TP65" s="67"/>
-      <c r="TQ65" s="67"/>
-      <c r="TR65" s="67"/>
-      <c r="TS65" s="67"/>
-      <c r="TT65" s="67"/>
-      <c r="TU65" s="67"/>
-      <c r="TV65" s="67"/>
-      <c r="TW65" s="67"/>
-      <c r="TX65" s="67"/>
-      <c r="TY65" s="67"/>
-      <c r="TZ65" s="67"/>
-      <c r="UA65" s="67"/>
-      <c r="UB65" s="67"/>
-      <c r="UC65" s="67"/>
-      <c r="UD65" s="67"/>
-      <c r="UE65" s="67"/>
-      <c r="UF65" s="67"/>
-      <c r="UG65" s="67"/>
-      <c r="UH65" s="67"/>
-      <c r="UI65" s="67"/>
-      <c r="UJ65" s="67"/>
-      <c r="UK65" s="67"/>
-      <c r="UL65" s="67"/>
-      <c r="UM65" s="67"/>
-      <c r="UN65" s="67"/>
-      <c r="UO65" s="67"/>
-      <c r="UP65" s="67"/>
-      <c r="UQ65" s="67"/>
-      <c r="UR65" s="67"/>
-      <c r="US65" s="67"/>
-      <c r="UT65" s="67"/>
-      <c r="UU65" s="67"/>
-      <c r="UV65" s="67"/>
-      <c r="UW65" s="67"/>
-      <c r="UX65" s="67"/>
-      <c r="UY65" s="67"/>
-      <c r="UZ65" s="67"/>
-      <c r="VA65" s="67"/>
-      <c r="VB65" s="67"/>
-      <c r="VC65" s="67"/>
-      <c r="VD65" s="67"/>
-      <c r="VE65" s="67"/>
-      <c r="VF65" s="67"/>
-      <c r="VG65" s="67"/>
-      <c r="VH65" s="67"/>
-      <c r="VI65" s="67"/>
-      <c r="VJ65" s="67"/>
-      <c r="VK65" s="67"/>
-      <c r="VL65" s="67"/>
-      <c r="VM65" s="67"/>
-      <c r="VN65" s="67"/>
-      <c r="VO65" s="67"/>
-      <c r="VP65" s="67"/>
-      <c r="VQ65" s="67"/>
-      <c r="VR65" s="67"/>
-      <c r="VS65" s="67"/>
-      <c r="VT65" s="67"/>
-      <c r="VU65" s="67"/>
-      <c r="VV65" s="67"/>
-      <c r="VW65" s="67"/>
-      <c r="VX65" s="67"/>
-      <c r="VY65" s="67"/>
-      <c r="VZ65" s="67"/>
-      <c r="WA65" s="67"/>
-      <c r="WB65" s="67"/>
-      <c r="WC65" s="67"/>
-      <c r="WD65" s="67"/>
-      <c r="WE65" s="67"/>
-      <c r="WF65" s="67"/>
-      <c r="WG65" s="67"/>
-      <c r="WH65" s="67"/>
-      <c r="WI65" s="67"/>
-      <c r="WJ65" s="67"/>
-      <c r="WK65" s="67"/>
-      <c r="WL65" s="67"/>
-      <c r="WM65" s="67"/>
-      <c r="WN65" s="67"/>
-      <c r="WO65" s="67"/>
-      <c r="WP65" s="67"/>
-      <c r="WQ65" s="67"/>
-      <c r="WR65" s="67"/>
-      <c r="WS65" s="67"/>
-      <c r="WT65" s="67"/>
-      <c r="WU65" s="67"/>
-      <c r="WV65" s="67"/>
-      <c r="WW65" s="67"/>
-      <c r="WX65" s="67"/>
-      <c r="WY65" s="67"/>
-      <c r="WZ65" s="67"/>
-      <c r="XA65" s="67"/>
-      <c r="XB65" s="67"/>
-      <c r="XC65" s="67"/>
-      <c r="XD65" s="67"/>
-      <c r="XE65" s="67"/>
-      <c r="XF65" s="67"/>
-      <c r="XG65" s="67"/>
-      <c r="XH65" s="67"/>
-      <c r="XI65" s="67"/>
-      <c r="XJ65" s="67"/>
-      <c r="XK65" s="67"/>
-      <c r="XL65" s="67"/>
-      <c r="XM65" s="67"/>
-      <c r="XN65" s="67"/>
-      <c r="XO65" s="67"/>
-      <c r="XP65" s="67"/>
-      <c r="XQ65" s="67"/>
-      <c r="XR65" s="67"/>
-      <c r="XS65" s="67"/>
-      <c r="XT65" s="67"/>
-      <c r="XU65" s="67"/>
-      <c r="XV65" s="67"/>
-      <c r="XW65" s="67"/>
-      <c r="XX65" s="67"/>
-      <c r="XY65" s="67"/>
-      <c r="XZ65" s="67"/>
-      <c r="YA65" s="67"/>
-      <c r="YB65" s="67"/>
-      <c r="YC65" s="67"/>
-      <c r="YD65" s="67"/>
-      <c r="YE65" s="67"/>
-      <c r="YF65" s="67"/>
-      <c r="YG65" s="67"/>
-      <c r="YH65" s="67"/>
-      <c r="YI65" s="67"/>
-      <c r="YJ65" s="67"/>
-      <c r="YK65" s="67"/>
-      <c r="YL65" s="67"/>
-      <c r="YM65" s="67"/>
-      <c r="YN65" s="67"/>
-      <c r="YO65" s="67"/>
-      <c r="YP65" s="67"/>
-      <c r="YQ65" s="67"/>
-      <c r="YR65" s="67"/>
-      <c r="YS65" s="67"/>
-      <c r="YT65" s="67"/>
-      <c r="YU65" s="67"/>
-      <c r="YV65" s="67"/>
-      <c r="YW65" s="67"/>
-      <c r="YX65" s="67"/>
-      <c r="YY65" s="67"/>
-      <c r="YZ65" s="67"/>
-      <c r="ZA65" s="67"/>
-      <c r="ZB65" s="67"/>
-      <c r="ZC65" s="67"/>
-      <c r="ZD65" s="67"/>
-      <c r="ZE65" s="67"/>
-      <c r="ZF65" s="67"/>
-      <c r="ZG65" s="67"/>
-      <c r="ZH65" s="67"/>
-      <c r="ZI65" s="67"/>
-      <c r="ZJ65" s="67"/>
-      <c r="ZK65" s="67"/>
-      <c r="ZL65" s="67"/>
-      <c r="ZM65" s="67"/>
-      <c r="ZN65" s="67"/>
-      <c r="ZO65" s="67"/>
-      <c r="ZP65" s="67"/>
-      <c r="ZQ65" s="67"/>
-      <c r="ZR65" s="67"/>
-      <c r="ZS65" s="67"/>
-      <c r="ZT65" s="67"/>
-      <c r="ZU65" s="67"/>
-      <c r="ZV65" s="67"/>
-      <c r="ZW65" s="67"/>
-      <c r="ZX65" s="67"/>
-      <c r="ZY65" s="67"/>
-      <c r="ZZ65" s="67"/>
-      <c r="AAA65" s="67"/>
-      <c r="AAB65" s="67"/>
-      <c r="AAC65" s="67"/>
-      <c r="AAD65" s="67"/>
-      <c r="AAE65" s="67"/>
-      <c r="AAF65" s="67"/>
-      <c r="AAG65" s="67"/>
-      <c r="AAH65" s="67"/>
-      <c r="AAI65" s="67"/>
-      <c r="AAJ65" s="67"/>
-      <c r="AAK65" s="67"/>
-      <c r="AAL65" s="67"/>
-      <c r="AAM65" s="67"/>
-      <c r="AAN65" s="67"/>
-      <c r="AAO65" s="67"/>
-      <c r="AAP65" s="67"/>
-      <c r="AAQ65" s="67"/>
-      <c r="AAR65" s="67"/>
-      <c r="AAS65" s="67"/>
-      <c r="AAT65" s="67"/>
-      <c r="AAU65" s="67"/>
-      <c r="AAV65" s="67"/>
-      <c r="AAW65" s="67"/>
-      <c r="AAX65" s="67"/>
-      <c r="AAY65" s="67"/>
-      <c r="AAZ65" s="67"/>
-      <c r="ABA65" s="67"/>
-      <c r="ABB65" s="67"/>
-      <c r="ABC65" s="67"/>
-      <c r="ABD65" s="67"/>
-      <c r="ABE65" s="67"/>
-      <c r="ABF65" s="67"/>
-      <c r="ABG65" s="67"/>
-      <c r="ABH65" s="67"/>
-      <c r="ABI65" s="67"/>
-      <c r="ABJ65" s="67"/>
-      <c r="ABK65" s="67"/>
-      <c r="ABL65" s="67"/>
-      <c r="ABM65" s="67"/>
-      <c r="ABN65" s="67"/>
-      <c r="ABO65" s="67"/>
-      <c r="ABP65" s="67"/>
-      <c r="ABQ65" s="67"/>
-      <c r="ABR65" s="67"/>
-      <c r="ABS65" s="67"/>
-      <c r="ABT65" s="67"/>
-      <c r="ABU65" s="67"/>
-      <c r="ABV65" s="67"/>
-      <c r="ABW65" s="67"/>
-      <c r="ABX65" s="67"/>
-      <c r="ABY65" s="67"/>
-      <c r="ABZ65" s="67"/>
-      <c r="ACA65" s="67"/>
-      <c r="ACB65" s="67"/>
-      <c r="ACC65" s="67"/>
-      <c r="ACD65" s="67"/>
-      <c r="ACE65" s="67"/>
-      <c r="ACF65" s="67"/>
-      <c r="ACG65" s="67"/>
-      <c r="ACH65" s="67"/>
-      <c r="ACI65" s="67"/>
-      <c r="ACJ65" s="67"/>
-      <c r="ACK65" s="67"/>
-      <c r="ACL65" s="67"/>
-      <c r="ACM65" s="67"/>
-      <c r="ACN65" s="67"/>
-      <c r="ACO65" s="67"/>
-      <c r="ACP65" s="67"/>
-      <c r="ACQ65" s="67"/>
-      <c r="ACR65" s="67"/>
-      <c r="ACS65" s="67"/>
-      <c r="ACT65" s="67"/>
-      <c r="ACU65" s="67"/>
-      <c r="ACV65" s="67"/>
-      <c r="ACW65" s="67"/>
-      <c r="ACX65" s="67"/>
-      <c r="ACY65" s="67"/>
-      <c r="ACZ65" s="67"/>
-      <c r="ADA65" s="67"/>
-      <c r="ADB65" s="67"/>
-      <c r="ADC65" s="67"/>
-      <c r="ADD65" s="67"/>
-      <c r="ADE65" s="67"/>
-      <c r="ADF65" s="67"/>
-      <c r="ADG65" s="67"/>
-      <c r="ADH65" s="67"/>
-      <c r="ADI65" s="67"/>
-      <c r="ADJ65" s="67"/>
-      <c r="ADK65" s="67"/>
-      <c r="ADL65" s="67"/>
-      <c r="ADM65" s="67"/>
-      <c r="ADN65" s="67"/>
-      <c r="ADO65" s="67"/>
-      <c r="ADP65" s="67"/>
-      <c r="ADQ65" s="67"/>
-      <c r="ADR65" s="67"/>
-      <c r="ADS65" s="67"/>
-      <c r="ADT65" s="67"/>
-      <c r="ADU65" s="67"/>
-      <c r="ADV65" s="67"/>
-      <c r="ADW65" s="67"/>
-      <c r="ADX65" s="67"/>
-      <c r="ADY65" s="67"/>
-      <c r="ADZ65" s="67"/>
-      <c r="AEA65" s="67"/>
-      <c r="AEB65" s="67"/>
-      <c r="AEC65" s="67"/>
-      <c r="AED65" s="67"/>
-      <c r="AEE65" s="67"/>
-      <c r="AEF65" s="67"/>
-      <c r="AEG65" s="67"/>
-      <c r="AEH65" s="67"/>
-      <c r="AEI65" s="67"/>
-      <c r="AEJ65" s="67"/>
-      <c r="AEK65" s="67"/>
-      <c r="AEL65" s="67"/>
-      <c r="AEM65" s="67"/>
-      <c r="AEN65" s="67"/>
-      <c r="AEO65" s="67"/>
-      <c r="AEP65" s="67"/>
-      <c r="AEQ65" s="67"/>
-      <c r="AER65" s="67"/>
-      <c r="AES65" s="67"/>
-      <c r="AET65" s="67"/>
-      <c r="AEU65" s="67"/>
-      <c r="AEV65" s="67"/>
-      <c r="AEW65" s="67"/>
-      <c r="AEX65" s="67"/>
-      <c r="AEY65" s="67"/>
-      <c r="AEZ65" s="67"/>
-      <c r="AFA65" s="67"/>
-      <c r="AFB65" s="67"/>
-      <c r="AFC65" s="67"/>
-      <c r="AFD65" s="67"/>
-      <c r="AFE65" s="67"/>
-      <c r="AFF65" s="67"/>
-      <c r="AFG65" s="67"/>
-      <c r="AFH65" s="67"/>
-      <c r="AFI65" s="67"/>
-      <c r="AFJ65" s="67"/>
-      <c r="AFK65" s="67"/>
-      <c r="AFL65" s="67"/>
-      <c r="AFM65" s="67"/>
-      <c r="AFN65" s="67"/>
-      <c r="AFO65" s="67"/>
-      <c r="AFP65" s="67"/>
-      <c r="AFQ65" s="67"/>
-      <c r="AFR65" s="67"/>
-      <c r="AFS65" s="67"/>
-      <c r="AFT65" s="67"/>
-      <c r="AFU65" s="67"/>
-      <c r="AFV65" s="67"/>
-      <c r="AFW65" s="67"/>
-      <c r="AFX65" s="67"/>
-      <c r="AFY65" s="67"/>
-      <c r="AFZ65" s="67"/>
-      <c r="AGA65" s="67"/>
-      <c r="AGB65" s="67"/>
-      <c r="AGC65" s="67"/>
-      <c r="AGD65" s="67"/>
-      <c r="AGE65" s="67"/>
-      <c r="AGF65" s="67"/>
-      <c r="AGG65" s="67"/>
-      <c r="AGH65" s="67"/>
-      <c r="AGI65" s="67"/>
-      <c r="AGJ65" s="67"/>
-      <c r="AGK65" s="67"/>
-      <c r="AGL65" s="67"/>
-      <c r="AGM65" s="67"/>
-      <c r="AGN65" s="67"/>
-      <c r="AGO65" s="67"/>
-      <c r="AGP65" s="67"/>
-      <c r="AGQ65" s="67"/>
-      <c r="AGR65" s="67"/>
-      <c r="AGS65" s="67"/>
-      <c r="AGT65" s="67"/>
-      <c r="AGU65" s="67"/>
-      <c r="AGV65" s="67"/>
-      <c r="AGW65" s="67"/>
-      <c r="AGX65" s="67"/>
-      <c r="AGY65" s="67"/>
-      <c r="AGZ65" s="67"/>
-      <c r="AHA65" s="67"/>
-      <c r="AHB65" s="67"/>
-      <c r="AHC65" s="67"/>
-      <c r="AHD65" s="67"/>
-      <c r="AHE65" s="67"/>
-      <c r="AHF65" s="67"/>
-      <c r="AHG65" s="67"/>
-      <c r="AHH65" s="67"/>
-      <c r="AHI65" s="67"/>
-      <c r="AHJ65" s="67"/>
-      <c r="AHK65" s="67"/>
-      <c r="AHL65" s="67"/>
-      <c r="AHM65" s="67"/>
-      <c r="AHN65" s="67"/>
-      <c r="AHO65" s="67"/>
-      <c r="AHP65" s="67"/>
-      <c r="AHQ65" s="67"/>
-      <c r="AHR65" s="67"/>
-      <c r="AHS65" s="67"/>
-      <c r="AHT65" s="67"/>
-      <c r="AHU65" s="67"/>
-      <c r="AHV65" s="67"/>
-      <c r="AHW65" s="67"/>
-      <c r="AHX65" s="67"/>
-      <c r="AHY65" s="67"/>
-      <c r="AHZ65" s="67"/>
-      <c r="AIA65" s="67"/>
-      <c r="AIB65" s="67"/>
-      <c r="AIC65" s="67"/>
-      <c r="AID65" s="67"/>
-      <c r="AIE65" s="67"/>
-      <c r="AIF65" s="67"/>
-      <c r="AIG65" s="67"/>
-      <c r="AIH65" s="67"/>
-      <c r="AII65" s="67"/>
-      <c r="AIJ65" s="67"/>
-      <c r="AIK65" s="67"/>
-      <c r="AIL65" s="67"/>
-      <c r="AIM65" s="67"/>
-      <c r="AIN65" s="67"/>
-      <c r="AIO65" s="67"/>
-      <c r="AIP65" s="67"/>
-      <c r="AIQ65" s="67"/>
-      <c r="AIR65" s="67"/>
-      <c r="AIS65" s="67"/>
-      <c r="AIT65" s="67"/>
-      <c r="AIU65" s="67"/>
-      <c r="AIV65" s="67"/>
-      <c r="AIW65" s="67"/>
-      <c r="AIX65" s="67"/>
-      <c r="AIY65" s="67"/>
-      <c r="AIZ65" s="67"/>
-      <c r="AJA65" s="67"/>
-      <c r="AJB65" s="67"/>
-      <c r="AJC65" s="67"/>
-      <c r="AJD65" s="67"/>
-      <c r="AJE65" s="67"/>
-      <c r="AJF65" s="67"/>
-      <c r="AJG65" s="67"/>
-      <c r="AJH65" s="67"/>
-      <c r="AJI65" s="67"/>
-      <c r="AJJ65" s="67"/>
-      <c r="AJK65" s="67"/>
-      <c r="AJL65" s="67"/>
-      <c r="AJM65" s="67"/>
-      <c r="AJN65" s="67"/>
-      <c r="AJO65" s="67"/>
-      <c r="AJP65" s="67"/>
-      <c r="AJQ65" s="67"/>
-      <c r="AJR65" s="67"/>
-      <c r="AJS65" s="67"/>
-      <c r="AJT65" s="67"/>
-      <c r="AJU65" s="67"/>
-      <c r="AJV65" s="67"/>
-      <c r="AJW65" s="67"/>
-      <c r="AJX65" s="67"/>
-      <c r="AJY65" s="67"/>
-      <c r="AJZ65" s="67"/>
-      <c r="AKA65" s="67"/>
-      <c r="AKB65" s="67"/>
-      <c r="AKC65" s="67"/>
-      <c r="AKD65" s="67"/>
-      <c r="AKE65" s="67"/>
-      <c r="AKF65" s="67"/>
-      <c r="AKG65" s="67"/>
-      <c r="AKH65" s="67"/>
-      <c r="AKI65" s="67"/>
-      <c r="AKJ65" s="67"/>
-      <c r="AKK65" s="67"/>
-      <c r="AKL65" s="67"/>
-      <c r="AKM65" s="67"/>
-      <c r="AKN65" s="67"/>
-      <c r="AKO65" s="67"/>
-      <c r="AKP65" s="67"/>
-      <c r="AKQ65" s="67"/>
-      <c r="AKR65" s="67"/>
-      <c r="AKS65" s="67"/>
-      <c r="AKT65" s="67"/>
-      <c r="AKU65" s="67"/>
-      <c r="AKV65" s="67"/>
-      <c r="AKW65" s="67"/>
-      <c r="AKX65" s="67"/>
-      <c r="AKY65" s="67"/>
-      <c r="AKZ65" s="67"/>
-      <c r="ALA65" s="67"/>
-      <c r="ALB65" s="67"/>
-      <c r="ALC65" s="67"/>
-      <c r="ALD65" s="67"/>
-      <c r="ALE65" s="67"/>
-      <c r="ALF65" s="67"/>
-      <c r="ALG65" s="67"/>
-      <c r="ALH65" s="67"/>
-      <c r="ALI65" s="67"/>
-      <c r="ALJ65" s="67"/>
-      <c r="ALK65" s="67"/>
-      <c r="ALL65" s="67"/>
-      <c r="ALM65" s="67"/>
-      <c r="ALN65" s="67"/>
-      <c r="ALO65" s="67"/>
-      <c r="ALP65" s="67"/>
-      <c r="ALQ65" s="67"/>
-      <c r="ALR65" s="67"/>
-      <c r="ALS65" s="67"/>
-      <c r="ALT65" s="67"/>
-      <c r="ALU65" s="67"/>
-      <c r="ALV65" s="67"/>
-      <c r="ALW65" s="67"/>
-      <c r="ALX65" s="67"/>
-      <c r="ALY65" s="67"/>
-      <c r="ALZ65" s="67"/>
-      <c r="AMA65" s="67"/>
-      <c r="AMB65" s="67"/>
-      <c r="AMC65" s="67"/>
-      <c r="AMD65" s="67"/>
-      <c r="AME65" s="67"/>
-      <c r="AMF65" s="67"/>
-      <c r="AMG65" s="67"/>
-      <c r="AMH65" s="67"/>
-      <c r="AMI65" s="67"/>
-      <c r="AMJ65" s="67"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
+      <c r="T65" s="66"/>
+      <c r="U65" s="66"/>
+      <c r="V65" s="66"/>
+      <c r="W65" s="66"/>
+      <c r="X65" s="66"/>
+      <c r="Y65" s="66"/>
+      <c r="Z65" s="66"/>
+      <c r="AA65" s="66"/>
+      <c r="AB65" s="66"/>
+      <c r="AC65" s="66"/>
+      <c r="AD65" s="66"/>
+      <c r="AE65" s="66"/>
+      <c r="AF65" s="66"/>
+      <c r="AG65" s="66"/>
+      <c r="AH65" s="66"/>
+      <c r="AI65" s="66"/>
+      <c r="AJ65" s="66"/>
+      <c r="AK65" s="66"/>
+      <c r="AL65" s="66"/>
+      <c r="AM65" s="66"/>
+      <c r="AN65" s="66"/>
+      <c r="AO65" s="66"/>
+      <c r="AP65" s="66"/>
+      <c r="AQ65" s="66"/>
+      <c r="AR65" s="66"/>
+      <c r="AS65" s="66"/>
+      <c r="AT65" s="66"/>
+      <c r="AU65" s="66"/>
+      <c r="AV65" s="66"/>
+      <c r="AW65" s="66"/>
+      <c r="AX65" s="66"/>
+      <c r="AY65" s="66"/>
+      <c r="AZ65" s="66"/>
+      <c r="BA65" s="66"/>
+      <c r="BB65" s="66"/>
+      <c r="BC65" s="66"/>
+      <c r="BD65" s="66"/>
+      <c r="BE65" s="66"/>
+      <c r="BF65" s="66"/>
+      <c r="BG65" s="66"/>
+      <c r="BH65" s="66"/>
+      <c r="BI65" s="66"/>
+      <c r="BJ65" s="66"/>
+      <c r="BK65" s="66"/>
+      <c r="BL65" s="66"/>
+      <c r="BM65" s="66"/>
+      <c r="BN65" s="66"/>
+      <c r="BO65" s="66"/>
+      <c r="BP65" s="66"/>
+      <c r="BQ65" s="66"/>
+      <c r="BR65" s="66"/>
+      <c r="BS65" s="66"/>
+      <c r="BT65" s="66"/>
+      <c r="BU65" s="66"/>
+      <c r="BV65" s="66"/>
+      <c r="BW65" s="66"/>
+      <c r="BX65" s="66"/>
+      <c r="BY65" s="66"/>
+      <c r="BZ65" s="66"/>
+      <c r="CA65" s="66"/>
+      <c r="CB65" s="66"/>
+      <c r="CC65" s="66"/>
+      <c r="CD65" s="66"/>
+      <c r="CE65" s="66"/>
+      <c r="CF65" s="66"/>
+      <c r="CG65" s="66"/>
+      <c r="CH65" s="66"/>
+      <c r="CI65" s="66"/>
+      <c r="CJ65" s="66"/>
+      <c r="CK65" s="66"/>
+      <c r="CL65" s="66"/>
+      <c r="CM65" s="66"/>
+      <c r="CN65" s="66"/>
+      <c r="CO65" s="66"/>
+      <c r="CP65" s="66"/>
+      <c r="CQ65" s="66"/>
+      <c r="CR65" s="66"/>
+      <c r="CS65" s="66"/>
+      <c r="CT65" s="66"/>
+      <c r="CU65" s="66"/>
+      <c r="CV65" s="66"/>
+      <c r="CW65" s="66"/>
+      <c r="CX65" s="66"/>
+      <c r="CY65" s="66"/>
+      <c r="CZ65" s="66"/>
+      <c r="DA65" s="66"/>
+      <c r="DB65" s="66"/>
+      <c r="DC65" s="66"/>
+      <c r="DD65" s="66"/>
+      <c r="DE65" s="66"/>
+      <c r="DF65" s="66"/>
+      <c r="DG65" s="66"/>
+      <c r="DH65" s="66"/>
+      <c r="DI65" s="66"/>
+      <c r="DJ65" s="66"/>
+      <c r="DK65" s="66"/>
+      <c r="DL65" s="66"/>
+      <c r="DM65" s="66"/>
+      <c r="DN65" s="66"/>
+      <c r="DO65" s="66"/>
+      <c r="DP65" s="66"/>
+      <c r="DQ65" s="66"/>
+      <c r="DR65" s="66"/>
+      <c r="DS65" s="66"/>
+      <c r="DT65" s="66"/>
+      <c r="DU65" s="66"/>
+      <c r="DV65" s="66"/>
+      <c r="DW65" s="66"/>
+      <c r="DX65" s="66"/>
+      <c r="DY65" s="66"/>
+      <c r="DZ65" s="66"/>
+      <c r="EA65" s="66"/>
+      <c r="EB65" s="66"/>
+      <c r="EC65" s="66"/>
+      <c r="ED65" s="66"/>
+      <c r="EE65" s="66"/>
+      <c r="EF65" s="66"/>
+      <c r="EG65" s="66"/>
+      <c r="EH65" s="66"/>
+      <c r="EI65" s="66"/>
+      <c r="EJ65" s="66"/>
+      <c r="EK65" s="66"/>
+      <c r="EL65" s="66"/>
+      <c r="EM65" s="66"/>
+      <c r="EN65" s="66"/>
+      <c r="EO65" s="66"/>
+      <c r="EP65" s="66"/>
+      <c r="EQ65" s="66"/>
+      <c r="ER65" s="66"/>
+      <c r="ES65" s="66"/>
+      <c r="ET65" s="66"/>
+      <c r="EU65" s="66"/>
+      <c r="EV65" s="66"/>
+      <c r="EW65" s="66"/>
+      <c r="EX65" s="66"/>
+      <c r="EY65" s="66"/>
+      <c r="EZ65" s="66"/>
+      <c r="FA65" s="66"/>
+      <c r="FB65" s="66"/>
+      <c r="FC65" s="66"/>
+      <c r="FD65" s="66"/>
+      <c r="FE65" s="66"/>
+      <c r="FF65" s="66"/>
+      <c r="FG65" s="66"/>
+      <c r="FH65" s="66"/>
+      <c r="FI65" s="66"/>
+      <c r="FJ65" s="66"/>
+      <c r="FK65" s="66"/>
+      <c r="FL65" s="66"/>
+      <c r="FM65" s="66"/>
+      <c r="FN65" s="66"/>
+      <c r="FO65" s="66"/>
+      <c r="FP65" s="66"/>
+      <c r="FQ65" s="66"/>
+      <c r="FR65" s="66"/>
+      <c r="FS65" s="66"/>
+      <c r="FT65" s="66"/>
+      <c r="FU65" s="66"/>
+      <c r="FV65" s="66"/>
+      <c r="FW65" s="66"/>
+      <c r="FX65" s="66"/>
+      <c r="FY65" s="66"/>
+      <c r="FZ65" s="66"/>
+      <c r="GA65" s="66"/>
+      <c r="GB65" s="66"/>
+      <c r="GC65" s="66"/>
+      <c r="GD65" s="66"/>
+      <c r="GE65" s="66"/>
+      <c r="GF65" s="66"/>
+      <c r="GG65" s="66"/>
+      <c r="GH65" s="66"/>
+      <c r="GI65" s="66"/>
+      <c r="GJ65" s="66"/>
+      <c r="GK65" s="66"/>
+      <c r="GL65" s="66"/>
+      <c r="GM65" s="66"/>
+      <c r="GN65" s="66"/>
+      <c r="GO65" s="66"/>
+      <c r="GP65" s="66"/>
+      <c r="GQ65" s="66"/>
+      <c r="GR65" s="66"/>
+      <c r="GS65" s="66"/>
+      <c r="GT65" s="66"/>
+      <c r="GU65" s="66"/>
+      <c r="GV65" s="66"/>
+      <c r="GW65" s="66"/>
+      <c r="GX65" s="66"/>
+      <c r="GY65" s="66"/>
+      <c r="GZ65" s="66"/>
+      <c r="HA65" s="66"/>
+      <c r="HB65" s="66"/>
+      <c r="HC65" s="66"/>
+      <c r="HD65" s="66"/>
+      <c r="HE65" s="66"/>
+      <c r="HF65" s="66"/>
+      <c r="HG65" s="66"/>
+      <c r="HH65" s="66"/>
+      <c r="HI65" s="66"/>
+      <c r="HJ65" s="66"/>
+      <c r="HK65" s="66"/>
+      <c r="HL65" s="66"/>
+      <c r="HM65" s="66"/>
+      <c r="HN65" s="66"/>
+      <c r="HO65" s="66"/>
+      <c r="HP65" s="66"/>
+      <c r="HQ65" s="66"/>
+      <c r="HR65" s="66"/>
+      <c r="HS65" s="66"/>
+      <c r="HT65" s="66"/>
+      <c r="HU65" s="66"/>
+      <c r="HV65" s="66"/>
+      <c r="HW65" s="66"/>
+      <c r="HX65" s="66"/>
+      <c r="HY65" s="66"/>
+      <c r="HZ65" s="66"/>
+      <c r="IA65" s="66"/>
+      <c r="IB65" s="66"/>
+      <c r="IC65" s="66"/>
+      <c r="ID65" s="66"/>
+      <c r="IE65" s="66"/>
+      <c r="IF65" s="66"/>
+      <c r="IG65" s="66"/>
+      <c r="IH65" s="66"/>
+      <c r="II65" s="66"/>
+      <c r="IJ65" s="66"/>
+      <c r="IK65" s="66"/>
+      <c r="IL65" s="66"/>
+      <c r="IM65" s="66"/>
+      <c r="IN65" s="66"/>
+      <c r="IO65" s="66"/>
+      <c r="IP65" s="66"/>
+      <c r="IQ65" s="66"/>
+      <c r="IR65" s="66"/>
+      <c r="IS65" s="66"/>
+      <c r="IT65" s="66"/>
+      <c r="IU65" s="66"/>
+      <c r="IV65" s="66"/>
+      <c r="IW65" s="66"/>
+      <c r="IX65" s="66"/>
+      <c r="IY65" s="66"/>
+      <c r="IZ65" s="66"/>
+      <c r="JA65" s="66"/>
+      <c r="JB65" s="66"/>
+      <c r="JC65" s="66"/>
+      <c r="JD65" s="66"/>
+      <c r="JE65" s="66"/>
+      <c r="JF65" s="66"/>
+      <c r="JG65" s="66"/>
+      <c r="JH65" s="66"/>
+      <c r="JI65" s="66"/>
+      <c r="JJ65" s="66"/>
+      <c r="JK65" s="66"/>
+      <c r="JL65" s="66"/>
+      <c r="JM65" s="66"/>
+      <c r="JN65" s="66"/>
+      <c r="JO65" s="66"/>
+      <c r="JP65" s="66"/>
+      <c r="JQ65" s="66"/>
+      <c r="JR65" s="66"/>
+      <c r="JS65" s="66"/>
+      <c r="JT65" s="66"/>
+      <c r="JU65" s="66"/>
+      <c r="JV65" s="66"/>
+      <c r="JW65" s="66"/>
+      <c r="JX65" s="66"/>
+      <c r="JY65" s="66"/>
+      <c r="JZ65" s="66"/>
+      <c r="KA65" s="66"/>
+      <c r="KB65" s="66"/>
+      <c r="KC65" s="66"/>
+      <c r="KD65" s="66"/>
+      <c r="KE65" s="66"/>
+      <c r="KF65" s="66"/>
+      <c r="KG65" s="66"/>
+      <c r="KH65" s="66"/>
+      <c r="KI65" s="66"/>
+      <c r="KJ65" s="66"/>
+      <c r="KK65" s="66"/>
+      <c r="KL65" s="66"/>
+      <c r="KM65" s="66"/>
+      <c r="KN65" s="66"/>
+      <c r="KO65" s="66"/>
+      <c r="KP65" s="66"/>
+      <c r="KQ65" s="66"/>
+      <c r="KR65" s="66"/>
+      <c r="KS65" s="66"/>
+      <c r="KT65" s="66"/>
+      <c r="KU65" s="66"/>
+      <c r="KV65" s="66"/>
+      <c r="KW65" s="66"/>
+      <c r="KX65" s="66"/>
+      <c r="KY65" s="66"/>
+      <c r="KZ65" s="66"/>
+      <c r="LA65" s="66"/>
+      <c r="LB65" s="66"/>
+      <c r="LC65" s="66"/>
+      <c r="LD65" s="66"/>
+      <c r="LE65" s="66"/>
+      <c r="LF65" s="66"/>
+      <c r="LG65" s="66"/>
+      <c r="LH65" s="66"/>
+      <c r="LI65" s="66"/>
+      <c r="LJ65" s="66"/>
+      <c r="LK65" s="66"/>
+      <c r="LL65" s="66"/>
+      <c r="LM65" s="66"/>
+      <c r="LN65" s="66"/>
+      <c r="LO65" s="66"/>
+      <c r="LP65" s="66"/>
+      <c r="LQ65" s="66"/>
+      <c r="LR65" s="66"/>
+      <c r="LS65" s="66"/>
+      <c r="LT65" s="66"/>
+      <c r="LU65" s="66"/>
+      <c r="LV65" s="66"/>
+      <c r="LW65" s="66"/>
+      <c r="LX65" s="66"/>
+      <c r="LY65" s="66"/>
+      <c r="LZ65" s="66"/>
+      <c r="MA65" s="66"/>
+      <c r="MB65" s="66"/>
+      <c r="MC65" s="66"/>
+      <c r="MD65" s="66"/>
+      <c r="ME65" s="66"/>
+      <c r="MF65" s="66"/>
+      <c r="MG65" s="66"/>
+      <c r="MH65" s="66"/>
+      <c r="MI65" s="66"/>
+      <c r="MJ65" s="66"/>
+      <c r="MK65" s="66"/>
+      <c r="ML65" s="66"/>
+      <c r="MM65" s="66"/>
+      <c r="MN65" s="66"/>
+      <c r="MO65" s="66"/>
+      <c r="MP65" s="66"/>
+      <c r="MQ65" s="66"/>
+      <c r="MR65" s="66"/>
+      <c r="MS65" s="66"/>
+      <c r="MT65" s="66"/>
+      <c r="MU65" s="66"/>
+      <c r="MV65" s="66"/>
+      <c r="MW65" s="66"/>
+      <c r="MX65" s="66"/>
+      <c r="MY65" s="66"/>
+      <c r="MZ65" s="66"/>
+      <c r="NA65" s="66"/>
+      <c r="NB65" s="66"/>
+      <c r="NC65" s="66"/>
+      <c r="ND65" s="66"/>
+      <c r="NE65" s="66"/>
+      <c r="NF65" s="66"/>
+      <c r="NG65" s="66"/>
+      <c r="NH65" s="66"/>
+      <c r="NI65" s="66"/>
+      <c r="NJ65" s="66"/>
+      <c r="NK65" s="66"/>
+      <c r="NL65" s="66"/>
+      <c r="NM65" s="66"/>
+      <c r="NN65" s="66"/>
+      <c r="NO65" s="66"/>
+      <c r="NP65" s="66"/>
+      <c r="NQ65" s="66"/>
+      <c r="NR65" s="66"/>
+      <c r="NS65" s="66"/>
+      <c r="NT65" s="66"/>
+      <c r="NU65" s="66"/>
+      <c r="NV65" s="66"/>
+      <c r="NW65" s="66"/>
+      <c r="NX65" s="66"/>
+      <c r="NY65" s="66"/>
+      <c r="NZ65" s="66"/>
+      <c r="OA65" s="66"/>
+      <c r="OB65" s="66"/>
+      <c r="OC65" s="66"/>
+      <c r="OD65" s="66"/>
+      <c r="OE65" s="66"/>
+      <c r="OF65" s="66"/>
+      <c r="OG65" s="66"/>
+      <c r="OH65" s="66"/>
+      <c r="OI65" s="66"/>
+      <c r="OJ65" s="66"/>
+      <c r="OK65" s="66"/>
+      <c r="OL65" s="66"/>
+      <c r="OM65" s="66"/>
+      <c r="ON65" s="66"/>
+      <c r="OO65" s="66"/>
+      <c r="OP65" s="66"/>
+      <c r="OQ65" s="66"/>
+      <c r="OR65" s="66"/>
+      <c r="OS65" s="66"/>
+      <c r="OT65" s="66"/>
+      <c r="OU65" s="66"/>
+      <c r="OV65" s="66"/>
+      <c r="OW65" s="66"/>
+      <c r="OX65" s="66"/>
+      <c r="OY65" s="66"/>
+      <c r="OZ65" s="66"/>
+      <c r="PA65" s="66"/>
+      <c r="PB65" s="66"/>
+      <c r="PC65" s="66"/>
+      <c r="PD65" s="66"/>
+      <c r="PE65" s="66"/>
+      <c r="PF65" s="66"/>
+      <c r="PG65" s="66"/>
+      <c r="PH65" s="66"/>
+      <c r="PI65" s="66"/>
+      <c r="PJ65" s="66"/>
+      <c r="PK65" s="66"/>
+      <c r="PL65" s="66"/>
+      <c r="PM65" s="66"/>
+      <c r="PN65" s="66"/>
+      <c r="PO65" s="66"/>
+      <c r="PP65" s="66"/>
+      <c r="PQ65" s="66"/>
+      <c r="PR65" s="66"/>
+      <c r="PS65" s="66"/>
+      <c r="PT65" s="66"/>
+      <c r="PU65" s="66"/>
+      <c r="PV65" s="66"/>
+      <c r="PW65" s="66"/>
+      <c r="PX65" s="66"/>
+      <c r="PY65" s="66"/>
+      <c r="PZ65" s="66"/>
+      <c r="QA65" s="66"/>
+      <c r="QB65" s="66"/>
+      <c r="QC65" s="66"/>
+      <c r="QD65" s="66"/>
+      <c r="QE65" s="66"/>
+      <c r="QF65" s="66"/>
+      <c r="QG65" s="66"/>
+      <c r="QH65" s="66"/>
+      <c r="QI65" s="66"/>
+      <c r="QJ65" s="66"/>
+      <c r="QK65" s="66"/>
+      <c r="QL65" s="66"/>
+      <c r="QM65" s="66"/>
+      <c r="QN65" s="66"/>
+      <c r="QO65" s="66"/>
+      <c r="QP65" s="66"/>
+      <c r="QQ65" s="66"/>
+      <c r="QR65" s="66"/>
+      <c r="QS65" s="66"/>
+      <c r="QT65" s="66"/>
+      <c r="QU65" s="66"/>
+      <c r="QV65" s="66"/>
+      <c r="QW65" s="66"/>
+      <c r="QX65" s="66"/>
+      <c r="QY65" s="66"/>
+      <c r="QZ65" s="66"/>
+      <c r="RA65" s="66"/>
+      <c r="RB65" s="66"/>
+      <c r="RC65" s="66"/>
+      <c r="RD65" s="66"/>
+      <c r="RE65" s="66"/>
+      <c r="RF65" s="66"/>
+      <c r="RG65" s="66"/>
+      <c r="RH65" s="66"/>
+      <c r="RI65" s="66"/>
+      <c r="RJ65" s="66"/>
+      <c r="RK65" s="66"/>
+      <c r="RL65" s="66"/>
+      <c r="RM65" s="66"/>
+      <c r="RN65" s="66"/>
+      <c r="RO65" s="66"/>
+      <c r="RP65" s="66"/>
+      <c r="RQ65" s="66"/>
+      <c r="RR65" s="66"/>
+      <c r="RS65" s="66"/>
+      <c r="RT65" s="66"/>
+      <c r="RU65" s="66"/>
+      <c r="RV65" s="66"/>
+      <c r="RW65" s="66"/>
+      <c r="RX65" s="66"/>
+      <c r="RY65" s="66"/>
+      <c r="RZ65" s="66"/>
+      <c r="SA65" s="66"/>
+      <c r="SB65" s="66"/>
+      <c r="SC65" s="66"/>
+      <c r="SD65" s="66"/>
+      <c r="SE65" s="66"/>
+      <c r="SF65" s="66"/>
+      <c r="SG65" s="66"/>
+      <c r="SH65" s="66"/>
+      <c r="SI65" s="66"/>
+      <c r="SJ65" s="66"/>
+      <c r="SK65" s="66"/>
+      <c r="SL65" s="66"/>
+      <c r="SM65" s="66"/>
+      <c r="SN65" s="66"/>
+      <c r="SO65" s="66"/>
+      <c r="SP65" s="66"/>
+      <c r="SQ65" s="66"/>
+      <c r="SR65" s="66"/>
+      <c r="SS65" s="66"/>
+      <c r="ST65" s="66"/>
+      <c r="SU65" s="66"/>
+      <c r="SV65" s="66"/>
+      <c r="SW65" s="66"/>
+      <c r="SX65" s="66"/>
+      <c r="SY65" s="66"/>
+      <c r="SZ65" s="66"/>
+      <c r="TA65" s="66"/>
+      <c r="TB65" s="66"/>
+      <c r="TC65" s="66"/>
+      <c r="TD65" s="66"/>
+      <c r="TE65" s="66"/>
+      <c r="TF65" s="66"/>
+      <c r="TG65" s="66"/>
+      <c r="TH65" s="66"/>
+      <c r="TI65" s="66"/>
+      <c r="TJ65" s="66"/>
+      <c r="TK65" s="66"/>
+      <c r="TL65" s="66"/>
+      <c r="TM65" s="66"/>
+      <c r="TN65" s="66"/>
+      <c r="TO65" s="66"/>
+      <c r="TP65" s="66"/>
+      <c r="TQ65" s="66"/>
+      <c r="TR65" s="66"/>
+      <c r="TS65" s="66"/>
+      <c r="TT65" s="66"/>
+      <c r="TU65" s="66"/>
+      <c r="TV65" s="66"/>
+      <c r="TW65" s="66"/>
+      <c r="TX65" s="66"/>
+      <c r="TY65" s="66"/>
+      <c r="TZ65" s="66"/>
+      <c r="UA65" s="66"/>
+      <c r="UB65" s="66"/>
+      <c r="UC65" s="66"/>
+      <c r="UD65" s="66"/>
+      <c r="UE65" s="66"/>
+      <c r="UF65" s="66"/>
+      <c r="UG65" s="66"/>
+      <c r="UH65" s="66"/>
+      <c r="UI65" s="66"/>
+      <c r="UJ65" s="66"/>
+      <c r="UK65" s="66"/>
+      <c r="UL65" s="66"/>
+      <c r="UM65" s="66"/>
+      <c r="UN65" s="66"/>
+      <c r="UO65" s="66"/>
+      <c r="UP65" s="66"/>
+      <c r="UQ65" s="66"/>
+      <c r="UR65" s="66"/>
+      <c r="US65" s="66"/>
+      <c r="UT65" s="66"/>
+      <c r="UU65" s="66"/>
+      <c r="UV65" s="66"/>
+      <c r="UW65" s="66"/>
+      <c r="UX65" s="66"/>
+      <c r="UY65" s="66"/>
+      <c r="UZ65" s="66"/>
+      <c r="VA65" s="66"/>
+      <c r="VB65" s="66"/>
+      <c r="VC65" s="66"/>
+      <c r="VD65" s="66"/>
+      <c r="VE65" s="66"/>
+      <c r="VF65" s="66"/>
+      <c r="VG65" s="66"/>
+      <c r="VH65" s="66"/>
+      <c r="VI65" s="66"/>
+      <c r="VJ65" s="66"/>
+      <c r="VK65" s="66"/>
+      <c r="VL65" s="66"/>
+      <c r="VM65" s="66"/>
+      <c r="VN65" s="66"/>
+      <c r="VO65" s="66"/>
+      <c r="VP65" s="66"/>
+      <c r="VQ65" s="66"/>
+      <c r="VR65" s="66"/>
+      <c r="VS65" s="66"/>
+      <c r="VT65" s="66"/>
+      <c r="VU65" s="66"/>
+      <c r="VV65" s="66"/>
+      <c r="VW65" s="66"/>
+      <c r="VX65" s="66"/>
+      <c r="VY65" s="66"/>
+      <c r="VZ65" s="66"/>
+      <c r="WA65" s="66"/>
+      <c r="WB65" s="66"/>
+      <c r="WC65" s="66"/>
+      <c r="WD65" s="66"/>
+      <c r="WE65" s="66"/>
+      <c r="WF65" s="66"/>
+      <c r="WG65" s="66"/>
+      <c r="WH65" s="66"/>
+      <c r="WI65" s="66"/>
+      <c r="WJ65" s="66"/>
+      <c r="WK65" s="66"/>
+      <c r="WL65" s="66"/>
+      <c r="WM65" s="66"/>
+      <c r="WN65" s="66"/>
+      <c r="WO65" s="66"/>
+      <c r="WP65" s="66"/>
+      <c r="WQ65" s="66"/>
+      <c r="WR65" s="66"/>
+      <c r="WS65" s="66"/>
+      <c r="WT65" s="66"/>
+      <c r="WU65" s="66"/>
+      <c r="WV65" s="66"/>
+      <c r="WW65" s="66"/>
+      <c r="WX65" s="66"/>
+      <c r="WY65" s="66"/>
+      <c r="WZ65" s="66"/>
+      <c r="XA65" s="66"/>
+      <c r="XB65" s="66"/>
+      <c r="XC65" s="66"/>
+      <c r="XD65" s="66"/>
+      <c r="XE65" s="66"/>
+      <c r="XF65" s="66"/>
+      <c r="XG65" s="66"/>
+      <c r="XH65" s="66"/>
+      <c r="XI65" s="66"/>
+      <c r="XJ65" s="66"/>
+      <c r="XK65" s="66"/>
+      <c r="XL65" s="66"/>
+      <c r="XM65" s="66"/>
+      <c r="XN65" s="66"/>
+      <c r="XO65" s="66"/>
+      <c r="XP65" s="66"/>
+      <c r="XQ65" s="66"/>
+      <c r="XR65" s="66"/>
+      <c r="XS65" s="66"/>
+      <c r="XT65" s="66"/>
+      <c r="XU65" s="66"/>
+      <c r="XV65" s="66"/>
+      <c r="XW65" s="66"/>
+      <c r="XX65" s="66"/>
+      <c r="XY65" s="66"/>
+      <c r="XZ65" s="66"/>
+      <c r="YA65" s="66"/>
+      <c r="YB65" s="66"/>
+      <c r="YC65" s="66"/>
+      <c r="YD65" s="66"/>
+      <c r="YE65" s="66"/>
+      <c r="YF65" s="66"/>
+      <c r="YG65" s="66"/>
+      <c r="YH65" s="66"/>
+      <c r="YI65" s="66"/>
+      <c r="YJ65" s="66"/>
+      <c r="YK65" s="66"/>
+      <c r="YL65" s="66"/>
+      <c r="YM65" s="66"/>
+      <c r="YN65" s="66"/>
+      <c r="YO65" s="66"/>
+      <c r="YP65" s="66"/>
+      <c r="YQ65" s="66"/>
+      <c r="YR65" s="66"/>
+      <c r="YS65" s="66"/>
+      <c r="YT65" s="66"/>
+      <c r="YU65" s="66"/>
+      <c r="YV65" s="66"/>
+      <c r="YW65" s="66"/>
+      <c r="YX65" s="66"/>
+      <c r="YY65" s="66"/>
+      <c r="YZ65" s="66"/>
+      <c r="ZA65" s="66"/>
+      <c r="ZB65" s="66"/>
+      <c r="ZC65" s="66"/>
+      <c r="ZD65" s="66"/>
+      <c r="ZE65" s="66"/>
+      <c r="ZF65" s="66"/>
+      <c r="ZG65" s="66"/>
+      <c r="ZH65" s="66"/>
+      <c r="ZI65" s="66"/>
+      <c r="ZJ65" s="66"/>
+      <c r="ZK65" s="66"/>
+      <c r="ZL65" s="66"/>
+      <c r="ZM65" s="66"/>
+      <c r="ZN65" s="66"/>
+      <c r="ZO65" s="66"/>
+      <c r="ZP65" s="66"/>
+      <c r="ZQ65" s="66"/>
+      <c r="ZR65" s="66"/>
+      <c r="ZS65" s="66"/>
+      <c r="ZT65" s="66"/>
+      <c r="ZU65" s="66"/>
+      <c r="ZV65" s="66"/>
+      <c r="ZW65" s="66"/>
+      <c r="ZX65" s="66"/>
+      <c r="ZY65" s="66"/>
+      <c r="ZZ65" s="66"/>
+      <c r="AAA65" s="66"/>
+      <c r="AAB65" s="66"/>
+      <c r="AAC65" s="66"/>
+      <c r="AAD65" s="66"/>
+      <c r="AAE65" s="66"/>
+      <c r="AAF65" s="66"/>
+      <c r="AAG65" s="66"/>
+      <c r="AAH65" s="66"/>
+      <c r="AAI65" s="66"/>
+      <c r="AAJ65" s="66"/>
+      <c r="AAK65" s="66"/>
+      <c r="AAL65" s="66"/>
+      <c r="AAM65" s="66"/>
+      <c r="AAN65" s="66"/>
+      <c r="AAO65" s="66"/>
+      <c r="AAP65" s="66"/>
+      <c r="AAQ65" s="66"/>
+      <c r="AAR65" s="66"/>
+      <c r="AAS65" s="66"/>
+      <c r="AAT65" s="66"/>
+      <c r="AAU65" s="66"/>
+      <c r="AAV65" s="66"/>
+      <c r="AAW65" s="66"/>
+      <c r="AAX65" s="66"/>
+      <c r="AAY65" s="66"/>
+      <c r="AAZ65" s="66"/>
+      <c r="ABA65" s="66"/>
+      <c r="ABB65" s="66"/>
+      <c r="ABC65" s="66"/>
+      <c r="ABD65" s="66"/>
+      <c r="ABE65" s="66"/>
+      <c r="ABF65" s="66"/>
+      <c r="ABG65" s="66"/>
+      <c r="ABH65" s="66"/>
+      <c r="ABI65" s="66"/>
+      <c r="ABJ65" s="66"/>
+      <c r="ABK65" s="66"/>
+      <c r="ABL65" s="66"/>
+      <c r="ABM65" s="66"/>
+      <c r="ABN65" s="66"/>
+      <c r="ABO65" s="66"/>
+      <c r="ABP65" s="66"/>
+      <c r="ABQ65" s="66"/>
+      <c r="ABR65" s="66"/>
+      <c r="ABS65" s="66"/>
+      <c r="ABT65" s="66"/>
+      <c r="ABU65" s="66"/>
+      <c r="ABV65" s="66"/>
+      <c r="ABW65" s="66"/>
+      <c r="ABX65" s="66"/>
+      <c r="ABY65" s="66"/>
+      <c r="ABZ65" s="66"/>
+      <c r="ACA65" s="66"/>
+      <c r="ACB65" s="66"/>
+      <c r="ACC65" s="66"/>
+      <c r="ACD65" s="66"/>
+      <c r="ACE65" s="66"/>
+      <c r="ACF65" s="66"/>
+      <c r="ACG65" s="66"/>
+      <c r="ACH65" s="66"/>
+      <c r="ACI65" s="66"/>
+      <c r="ACJ65" s="66"/>
+      <c r="ACK65" s="66"/>
+      <c r="ACL65" s="66"/>
+      <c r="ACM65" s="66"/>
+      <c r="ACN65" s="66"/>
+      <c r="ACO65" s="66"/>
+      <c r="ACP65" s="66"/>
+      <c r="ACQ65" s="66"/>
+      <c r="ACR65" s="66"/>
+      <c r="ACS65" s="66"/>
+      <c r="ACT65" s="66"/>
+      <c r="ACU65" s="66"/>
+      <c r="ACV65" s="66"/>
+      <c r="ACW65" s="66"/>
+      <c r="ACX65" s="66"/>
+      <c r="ACY65" s="66"/>
+      <c r="ACZ65" s="66"/>
+      <c r="ADA65" s="66"/>
+      <c r="ADB65" s="66"/>
+      <c r="ADC65" s="66"/>
+      <c r="ADD65" s="66"/>
+      <c r="ADE65" s="66"/>
+      <c r="ADF65" s="66"/>
+      <c r="ADG65" s="66"/>
+      <c r="ADH65" s="66"/>
+      <c r="ADI65" s="66"/>
+      <c r="ADJ65" s="66"/>
+      <c r="ADK65" s="66"/>
+      <c r="ADL65" s="66"/>
+      <c r="ADM65" s="66"/>
+      <c r="ADN65" s="66"/>
+      <c r="ADO65" s="66"/>
+      <c r="ADP65" s="66"/>
+      <c r="ADQ65" s="66"/>
+      <c r="ADR65" s="66"/>
+      <c r="ADS65" s="66"/>
+      <c r="ADT65" s="66"/>
+      <c r="ADU65" s="66"/>
+      <c r="ADV65" s="66"/>
+      <c r="ADW65" s="66"/>
+      <c r="ADX65" s="66"/>
+      <c r="ADY65" s="66"/>
+      <c r="ADZ65" s="66"/>
+      <c r="AEA65" s="66"/>
+      <c r="AEB65" s="66"/>
+      <c r="AEC65" s="66"/>
+      <c r="AED65" s="66"/>
+      <c r="AEE65" s="66"/>
+      <c r="AEF65" s="66"/>
+      <c r="AEG65" s="66"/>
+      <c r="AEH65" s="66"/>
+      <c r="AEI65" s="66"/>
+      <c r="AEJ65" s="66"/>
+      <c r="AEK65" s="66"/>
+      <c r="AEL65" s="66"/>
+      <c r="AEM65" s="66"/>
+      <c r="AEN65" s="66"/>
+      <c r="AEO65" s="66"/>
+      <c r="AEP65" s="66"/>
+      <c r="AEQ65" s="66"/>
+      <c r="AER65" s="66"/>
+      <c r="AES65" s="66"/>
+      <c r="AET65" s="66"/>
+      <c r="AEU65" s="66"/>
+      <c r="AEV65" s="66"/>
+      <c r="AEW65" s="66"/>
+      <c r="AEX65" s="66"/>
+      <c r="AEY65" s="66"/>
+      <c r="AEZ65" s="66"/>
+      <c r="AFA65" s="66"/>
+      <c r="AFB65" s="66"/>
+      <c r="AFC65" s="66"/>
+      <c r="AFD65" s="66"/>
+      <c r="AFE65" s="66"/>
+      <c r="AFF65" s="66"/>
+      <c r="AFG65" s="66"/>
+      <c r="AFH65" s="66"/>
+      <c r="AFI65" s="66"/>
+      <c r="AFJ65" s="66"/>
+      <c r="AFK65" s="66"/>
+      <c r="AFL65" s="66"/>
+      <c r="AFM65" s="66"/>
+      <c r="AFN65" s="66"/>
+      <c r="AFO65" s="66"/>
+      <c r="AFP65" s="66"/>
+      <c r="AFQ65" s="66"/>
+      <c r="AFR65" s="66"/>
+      <c r="AFS65" s="66"/>
+      <c r="AFT65" s="66"/>
+      <c r="AFU65" s="66"/>
+      <c r="AFV65" s="66"/>
+      <c r="AFW65" s="66"/>
+      <c r="AFX65" s="66"/>
+      <c r="AFY65" s="66"/>
+      <c r="AFZ65" s="66"/>
+      <c r="AGA65" s="66"/>
+      <c r="AGB65" s="66"/>
+      <c r="AGC65" s="66"/>
+      <c r="AGD65" s="66"/>
+      <c r="AGE65" s="66"/>
+      <c r="AGF65" s="66"/>
+      <c r="AGG65" s="66"/>
+      <c r="AGH65" s="66"/>
+      <c r="AGI65" s="66"/>
+      <c r="AGJ65" s="66"/>
+      <c r="AGK65" s="66"/>
+      <c r="AGL65" s="66"/>
+      <c r="AGM65" s="66"/>
+      <c r="AGN65" s="66"/>
+      <c r="AGO65" s="66"/>
+      <c r="AGP65" s="66"/>
+      <c r="AGQ65" s="66"/>
+      <c r="AGR65" s="66"/>
+      <c r="AGS65" s="66"/>
+      <c r="AGT65" s="66"/>
+      <c r="AGU65" s="66"/>
+      <c r="AGV65" s="66"/>
+      <c r="AGW65" s="66"/>
+      <c r="AGX65" s="66"/>
+      <c r="AGY65" s="66"/>
+      <c r="AGZ65" s="66"/>
+      <c r="AHA65" s="66"/>
+      <c r="AHB65" s="66"/>
+      <c r="AHC65" s="66"/>
+      <c r="AHD65" s="66"/>
+      <c r="AHE65" s="66"/>
+      <c r="AHF65" s="66"/>
+      <c r="AHG65" s="66"/>
+      <c r="AHH65" s="66"/>
+      <c r="AHI65" s="66"/>
+      <c r="AHJ65" s="66"/>
+      <c r="AHK65" s="66"/>
+      <c r="AHL65" s="66"/>
+      <c r="AHM65" s="66"/>
+      <c r="AHN65" s="66"/>
+      <c r="AHO65" s="66"/>
+      <c r="AHP65" s="66"/>
+      <c r="AHQ65" s="66"/>
+      <c r="AHR65" s="66"/>
+      <c r="AHS65" s="66"/>
+      <c r="AHT65" s="66"/>
+      <c r="AHU65" s="66"/>
+      <c r="AHV65" s="66"/>
+      <c r="AHW65" s="66"/>
+      <c r="AHX65" s="66"/>
+      <c r="AHY65" s="66"/>
+      <c r="AHZ65" s="66"/>
+      <c r="AIA65" s="66"/>
+      <c r="AIB65" s="66"/>
+      <c r="AIC65" s="66"/>
+      <c r="AID65" s="66"/>
+      <c r="AIE65" s="66"/>
+      <c r="AIF65" s="66"/>
+      <c r="AIG65" s="66"/>
+      <c r="AIH65" s="66"/>
+      <c r="AII65" s="66"/>
+      <c r="AIJ65" s="66"/>
+      <c r="AIK65" s="66"/>
+      <c r="AIL65" s="66"/>
+      <c r="AIM65" s="66"/>
+      <c r="AIN65" s="66"/>
+      <c r="AIO65" s="66"/>
+      <c r="AIP65" s="66"/>
+      <c r="AIQ65" s="66"/>
+      <c r="AIR65" s="66"/>
+      <c r="AIS65" s="66"/>
+      <c r="AIT65" s="66"/>
+      <c r="AIU65" s="66"/>
+      <c r="AIV65" s="66"/>
+      <c r="AIW65" s="66"/>
+      <c r="AIX65" s="66"/>
+      <c r="AIY65" s="66"/>
+      <c r="AIZ65" s="66"/>
+      <c r="AJA65" s="66"/>
+      <c r="AJB65" s="66"/>
+      <c r="AJC65" s="66"/>
+      <c r="AJD65" s="66"/>
+      <c r="AJE65" s="66"/>
+      <c r="AJF65" s="66"/>
+      <c r="AJG65" s="66"/>
+      <c r="AJH65" s="66"/>
+      <c r="AJI65" s="66"/>
+      <c r="AJJ65" s="66"/>
+      <c r="AJK65" s="66"/>
+      <c r="AJL65" s="66"/>
+      <c r="AJM65" s="66"/>
+      <c r="AJN65" s="66"/>
+      <c r="AJO65" s="66"/>
+      <c r="AJP65" s="66"/>
+      <c r="AJQ65" s="66"/>
+      <c r="AJR65" s="66"/>
+      <c r="AJS65" s="66"/>
+      <c r="AJT65" s="66"/>
+      <c r="AJU65" s="66"/>
+      <c r="AJV65" s="66"/>
+      <c r="AJW65" s="66"/>
+      <c r="AJX65" s="66"/>
+      <c r="AJY65" s="66"/>
+      <c r="AJZ65" s="66"/>
+      <c r="AKA65" s="66"/>
+      <c r="AKB65" s="66"/>
+      <c r="AKC65" s="66"/>
+      <c r="AKD65" s="66"/>
+      <c r="AKE65" s="66"/>
+      <c r="AKF65" s="66"/>
+      <c r="AKG65" s="66"/>
+      <c r="AKH65" s="66"/>
+      <c r="AKI65" s="66"/>
+      <c r="AKJ65" s="66"/>
+      <c r="AKK65" s="66"/>
+      <c r="AKL65" s="66"/>
+      <c r="AKM65" s="66"/>
+      <c r="AKN65" s="66"/>
+      <c r="AKO65" s="66"/>
+      <c r="AKP65" s="66"/>
+      <c r="AKQ65" s="66"/>
+      <c r="AKR65" s="66"/>
+      <c r="AKS65" s="66"/>
+      <c r="AKT65" s="66"/>
+      <c r="AKU65" s="66"/>
+      <c r="AKV65" s="66"/>
+      <c r="AKW65" s="66"/>
+      <c r="AKX65" s="66"/>
+      <c r="AKY65" s="66"/>
+      <c r="AKZ65" s="66"/>
+      <c r="ALA65" s="66"/>
+      <c r="ALB65" s="66"/>
+      <c r="ALC65" s="66"/>
+      <c r="ALD65" s="66"/>
+      <c r="ALE65" s="66"/>
+      <c r="ALF65" s="66"/>
+      <c r="ALG65" s="66"/>
+      <c r="ALH65" s="66"/>
+      <c r="ALI65" s="66"/>
+      <c r="ALJ65" s="66"/>
+      <c r="ALK65" s="66"/>
+      <c r="ALL65" s="66"/>
+      <c r="ALM65" s="66"/>
+      <c r="ALN65" s="66"/>
+      <c r="ALO65" s="66"/>
+      <c r="ALP65" s="66"/>
+      <c r="ALQ65" s="66"/>
+      <c r="ALR65" s="66"/>
+      <c r="ALS65" s="66"/>
+      <c r="ALT65" s="66"/>
+      <c r="ALU65" s="66"/>
+      <c r="ALV65" s="66"/>
+      <c r="ALW65" s="66"/>
+      <c r="ALX65" s="66"/>
+      <c r="ALY65" s="66"/>
+      <c r="ALZ65" s="66"/>
+      <c r="AMA65" s="66"/>
+      <c r="AMB65" s="66"/>
+      <c r="AMC65" s="66"/>
+      <c r="AMD65" s="66"/>
+      <c r="AME65" s="66"/>
+      <c r="AMF65" s="66"/>
+      <c r="AMG65" s="66"/>
+      <c r="AMH65" s="66"/>
+      <c r="AMI65" s="66"/>
+      <c r="AMJ65" s="66"/>
     </row>
     <row r="66" s="31" customFormat="true" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
@@ -28804,1044 +28763,1044 @@
       <c r="AMJ66" s="38"/>
     </row>
     <row r="67" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="67"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="67"/>
-      <c r="O67" s="67"/>
-      <c r="P67" s="67"/>
-      <c r="Q67" s="67"/>
-      <c r="R67" s="67"/>
-      <c r="S67" s="67"/>
-      <c r="T67" s="67"/>
-      <c r="U67" s="67"/>
-      <c r="V67" s="67"/>
-      <c r="W67" s="67"/>
-      <c r="X67" s="67"/>
-      <c r="Y67" s="67"/>
-      <c r="Z67" s="67"/>
-      <c r="AA67" s="67"/>
-      <c r="AB67" s="67"/>
-      <c r="AC67" s="67"/>
-      <c r="AD67" s="67"/>
-      <c r="AE67" s="67"/>
-      <c r="AF67" s="67"/>
-      <c r="AG67" s="67"/>
-      <c r="AH67" s="67"/>
-      <c r="AI67" s="67"/>
-      <c r="AJ67" s="67"/>
-      <c r="AK67" s="67"/>
-      <c r="AL67" s="67"/>
-      <c r="AM67" s="67"/>
-      <c r="AN67" s="67"/>
-      <c r="AO67" s="67"/>
-      <c r="AP67" s="67"/>
-      <c r="AQ67" s="67"/>
-      <c r="AR67" s="67"/>
-      <c r="AS67" s="67"/>
-      <c r="AT67" s="67"/>
-      <c r="AU67" s="67"/>
-      <c r="AV67" s="67"/>
-      <c r="AW67" s="67"/>
-      <c r="AX67" s="67"/>
-      <c r="AY67" s="67"/>
-      <c r="AZ67" s="67"/>
-      <c r="BA67" s="67"/>
-      <c r="BB67" s="67"/>
-      <c r="BC67" s="67"/>
-      <c r="BD67" s="67"/>
-      <c r="BE67" s="67"/>
-      <c r="BF67" s="67"/>
-      <c r="BG67" s="67"/>
-      <c r="BH67" s="67"/>
-      <c r="BI67" s="67"/>
-      <c r="BJ67" s="67"/>
-      <c r="BK67" s="67"/>
-      <c r="BL67" s="67"/>
-      <c r="BM67" s="67"/>
-      <c r="BN67" s="67"/>
-      <c r="BO67" s="67"/>
-      <c r="BP67" s="67"/>
-      <c r="BQ67" s="67"/>
-      <c r="BR67" s="67"/>
-      <c r="BS67" s="67"/>
-      <c r="BT67" s="67"/>
-      <c r="BU67" s="67"/>
-      <c r="BV67" s="67"/>
-      <c r="BW67" s="67"/>
-      <c r="BX67" s="67"/>
-      <c r="BY67" s="67"/>
-      <c r="BZ67" s="67"/>
-      <c r="CA67" s="67"/>
-      <c r="CB67" s="67"/>
-      <c r="CC67" s="67"/>
-      <c r="CD67" s="67"/>
-      <c r="CE67" s="67"/>
-      <c r="CF67" s="67"/>
-      <c r="CG67" s="67"/>
-      <c r="CH67" s="67"/>
-      <c r="CI67" s="67"/>
-      <c r="CJ67" s="67"/>
-      <c r="CK67" s="67"/>
-      <c r="CL67" s="67"/>
-      <c r="CM67" s="67"/>
-      <c r="CN67" s="67"/>
-      <c r="CO67" s="67"/>
-      <c r="CP67" s="67"/>
-      <c r="CQ67" s="67"/>
-      <c r="CR67" s="67"/>
-      <c r="CS67" s="67"/>
-      <c r="CT67" s="67"/>
-      <c r="CU67" s="67"/>
-      <c r="CV67" s="67"/>
-      <c r="CW67" s="67"/>
-      <c r="CX67" s="67"/>
-      <c r="CY67" s="67"/>
-      <c r="CZ67" s="67"/>
-      <c r="DA67" s="67"/>
-      <c r="DB67" s="67"/>
-      <c r="DC67" s="67"/>
-      <c r="DD67" s="67"/>
-      <c r="DE67" s="67"/>
-      <c r="DF67" s="67"/>
-      <c r="DG67" s="67"/>
-      <c r="DH67" s="67"/>
-      <c r="DI67" s="67"/>
-      <c r="DJ67" s="67"/>
-      <c r="DK67" s="67"/>
-      <c r="DL67" s="67"/>
-      <c r="DM67" s="67"/>
-      <c r="DN67" s="67"/>
-      <c r="DO67" s="67"/>
-      <c r="DP67" s="67"/>
-      <c r="DQ67" s="67"/>
-      <c r="DR67" s="67"/>
-      <c r="DS67" s="67"/>
-      <c r="DT67" s="67"/>
-      <c r="DU67" s="67"/>
-      <c r="DV67" s="67"/>
-      <c r="DW67" s="67"/>
-      <c r="DX67" s="67"/>
-      <c r="DY67" s="67"/>
-      <c r="DZ67" s="67"/>
-      <c r="EA67" s="67"/>
-      <c r="EB67" s="67"/>
-      <c r="EC67" s="67"/>
-      <c r="ED67" s="67"/>
-      <c r="EE67" s="67"/>
-      <c r="EF67" s="67"/>
-      <c r="EG67" s="67"/>
-      <c r="EH67" s="67"/>
-      <c r="EI67" s="67"/>
-      <c r="EJ67" s="67"/>
-      <c r="EK67" s="67"/>
-      <c r="EL67" s="67"/>
-      <c r="EM67" s="67"/>
-      <c r="EN67" s="67"/>
-      <c r="EO67" s="67"/>
-      <c r="EP67" s="67"/>
-      <c r="EQ67" s="67"/>
-      <c r="ER67" s="67"/>
-      <c r="ES67" s="67"/>
-      <c r="ET67" s="67"/>
-      <c r="EU67" s="67"/>
-      <c r="EV67" s="67"/>
-      <c r="EW67" s="67"/>
-      <c r="EX67" s="67"/>
-      <c r="EY67" s="67"/>
-      <c r="EZ67" s="67"/>
-      <c r="FA67" s="67"/>
-      <c r="FB67" s="67"/>
-      <c r="FC67" s="67"/>
-      <c r="FD67" s="67"/>
-      <c r="FE67" s="67"/>
-      <c r="FF67" s="67"/>
-      <c r="FG67" s="67"/>
-      <c r="FH67" s="67"/>
-      <c r="FI67" s="67"/>
-      <c r="FJ67" s="67"/>
-      <c r="FK67" s="67"/>
-      <c r="FL67" s="67"/>
-      <c r="FM67" s="67"/>
-      <c r="FN67" s="67"/>
-      <c r="FO67" s="67"/>
-      <c r="FP67" s="67"/>
-      <c r="FQ67" s="67"/>
-      <c r="FR67" s="67"/>
-      <c r="FS67" s="67"/>
-      <c r="FT67" s="67"/>
-      <c r="FU67" s="67"/>
-      <c r="FV67" s="67"/>
-      <c r="FW67" s="67"/>
-      <c r="FX67" s="67"/>
-      <c r="FY67" s="67"/>
-      <c r="FZ67" s="67"/>
-      <c r="GA67" s="67"/>
-      <c r="GB67" s="67"/>
-      <c r="GC67" s="67"/>
-      <c r="GD67" s="67"/>
-      <c r="GE67" s="67"/>
-      <c r="GF67" s="67"/>
-      <c r="GG67" s="67"/>
-      <c r="GH67" s="67"/>
-      <c r="GI67" s="67"/>
-      <c r="GJ67" s="67"/>
-      <c r="GK67" s="67"/>
-      <c r="GL67" s="67"/>
-      <c r="GM67" s="67"/>
-      <c r="GN67" s="67"/>
-      <c r="GO67" s="67"/>
-      <c r="GP67" s="67"/>
-      <c r="GQ67" s="67"/>
-      <c r="GR67" s="67"/>
-      <c r="GS67" s="67"/>
-      <c r="GT67" s="67"/>
-      <c r="GU67" s="67"/>
-      <c r="GV67" s="67"/>
-      <c r="GW67" s="67"/>
-      <c r="GX67" s="67"/>
-      <c r="GY67" s="67"/>
-      <c r="GZ67" s="67"/>
-      <c r="HA67" s="67"/>
-      <c r="HB67" s="67"/>
-      <c r="HC67" s="67"/>
-      <c r="HD67" s="67"/>
-      <c r="HE67" s="67"/>
-      <c r="HF67" s="67"/>
-      <c r="HG67" s="67"/>
-      <c r="HH67" s="67"/>
-      <c r="HI67" s="67"/>
-      <c r="HJ67" s="67"/>
-      <c r="HK67" s="67"/>
-      <c r="HL67" s="67"/>
-      <c r="HM67" s="67"/>
-      <c r="HN67" s="67"/>
-      <c r="HO67" s="67"/>
-      <c r="HP67" s="67"/>
-      <c r="HQ67" s="67"/>
-      <c r="HR67" s="67"/>
-      <c r="HS67" s="67"/>
-      <c r="HT67" s="67"/>
-      <c r="HU67" s="67"/>
-      <c r="HV67" s="67"/>
-      <c r="HW67" s="67"/>
-      <c r="HX67" s="67"/>
-      <c r="HY67" s="67"/>
-      <c r="HZ67" s="67"/>
-      <c r="IA67" s="67"/>
-      <c r="IB67" s="67"/>
-      <c r="IC67" s="67"/>
-      <c r="ID67" s="67"/>
-      <c r="IE67" s="67"/>
-      <c r="IF67" s="67"/>
-      <c r="IG67" s="67"/>
-      <c r="IH67" s="67"/>
-      <c r="II67" s="67"/>
-      <c r="IJ67" s="67"/>
-      <c r="IK67" s="67"/>
-      <c r="IL67" s="67"/>
-      <c r="IM67" s="67"/>
-      <c r="IN67" s="67"/>
-      <c r="IO67" s="67"/>
-      <c r="IP67" s="67"/>
-      <c r="IQ67" s="67"/>
-      <c r="IR67" s="67"/>
-      <c r="IS67" s="67"/>
-      <c r="IT67" s="67"/>
-      <c r="IU67" s="67"/>
-      <c r="IV67" s="67"/>
-      <c r="IW67" s="67"/>
-      <c r="IX67" s="67"/>
-      <c r="IY67" s="67"/>
-      <c r="IZ67" s="67"/>
-      <c r="JA67" s="67"/>
-      <c r="JB67" s="67"/>
-      <c r="JC67" s="67"/>
-      <c r="JD67" s="67"/>
-      <c r="JE67" s="67"/>
-      <c r="JF67" s="67"/>
-      <c r="JG67" s="67"/>
-      <c r="JH67" s="67"/>
-      <c r="JI67" s="67"/>
-      <c r="JJ67" s="67"/>
-      <c r="JK67" s="67"/>
-      <c r="JL67" s="67"/>
-      <c r="JM67" s="67"/>
-      <c r="JN67" s="67"/>
-      <c r="JO67" s="67"/>
-      <c r="JP67" s="67"/>
-      <c r="JQ67" s="67"/>
-      <c r="JR67" s="67"/>
-      <c r="JS67" s="67"/>
-      <c r="JT67" s="67"/>
-      <c r="JU67" s="67"/>
-      <c r="JV67" s="67"/>
-      <c r="JW67" s="67"/>
-      <c r="JX67" s="67"/>
-      <c r="JY67" s="67"/>
-      <c r="JZ67" s="67"/>
-      <c r="KA67" s="67"/>
-      <c r="KB67" s="67"/>
-      <c r="KC67" s="67"/>
-      <c r="KD67" s="67"/>
-      <c r="KE67" s="67"/>
-      <c r="KF67" s="67"/>
-      <c r="KG67" s="67"/>
-      <c r="KH67" s="67"/>
-      <c r="KI67" s="67"/>
-      <c r="KJ67" s="67"/>
-      <c r="KK67" s="67"/>
-      <c r="KL67" s="67"/>
-      <c r="KM67" s="67"/>
-      <c r="KN67" s="67"/>
-      <c r="KO67" s="67"/>
-      <c r="KP67" s="67"/>
-      <c r="KQ67" s="67"/>
-      <c r="KR67" s="67"/>
-      <c r="KS67" s="67"/>
-      <c r="KT67" s="67"/>
-      <c r="KU67" s="67"/>
-      <c r="KV67" s="67"/>
-      <c r="KW67" s="67"/>
-      <c r="KX67" s="67"/>
-      <c r="KY67" s="67"/>
-      <c r="KZ67" s="67"/>
-      <c r="LA67" s="67"/>
-      <c r="LB67" s="67"/>
-      <c r="LC67" s="67"/>
-      <c r="LD67" s="67"/>
-      <c r="LE67" s="67"/>
-      <c r="LF67" s="67"/>
-      <c r="LG67" s="67"/>
-      <c r="LH67" s="67"/>
-      <c r="LI67" s="67"/>
-      <c r="LJ67" s="67"/>
-      <c r="LK67" s="67"/>
-      <c r="LL67" s="67"/>
-      <c r="LM67" s="67"/>
-      <c r="LN67" s="67"/>
-      <c r="LO67" s="67"/>
-      <c r="LP67" s="67"/>
-      <c r="LQ67" s="67"/>
-      <c r="LR67" s="67"/>
-      <c r="LS67" s="67"/>
-      <c r="LT67" s="67"/>
-      <c r="LU67" s="67"/>
-      <c r="LV67" s="67"/>
-      <c r="LW67" s="67"/>
-      <c r="LX67" s="67"/>
-      <c r="LY67" s="67"/>
-      <c r="LZ67" s="67"/>
-      <c r="MA67" s="67"/>
-      <c r="MB67" s="67"/>
-      <c r="MC67" s="67"/>
-      <c r="MD67" s="67"/>
-      <c r="ME67" s="67"/>
-      <c r="MF67" s="67"/>
-      <c r="MG67" s="67"/>
-      <c r="MH67" s="67"/>
-      <c r="MI67" s="67"/>
-      <c r="MJ67" s="67"/>
-      <c r="MK67" s="67"/>
-      <c r="ML67" s="67"/>
-      <c r="MM67" s="67"/>
-      <c r="MN67" s="67"/>
-      <c r="MO67" s="67"/>
-      <c r="MP67" s="67"/>
-      <c r="MQ67" s="67"/>
-      <c r="MR67" s="67"/>
-      <c r="MS67" s="67"/>
-      <c r="MT67" s="67"/>
-      <c r="MU67" s="67"/>
-      <c r="MV67" s="67"/>
-      <c r="MW67" s="67"/>
-      <c r="MX67" s="67"/>
-      <c r="MY67" s="67"/>
-      <c r="MZ67" s="67"/>
-      <c r="NA67" s="67"/>
-      <c r="NB67" s="67"/>
-      <c r="NC67" s="67"/>
-      <c r="ND67" s="67"/>
-      <c r="NE67" s="67"/>
-      <c r="NF67" s="67"/>
-      <c r="NG67" s="67"/>
-      <c r="NH67" s="67"/>
-      <c r="NI67" s="67"/>
-      <c r="NJ67" s="67"/>
-      <c r="NK67" s="67"/>
-      <c r="NL67" s="67"/>
-      <c r="NM67" s="67"/>
-      <c r="NN67" s="67"/>
-      <c r="NO67" s="67"/>
-      <c r="NP67" s="67"/>
-      <c r="NQ67" s="67"/>
-      <c r="NR67" s="67"/>
-      <c r="NS67" s="67"/>
-      <c r="NT67" s="67"/>
-      <c r="NU67" s="67"/>
-      <c r="NV67" s="67"/>
-      <c r="NW67" s="67"/>
-      <c r="NX67" s="67"/>
-      <c r="NY67" s="67"/>
-      <c r="NZ67" s="67"/>
-      <c r="OA67" s="67"/>
-      <c r="OB67" s="67"/>
-      <c r="OC67" s="67"/>
-      <c r="OD67" s="67"/>
-      <c r="OE67" s="67"/>
-      <c r="OF67" s="67"/>
-      <c r="OG67" s="67"/>
-      <c r="OH67" s="67"/>
-      <c r="OI67" s="67"/>
-      <c r="OJ67" s="67"/>
-      <c r="OK67" s="67"/>
-      <c r="OL67" s="67"/>
-      <c r="OM67" s="67"/>
-      <c r="ON67" s="67"/>
-      <c r="OO67" s="67"/>
-      <c r="OP67" s="67"/>
-      <c r="OQ67" s="67"/>
-      <c r="OR67" s="67"/>
-      <c r="OS67" s="67"/>
-      <c r="OT67" s="67"/>
-      <c r="OU67" s="67"/>
-      <c r="OV67" s="67"/>
-      <c r="OW67" s="67"/>
-      <c r="OX67" s="67"/>
-      <c r="OY67" s="67"/>
-      <c r="OZ67" s="67"/>
-      <c r="PA67" s="67"/>
-      <c r="PB67" s="67"/>
-      <c r="PC67" s="67"/>
-      <c r="PD67" s="67"/>
-      <c r="PE67" s="67"/>
-      <c r="PF67" s="67"/>
-      <c r="PG67" s="67"/>
-      <c r="PH67" s="67"/>
-      <c r="PI67" s="67"/>
-      <c r="PJ67" s="67"/>
-      <c r="PK67" s="67"/>
-      <c r="PL67" s="67"/>
-      <c r="PM67" s="67"/>
-      <c r="PN67" s="67"/>
-      <c r="PO67" s="67"/>
-      <c r="PP67" s="67"/>
-      <c r="PQ67" s="67"/>
-      <c r="PR67" s="67"/>
-      <c r="PS67" s="67"/>
-      <c r="PT67" s="67"/>
-      <c r="PU67" s="67"/>
-      <c r="PV67" s="67"/>
-      <c r="PW67" s="67"/>
-      <c r="PX67" s="67"/>
-      <c r="PY67" s="67"/>
-      <c r="PZ67" s="67"/>
-      <c r="QA67" s="67"/>
-      <c r="QB67" s="67"/>
-      <c r="QC67" s="67"/>
-      <c r="QD67" s="67"/>
-      <c r="QE67" s="67"/>
-      <c r="QF67" s="67"/>
-      <c r="QG67" s="67"/>
-      <c r="QH67" s="67"/>
-      <c r="QI67" s="67"/>
-      <c r="QJ67" s="67"/>
-      <c r="QK67" s="67"/>
-      <c r="QL67" s="67"/>
-      <c r="QM67" s="67"/>
-      <c r="QN67" s="67"/>
-      <c r="QO67" s="67"/>
-      <c r="QP67" s="67"/>
-      <c r="QQ67" s="67"/>
-      <c r="QR67" s="67"/>
-      <c r="QS67" s="67"/>
-      <c r="QT67" s="67"/>
-      <c r="QU67" s="67"/>
-      <c r="QV67" s="67"/>
-      <c r="QW67" s="67"/>
-      <c r="QX67" s="67"/>
-      <c r="QY67" s="67"/>
-      <c r="QZ67" s="67"/>
-      <c r="RA67" s="67"/>
-      <c r="RB67" s="67"/>
-      <c r="RC67" s="67"/>
-      <c r="RD67" s="67"/>
-      <c r="RE67" s="67"/>
-      <c r="RF67" s="67"/>
-      <c r="RG67" s="67"/>
-      <c r="RH67" s="67"/>
-      <c r="RI67" s="67"/>
-      <c r="RJ67" s="67"/>
-      <c r="RK67" s="67"/>
-      <c r="RL67" s="67"/>
-      <c r="RM67" s="67"/>
-      <c r="RN67" s="67"/>
-      <c r="RO67" s="67"/>
-      <c r="RP67" s="67"/>
-      <c r="RQ67" s="67"/>
-      <c r="RR67" s="67"/>
-      <c r="RS67" s="67"/>
-      <c r="RT67" s="67"/>
-      <c r="RU67" s="67"/>
-      <c r="RV67" s="67"/>
-      <c r="RW67" s="67"/>
-      <c r="RX67" s="67"/>
-      <c r="RY67" s="67"/>
-      <c r="RZ67" s="67"/>
-      <c r="SA67" s="67"/>
-      <c r="SB67" s="67"/>
-      <c r="SC67" s="67"/>
-      <c r="SD67" s="67"/>
-      <c r="SE67" s="67"/>
-      <c r="SF67" s="67"/>
-      <c r="SG67" s="67"/>
-      <c r="SH67" s="67"/>
-      <c r="SI67" s="67"/>
-      <c r="SJ67" s="67"/>
-      <c r="SK67" s="67"/>
-      <c r="SL67" s="67"/>
-      <c r="SM67" s="67"/>
-      <c r="SN67" s="67"/>
-      <c r="SO67" s="67"/>
-      <c r="SP67" s="67"/>
-      <c r="SQ67" s="67"/>
-      <c r="SR67" s="67"/>
-      <c r="SS67" s="67"/>
-      <c r="ST67" s="67"/>
-      <c r="SU67" s="67"/>
-      <c r="SV67" s="67"/>
-      <c r="SW67" s="67"/>
-      <c r="SX67" s="67"/>
-      <c r="SY67" s="67"/>
-      <c r="SZ67" s="67"/>
-      <c r="TA67" s="67"/>
-      <c r="TB67" s="67"/>
-      <c r="TC67" s="67"/>
-      <c r="TD67" s="67"/>
-      <c r="TE67" s="67"/>
-      <c r="TF67" s="67"/>
-      <c r="TG67" s="67"/>
-      <c r="TH67" s="67"/>
-      <c r="TI67" s="67"/>
-      <c r="TJ67" s="67"/>
-      <c r="TK67" s="67"/>
-      <c r="TL67" s="67"/>
-      <c r="TM67" s="67"/>
-      <c r="TN67" s="67"/>
-      <c r="TO67" s="67"/>
-      <c r="TP67" s="67"/>
-      <c r="TQ67" s="67"/>
-      <c r="TR67" s="67"/>
-      <c r="TS67" s="67"/>
-      <c r="TT67" s="67"/>
-      <c r="TU67" s="67"/>
-      <c r="TV67" s="67"/>
-      <c r="TW67" s="67"/>
-      <c r="TX67" s="67"/>
-      <c r="TY67" s="67"/>
-      <c r="TZ67" s="67"/>
-      <c r="UA67" s="67"/>
-      <c r="UB67" s="67"/>
-      <c r="UC67" s="67"/>
-      <c r="UD67" s="67"/>
-      <c r="UE67" s="67"/>
-      <c r="UF67" s="67"/>
-      <c r="UG67" s="67"/>
-      <c r="UH67" s="67"/>
-      <c r="UI67" s="67"/>
-      <c r="UJ67" s="67"/>
-      <c r="UK67" s="67"/>
-      <c r="UL67" s="67"/>
-      <c r="UM67" s="67"/>
-      <c r="UN67" s="67"/>
-      <c r="UO67" s="67"/>
-      <c r="UP67" s="67"/>
-      <c r="UQ67" s="67"/>
-      <c r="UR67" s="67"/>
-      <c r="US67" s="67"/>
-      <c r="UT67" s="67"/>
-      <c r="UU67" s="67"/>
-      <c r="UV67" s="67"/>
-      <c r="UW67" s="67"/>
-      <c r="UX67" s="67"/>
-      <c r="UY67" s="67"/>
-      <c r="UZ67" s="67"/>
-      <c r="VA67" s="67"/>
-      <c r="VB67" s="67"/>
-      <c r="VC67" s="67"/>
-      <c r="VD67" s="67"/>
-      <c r="VE67" s="67"/>
-      <c r="VF67" s="67"/>
-      <c r="VG67" s="67"/>
-      <c r="VH67" s="67"/>
-      <c r="VI67" s="67"/>
-      <c r="VJ67" s="67"/>
-      <c r="VK67" s="67"/>
-      <c r="VL67" s="67"/>
-      <c r="VM67" s="67"/>
-      <c r="VN67" s="67"/>
-      <c r="VO67" s="67"/>
-      <c r="VP67" s="67"/>
-      <c r="VQ67" s="67"/>
-      <c r="VR67" s="67"/>
-      <c r="VS67" s="67"/>
-      <c r="VT67" s="67"/>
-      <c r="VU67" s="67"/>
-      <c r="VV67" s="67"/>
-      <c r="VW67" s="67"/>
-      <c r="VX67" s="67"/>
-      <c r="VY67" s="67"/>
-      <c r="VZ67" s="67"/>
-      <c r="WA67" s="67"/>
-      <c r="WB67" s="67"/>
-      <c r="WC67" s="67"/>
-      <c r="WD67" s="67"/>
-      <c r="WE67" s="67"/>
-      <c r="WF67" s="67"/>
-      <c r="WG67" s="67"/>
-      <c r="WH67" s="67"/>
-      <c r="WI67" s="67"/>
-      <c r="WJ67" s="67"/>
-      <c r="WK67" s="67"/>
-      <c r="WL67" s="67"/>
-      <c r="WM67" s="67"/>
-      <c r="WN67" s="67"/>
-      <c r="WO67" s="67"/>
-      <c r="WP67" s="67"/>
-      <c r="WQ67" s="67"/>
-      <c r="WR67" s="67"/>
-      <c r="WS67" s="67"/>
-      <c r="WT67" s="67"/>
-      <c r="WU67" s="67"/>
-      <c r="WV67" s="67"/>
-      <c r="WW67" s="67"/>
-      <c r="WX67" s="67"/>
-      <c r="WY67" s="67"/>
-      <c r="WZ67" s="67"/>
-      <c r="XA67" s="67"/>
-      <c r="XB67" s="67"/>
-      <c r="XC67" s="67"/>
-      <c r="XD67" s="67"/>
-      <c r="XE67" s="67"/>
-      <c r="XF67" s="67"/>
-      <c r="XG67" s="67"/>
-      <c r="XH67" s="67"/>
-      <c r="XI67" s="67"/>
-      <c r="XJ67" s="67"/>
-      <c r="XK67" s="67"/>
-      <c r="XL67" s="67"/>
-      <c r="XM67" s="67"/>
-      <c r="XN67" s="67"/>
-      <c r="XO67" s="67"/>
-      <c r="XP67" s="67"/>
-      <c r="XQ67" s="67"/>
-      <c r="XR67" s="67"/>
-      <c r="XS67" s="67"/>
-      <c r="XT67" s="67"/>
-      <c r="XU67" s="67"/>
-      <c r="XV67" s="67"/>
-      <c r="XW67" s="67"/>
-      <c r="XX67" s="67"/>
-      <c r="XY67" s="67"/>
-      <c r="XZ67" s="67"/>
-      <c r="YA67" s="67"/>
-      <c r="YB67" s="67"/>
-      <c r="YC67" s="67"/>
-      <c r="YD67" s="67"/>
-      <c r="YE67" s="67"/>
-      <c r="YF67" s="67"/>
-      <c r="YG67" s="67"/>
-      <c r="YH67" s="67"/>
-      <c r="YI67" s="67"/>
-      <c r="YJ67" s="67"/>
-      <c r="YK67" s="67"/>
-      <c r="YL67" s="67"/>
-      <c r="YM67" s="67"/>
-      <c r="YN67" s="67"/>
-      <c r="YO67" s="67"/>
-      <c r="YP67" s="67"/>
-      <c r="YQ67" s="67"/>
-      <c r="YR67" s="67"/>
-      <c r="YS67" s="67"/>
-      <c r="YT67" s="67"/>
-      <c r="YU67" s="67"/>
-      <c r="YV67" s="67"/>
-      <c r="YW67" s="67"/>
-      <c r="YX67" s="67"/>
-      <c r="YY67" s="67"/>
-      <c r="YZ67" s="67"/>
-      <c r="ZA67" s="67"/>
-      <c r="ZB67" s="67"/>
-      <c r="ZC67" s="67"/>
-      <c r="ZD67" s="67"/>
-      <c r="ZE67" s="67"/>
-      <c r="ZF67" s="67"/>
-      <c r="ZG67" s="67"/>
-      <c r="ZH67" s="67"/>
-      <c r="ZI67" s="67"/>
-      <c r="ZJ67" s="67"/>
-      <c r="ZK67" s="67"/>
-      <c r="ZL67" s="67"/>
-      <c r="ZM67" s="67"/>
-      <c r="ZN67" s="67"/>
-      <c r="ZO67" s="67"/>
-      <c r="ZP67" s="67"/>
-      <c r="ZQ67" s="67"/>
-      <c r="ZR67" s="67"/>
-      <c r="ZS67" s="67"/>
-      <c r="ZT67" s="67"/>
-      <c r="ZU67" s="67"/>
-      <c r="ZV67" s="67"/>
-      <c r="ZW67" s="67"/>
-      <c r="ZX67" s="67"/>
-      <c r="ZY67" s="67"/>
-      <c r="ZZ67" s="67"/>
-      <c r="AAA67" s="67"/>
-      <c r="AAB67" s="67"/>
-      <c r="AAC67" s="67"/>
-      <c r="AAD67" s="67"/>
-      <c r="AAE67" s="67"/>
-      <c r="AAF67" s="67"/>
-      <c r="AAG67" s="67"/>
-      <c r="AAH67" s="67"/>
-      <c r="AAI67" s="67"/>
-      <c r="AAJ67" s="67"/>
-      <c r="AAK67" s="67"/>
-      <c r="AAL67" s="67"/>
-      <c r="AAM67" s="67"/>
-      <c r="AAN67" s="67"/>
-      <c r="AAO67" s="67"/>
-      <c r="AAP67" s="67"/>
-      <c r="AAQ67" s="67"/>
-      <c r="AAR67" s="67"/>
-      <c r="AAS67" s="67"/>
-      <c r="AAT67" s="67"/>
-      <c r="AAU67" s="67"/>
-      <c r="AAV67" s="67"/>
-      <c r="AAW67" s="67"/>
-      <c r="AAX67" s="67"/>
-      <c r="AAY67" s="67"/>
-      <c r="AAZ67" s="67"/>
-      <c r="ABA67" s="67"/>
-      <c r="ABB67" s="67"/>
-      <c r="ABC67" s="67"/>
-      <c r="ABD67" s="67"/>
-      <c r="ABE67" s="67"/>
-      <c r="ABF67" s="67"/>
-      <c r="ABG67" s="67"/>
-      <c r="ABH67" s="67"/>
-      <c r="ABI67" s="67"/>
-      <c r="ABJ67" s="67"/>
-      <c r="ABK67" s="67"/>
-      <c r="ABL67" s="67"/>
-      <c r="ABM67" s="67"/>
-      <c r="ABN67" s="67"/>
-      <c r="ABO67" s="67"/>
-      <c r="ABP67" s="67"/>
-      <c r="ABQ67" s="67"/>
-      <c r="ABR67" s="67"/>
-      <c r="ABS67" s="67"/>
-      <c r="ABT67" s="67"/>
-      <c r="ABU67" s="67"/>
-      <c r="ABV67" s="67"/>
-      <c r="ABW67" s="67"/>
-      <c r="ABX67" s="67"/>
-      <c r="ABY67" s="67"/>
-      <c r="ABZ67" s="67"/>
-      <c r="ACA67" s="67"/>
-      <c r="ACB67" s="67"/>
-      <c r="ACC67" s="67"/>
-      <c r="ACD67" s="67"/>
-      <c r="ACE67" s="67"/>
-      <c r="ACF67" s="67"/>
-      <c r="ACG67" s="67"/>
-      <c r="ACH67" s="67"/>
-      <c r="ACI67" s="67"/>
-      <c r="ACJ67" s="67"/>
-      <c r="ACK67" s="67"/>
-      <c r="ACL67" s="67"/>
-      <c r="ACM67" s="67"/>
-      <c r="ACN67" s="67"/>
-      <c r="ACO67" s="67"/>
-      <c r="ACP67" s="67"/>
-      <c r="ACQ67" s="67"/>
-      <c r="ACR67" s="67"/>
-      <c r="ACS67" s="67"/>
-      <c r="ACT67" s="67"/>
-      <c r="ACU67" s="67"/>
-      <c r="ACV67" s="67"/>
-      <c r="ACW67" s="67"/>
-      <c r="ACX67" s="67"/>
-      <c r="ACY67" s="67"/>
-      <c r="ACZ67" s="67"/>
-      <c r="ADA67" s="67"/>
-      <c r="ADB67" s="67"/>
-      <c r="ADC67" s="67"/>
-      <c r="ADD67" s="67"/>
-      <c r="ADE67" s="67"/>
-      <c r="ADF67" s="67"/>
-      <c r="ADG67" s="67"/>
-      <c r="ADH67" s="67"/>
-      <c r="ADI67" s="67"/>
-      <c r="ADJ67" s="67"/>
-      <c r="ADK67" s="67"/>
-      <c r="ADL67" s="67"/>
-      <c r="ADM67" s="67"/>
-      <c r="ADN67" s="67"/>
-      <c r="ADO67" s="67"/>
-      <c r="ADP67" s="67"/>
-      <c r="ADQ67" s="67"/>
-      <c r="ADR67" s="67"/>
-      <c r="ADS67" s="67"/>
-      <c r="ADT67" s="67"/>
-      <c r="ADU67" s="67"/>
-      <c r="ADV67" s="67"/>
-      <c r="ADW67" s="67"/>
-      <c r="ADX67" s="67"/>
-      <c r="ADY67" s="67"/>
-      <c r="ADZ67" s="67"/>
-      <c r="AEA67" s="67"/>
-      <c r="AEB67" s="67"/>
-      <c r="AEC67" s="67"/>
-      <c r="AED67" s="67"/>
-      <c r="AEE67" s="67"/>
-      <c r="AEF67" s="67"/>
-      <c r="AEG67" s="67"/>
-      <c r="AEH67" s="67"/>
-      <c r="AEI67" s="67"/>
-      <c r="AEJ67" s="67"/>
-      <c r="AEK67" s="67"/>
-      <c r="AEL67" s="67"/>
-      <c r="AEM67" s="67"/>
-      <c r="AEN67" s="67"/>
-      <c r="AEO67" s="67"/>
-      <c r="AEP67" s="67"/>
-      <c r="AEQ67" s="67"/>
-      <c r="AER67" s="67"/>
-      <c r="AES67" s="67"/>
-      <c r="AET67" s="67"/>
-      <c r="AEU67" s="67"/>
-      <c r="AEV67" s="67"/>
-      <c r="AEW67" s="67"/>
-      <c r="AEX67" s="67"/>
-      <c r="AEY67" s="67"/>
-      <c r="AEZ67" s="67"/>
-      <c r="AFA67" s="67"/>
-      <c r="AFB67" s="67"/>
-      <c r="AFC67" s="67"/>
-      <c r="AFD67" s="67"/>
-      <c r="AFE67" s="67"/>
-      <c r="AFF67" s="67"/>
-      <c r="AFG67" s="67"/>
-      <c r="AFH67" s="67"/>
-      <c r="AFI67" s="67"/>
-      <c r="AFJ67" s="67"/>
-      <c r="AFK67" s="67"/>
-      <c r="AFL67" s="67"/>
-      <c r="AFM67" s="67"/>
-      <c r="AFN67" s="67"/>
-      <c r="AFO67" s="67"/>
-      <c r="AFP67" s="67"/>
-      <c r="AFQ67" s="67"/>
-      <c r="AFR67" s="67"/>
-      <c r="AFS67" s="67"/>
-      <c r="AFT67" s="67"/>
-      <c r="AFU67" s="67"/>
-      <c r="AFV67" s="67"/>
-      <c r="AFW67" s="67"/>
-      <c r="AFX67" s="67"/>
-      <c r="AFY67" s="67"/>
-      <c r="AFZ67" s="67"/>
-      <c r="AGA67" s="67"/>
-      <c r="AGB67" s="67"/>
-      <c r="AGC67" s="67"/>
-      <c r="AGD67" s="67"/>
-      <c r="AGE67" s="67"/>
-      <c r="AGF67" s="67"/>
-      <c r="AGG67" s="67"/>
-      <c r="AGH67" s="67"/>
-      <c r="AGI67" s="67"/>
-      <c r="AGJ67" s="67"/>
-      <c r="AGK67" s="67"/>
-      <c r="AGL67" s="67"/>
-      <c r="AGM67" s="67"/>
-      <c r="AGN67" s="67"/>
-      <c r="AGO67" s="67"/>
-      <c r="AGP67" s="67"/>
-      <c r="AGQ67" s="67"/>
-      <c r="AGR67" s="67"/>
-      <c r="AGS67" s="67"/>
-      <c r="AGT67" s="67"/>
-      <c r="AGU67" s="67"/>
-      <c r="AGV67" s="67"/>
-      <c r="AGW67" s="67"/>
-      <c r="AGX67" s="67"/>
-      <c r="AGY67" s="67"/>
-      <c r="AGZ67" s="67"/>
-      <c r="AHA67" s="67"/>
-      <c r="AHB67" s="67"/>
-      <c r="AHC67" s="67"/>
-      <c r="AHD67" s="67"/>
-      <c r="AHE67" s="67"/>
-      <c r="AHF67" s="67"/>
-      <c r="AHG67" s="67"/>
-      <c r="AHH67" s="67"/>
-      <c r="AHI67" s="67"/>
-      <c r="AHJ67" s="67"/>
-      <c r="AHK67" s="67"/>
-      <c r="AHL67" s="67"/>
-      <c r="AHM67" s="67"/>
-      <c r="AHN67" s="67"/>
-      <c r="AHO67" s="67"/>
-      <c r="AHP67" s="67"/>
-      <c r="AHQ67" s="67"/>
-      <c r="AHR67" s="67"/>
-      <c r="AHS67" s="67"/>
-      <c r="AHT67" s="67"/>
-      <c r="AHU67" s="67"/>
-      <c r="AHV67" s="67"/>
-      <c r="AHW67" s="67"/>
-      <c r="AHX67" s="67"/>
-      <c r="AHY67" s="67"/>
-      <c r="AHZ67" s="67"/>
-      <c r="AIA67" s="67"/>
-      <c r="AIB67" s="67"/>
-      <c r="AIC67" s="67"/>
-      <c r="AID67" s="67"/>
-      <c r="AIE67" s="67"/>
-      <c r="AIF67" s="67"/>
-      <c r="AIG67" s="67"/>
-      <c r="AIH67" s="67"/>
-      <c r="AII67" s="67"/>
-      <c r="AIJ67" s="67"/>
-      <c r="AIK67" s="67"/>
-      <c r="AIL67" s="67"/>
-      <c r="AIM67" s="67"/>
-      <c r="AIN67" s="67"/>
-      <c r="AIO67" s="67"/>
-      <c r="AIP67" s="67"/>
-      <c r="AIQ67" s="67"/>
-      <c r="AIR67" s="67"/>
-      <c r="AIS67" s="67"/>
-      <c r="AIT67" s="67"/>
-      <c r="AIU67" s="67"/>
-      <c r="AIV67" s="67"/>
-      <c r="AIW67" s="67"/>
-      <c r="AIX67" s="67"/>
-      <c r="AIY67" s="67"/>
-      <c r="AIZ67" s="67"/>
-      <c r="AJA67" s="67"/>
-      <c r="AJB67" s="67"/>
-      <c r="AJC67" s="67"/>
-      <c r="AJD67" s="67"/>
-      <c r="AJE67" s="67"/>
-      <c r="AJF67" s="67"/>
-      <c r="AJG67" s="67"/>
-      <c r="AJH67" s="67"/>
-      <c r="AJI67" s="67"/>
-      <c r="AJJ67" s="67"/>
-      <c r="AJK67" s="67"/>
-      <c r="AJL67" s="67"/>
-      <c r="AJM67" s="67"/>
-      <c r="AJN67" s="67"/>
-      <c r="AJO67" s="67"/>
-      <c r="AJP67" s="67"/>
-      <c r="AJQ67" s="67"/>
-      <c r="AJR67" s="67"/>
-      <c r="AJS67" s="67"/>
-      <c r="AJT67" s="67"/>
-      <c r="AJU67" s="67"/>
-      <c r="AJV67" s="67"/>
-      <c r="AJW67" s="67"/>
-      <c r="AJX67" s="67"/>
-      <c r="AJY67" s="67"/>
-      <c r="AJZ67" s="67"/>
-      <c r="AKA67" s="67"/>
-      <c r="AKB67" s="67"/>
-      <c r="AKC67" s="67"/>
-      <c r="AKD67" s="67"/>
-      <c r="AKE67" s="67"/>
-      <c r="AKF67" s="67"/>
-      <c r="AKG67" s="67"/>
-      <c r="AKH67" s="67"/>
-      <c r="AKI67" s="67"/>
-      <c r="AKJ67" s="67"/>
-      <c r="AKK67" s="67"/>
-      <c r="AKL67" s="67"/>
-      <c r="AKM67" s="67"/>
-      <c r="AKN67" s="67"/>
-      <c r="AKO67" s="67"/>
-      <c r="AKP67" s="67"/>
-      <c r="AKQ67" s="67"/>
-      <c r="AKR67" s="67"/>
-      <c r="AKS67" s="67"/>
-      <c r="AKT67" s="67"/>
-      <c r="AKU67" s="67"/>
-      <c r="AKV67" s="67"/>
-      <c r="AKW67" s="67"/>
-      <c r="AKX67" s="67"/>
-      <c r="AKY67" s="67"/>
-      <c r="AKZ67" s="67"/>
-      <c r="ALA67" s="67"/>
-      <c r="ALB67" s="67"/>
-      <c r="ALC67" s="67"/>
-      <c r="ALD67" s="67"/>
-      <c r="ALE67" s="67"/>
-      <c r="ALF67" s="67"/>
-      <c r="ALG67" s="67"/>
-      <c r="ALH67" s="67"/>
-      <c r="ALI67" s="67"/>
-      <c r="ALJ67" s="67"/>
-      <c r="ALK67" s="67"/>
-      <c r="ALL67" s="67"/>
-      <c r="ALM67" s="67"/>
-      <c r="ALN67" s="67"/>
-      <c r="ALO67" s="67"/>
-      <c r="ALP67" s="67"/>
-      <c r="ALQ67" s="67"/>
-      <c r="ALR67" s="67"/>
-      <c r="ALS67" s="67"/>
-      <c r="ALT67" s="67"/>
-      <c r="ALU67" s="67"/>
-      <c r="ALV67" s="67"/>
-      <c r="ALW67" s="67"/>
-      <c r="ALX67" s="67"/>
-      <c r="ALY67" s="67"/>
-      <c r="ALZ67" s="67"/>
-      <c r="AMA67" s="67"/>
-      <c r="AMB67" s="67"/>
-      <c r="AMC67" s="67"/>
-      <c r="AMD67" s="67"/>
-      <c r="AME67" s="67"/>
-      <c r="AMF67" s="67"/>
-      <c r="AMG67" s="67"/>
-      <c r="AMH67" s="67"/>
-      <c r="AMI67" s="67"/>
-      <c r="AMJ67" s="67"/>
+      <c r="A67" s="66"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
+      <c r="M67" s="66"/>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="66"/>
+      <c r="Q67" s="66"/>
+      <c r="R67" s="66"/>
+      <c r="S67" s="66"/>
+      <c r="T67" s="66"/>
+      <c r="U67" s="66"/>
+      <c r="V67" s="66"/>
+      <c r="W67" s="66"/>
+      <c r="X67" s="66"/>
+      <c r="Y67" s="66"/>
+      <c r="Z67" s="66"/>
+      <c r="AA67" s="66"/>
+      <c r="AB67" s="66"/>
+      <c r="AC67" s="66"/>
+      <c r="AD67" s="66"/>
+      <c r="AE67" s="66"/>
+      <c r="AF67" s="66"/>
+      <c r="AG67" s="66"/>
+      <c r="AH67" s="66"/>
+      <c r="AI67" s="66"/>
+      <c r="AJ67" s="66"/>
+      <c r="AK67" s="66"/>
+      <c r="AL67" s="66"/>
+      <c r="AM67" s="66"/>
+      <c r="AN67" s="66"/>
+      <c r="AO67" s="66"/>
+      <c r="AP67" s="66"/>
+      <c r="AQ67" s="66"/>
+      <c r="AR67" s="66"/>
+      <c r="AS67" s="66"/>
+      <c r="AT67" s="66"/>
+      <c r="AU67" s="66"/>
+      <c r="AV67" s="66"/>
+      <c r="AW67" s="66"/>
+      <c r="AX67" s="66"/>
+      <c r="AY67" s="66"/>
+      <c r="AZ67" s="66"/>
+      <c r="BA67" s="66"/>
+      <c r="BB67" s="66"/>
+      <c r="BC67" s="66"/>
+      <c r="BD67" s="66"/>
+      <c r="BE67" s="66"/>
+      <c r="BF67" s="66"/>
+      <c r="BG67" s="66"/>
+      <c r="BH67" s="66"/>
+      <c r="BI67" s="66"/>
+      <c r="BJ67" s="66"/>
+      <c r="BK67" s="66"/>
+      <c r="BL67" s="66"/>
+      <c r="BM67" s="66"/>
+      <c r="BN67" s="66"/>
+      <c r="BO67" s="66"/>
+      <c r="BP67" s="66"/>
+      <c r="BQ67" s="66"/>
+      <c r="BR67" s="66"/>
+      <c r="BS67" s="66"/>
+      <c r="BT67" s="66"/>
+      <c r="BU67" s="66"/>
+      <c r="BV67" s="66"/>
+      <c r="BW67" s="66"/>
+      <c r="BX67" s="66"/>
+      <c r="BY67" s="66"/>
+      <c r="BZ67" s="66"/>
+      <c r="CA67" s="66"/>
+      <c r="CB67" s="66"/>
+      <c r="CC67" s="66"/>
+      <c r="CD67" s="66"/>
+      <c r="CE67" s="66"/>
+      <c r="CF67" s="66"/>
+      <c r="CG67" s="66"/>
+      <c r="CH67" s="66"/>
+      <c r="CI67" s="66"/>
+      <c r="CJ67" s="66"/>
+      <c r="CK67" s="66"/>
+      <c r="CL67" s="66"/>
+      <c r="CM67" s="66"/>
+      <c r="CN67" s="66"/>
+      <c r="CO67" s="66"/>
+      <c r="CP67" s="66"/>
+      <c r="CQ67" s="66"/>
+      <c r="CR67" s="66"/>
+      <c r="CS67" s="66"/>
+      <c r="CT67" s="66"/>
+      <c r="CU67" s="66"/>
+      <c r="CV67" s="66"/>
+      <c r="CW67" s="66"/>
+      <c r="CX67" s="66"/>
+      <c r="CY67" s="66"/>
+      <c r="CZ67" s="66"/>
+      <c r="DA67" s="66"/>
+      <c r="DB67" s="66"/>
+      <c r="DC67" s="66"/>
+      <c r="DD67" s="66"/>
+      <c r="DE67" s="66"/>
+      <c r="DF67" s="66"/>
+      <c r="DG67" s="66"/>
+      <c r="DH67" s="66"/>
+      <c r="DI67" s="66"/>
+      <c r="DJ67" s="66"/>
+      <c r="DK67" s="66"/>
+      <c r="DL67" s="66"/>
+      <c r="DM67" s="66"/>
+      <c r="DN67" s="66"/>
+      <c r="DO67" s="66"/>
+      <c r="DP67" s="66"/>
+      <c r="DQ67" s="66"/>
+      <c r="DR67" s="66"/>
+      <c r="DS67" s="66"/>
+      <c r="DT67" s="66"/>
+      <c r="DU67" s="66"/>
+      <c r="DV67" s="66"/>
+      <c r="DW67" s="66"/>
+      <c r="DX67" s="66"/>
+      <c r="DY67" s="66"/>
+      <c r="DZ67" s="66"/>
+      <c r="EA67" s="66"/>
+      <c r="EB67" s="66"/>
+      <c r="EC67" s="66"/>
+      <c r="ED67" s="66"/>
+      <c r="EE67" s="66"/>
+      <c r="EF67" s="66"/>
+      <c r="EG67" s="66"/>
+      <c r="EH67" s="66"/>
+      <c r="EI67" s="66"/>
+      <c r="EJ67" s="66"/>
+      <c r="EK67" s="66"/>
+      <c r="EL67" s="66"/>
+      <c r="EM67" s="66"/>
+      <c r="EN67" s="66"/>
+      <c r="EO67" s="66"/>
+      <c r="EP67" s="66"/>
+      <c r="EQ67" s="66"/>
+      <c r="ER67" s="66"/>
+      <c r="ES67" s="66"/>
+      <c r="ET67" s="66"/>
+      <c r="EU67" s="66"/>
+      <c r="EV67" s="66"/>
+      <c r="EW67" s="66"/>
+      <c r="EX67" s="66"/>
+      <c r="EY67" s="66"/>
+      <c r="EZ67" s="66"/>
+      <c r="FA67" s="66"/>
+      <c r="FB67" s="66"/>
+      <c r="FC67" s="66"/>
+      <c r="FD67" s="66"/>
+      <c r="FE67" s="66"/>
+      <c r="FF67" s="66"/>
+      <c r="FG67" s="66"/>
+      <c r="FH67" s="66"/>
+      <c r="FI67" s="66"/>
+      <c r="FJ67" s="66"/>
+      <c r="FK67" s="66"/>
+      <c r="FL67" s="66"/>
+      <c r="FM67" s="66"/>
+      <c r="FN67" s="66"/>
+      <c r="FO67" s="66"/>
+      <c r="FP67" s="66"/>
+      <c r="FQ67" s="66"/>
+      <c r="FR67" s="66"/>
+      <c r="FS67" s="66"/>
+      <c r="FT67" s="66"/>
+      <c r="FU67" s="66"/>
+      <c r="FV67" s="66"/>
+      <c r="FW67" s="66"/>
+      <c r="FX67" s="66"/>
+      <c r="FY67" s="66"/>
+      <c r="FZ67" s="66"/>
+      <c r="GA67" s="66"/>
+      <c r="GB67" s="66"/>
+      <c r="GC67" s="66"/>
+      <c r="GD67" s="66"/>
+      <c r="GE67" s="66"/>
+      <c r="GF67" s="66"/>
+      <c r="GG67" s="66"/>
+      <c r="GH67" s="66"/>
+      <c r="GI67" s="66"/>
+      <c r="GJ67" s="66"/>
+      <c r="GK67" s="66"/>
+      <c r="GL67" s="66"/>
+      <c r="GM67" s="66"/>
+      <c r="GN67" s="66"/>
+      <c r="GO67" s="66"/>
+      <c r="GP67" s="66"/>
+      <c r="GQ67" s="66"/>
+      <c r="GR67" s="66"/>
+      <c r="GS67" s="66"/>
+      <c r="GT67" s="66"/>
+      <c r="GU67" s="66"/>
+      <c r="GV67" s="66"/>
+      <c r="GW67" s="66"/>
+      <c r="GX67" s="66"/>
+      <c r="GY67" s="66"/>
+      <c r="GZ67" s="66"/>
+      <c r="HA67" s="66"/>
+      <c r="HB67" s="66"/>
+      <c r="HC67" s="66"/>
+      <c r="HD67" s="66"/>
+      <c r="HE67" s="66"/>
+      <c r="HF67" s="66"/>
+      <c r="HG67" s="66"/>
+      <c r="HH67" s="66"/>
+      <c r="HI67" s="66"/>
+      <c r="HJ67" s="66"/>
+      <c r="HK67" s="66"/>
+      <c r="HL67" s="66"/>
+      <c r="HM67" s="66"/>
+      <c r="HN67" s="66"/>
+      <c r="HO67" s="66"/>
+      <c r="HP67" s="66"/>
+      <c r="HQ67" s="66"/>
+      <c r="HR67" s="66"/>
+      <c r="HS67" s="66"/>
+      <c r="HT67" s="66"/>
+      <c r="HU67" s="66"/>
+      <c r="HV67" s="66"/>
+      <c r="HW67" s="66"/>
+      <c r="HX67" s="66"/>
+      <c r="HY67" s="66"/>
+      <c r="HZ67" s="66"/>
+      <c r="IA67" s="66"/>
+      <c r="IB67" s="66"/>
+      <c r="IC67" s="66"/>
+      <c r="ID67" s="66"/>
+      <c r="IE67" s="66"/>
+      <c r="IF67" s="66"/>
+      <c r="IG67" s="66"/>
+      <c r="IH67" s="66"/>
+      <c r="II67" s="66"/>
+      <c r="IJ67" s="66"/>
+      <c r="IK67" s="66"/>
+      <c r="IL67" s="66"/>
+      <c r="IM67" s="66"/>
+      <c r="IN67" s="66"/>
+      <c r="IO67" s="66"/>
+      <c r="IP67" s="66"/>
+      <c r="IQ67" s="66"/>
+      <c r="IR67" s="66"/>
+      <c r="IS67" s="66"/>
+      <c r="IT67" s="66"/>
+      <c r="IU67" s="66"/>
+      <c r="IV67" s="66"/>
+      <c r="IW67" s="66"/>
+      <c r="IX67" s="66"/>
+      <c r="IY67" s="66"/>
+      <c r="IZ67" s="66"/>
+      <c r="JA67" s="66"/>
+      <c r="JB67" s="66"/>
+      <c r="JC67" s="66"/>
+      <c r="JD67" s="66"/>
+      <c r="JE67" s="66"/>
+      <c r="JF67" s="66"/>
+      <c r="JG67" s="66"/>
+      <c r="JH67" s="66"/>
+      <c r="JI67" s="66"/>
+      <c r="JJ67" s="66"/>
+      <c r="JK67" s="66"/>
+      <c r="JL67" s="66"/>
+      <c r="JM67" s="66"/>
+      <c r="JN67" s="66"/>
+      <c r="JO67" s="66"/>
+      <c r="JP67" s="66"/>
+      <c r="JQ67" s="66"/>
+      <c r="JR67" s="66"/>
+      <c r="JS67" s="66"/>
+      <c r="JT67" s="66"/>
+      <c r="JU67" s="66"/>
+      <c r="JV67" s="66"/>
+      <c r="JW67" s="66"/>
+      <c r="JX67" s="66"/>
+      <c r="JY67" s="66"/>
+      <c r="JZ67" s="66"/>
+      <c r="KA67" s="66"/>
+      <c r="KB67" s="66"/>
+      <c r="KC67" s="66"/>
+      <c r="KD67" s="66"/>
+      <c r="KE67" s="66"/>
+      <c r="KF67" s="66"/>
+      <c r="KG67" s="66"/>
+      <c r="KH67" s="66"/>
+      <c r="KI67" s="66"/>
+      <c r="KJ67" s="66"/>
+      <c r="KK67" s="66"/>
+      <c r="KL67" s="66"/>
+      <c r="KM67" s="66"/>
+      <c r="KN67" s="66"/>
+      <c r="KO67" s="66"/>
+      <c r="KP67" s="66"/>
+      <c r="KQ67" s="66"/>
+      <c r="KR67" s="66"/>
+      <c r="KS67" s="66"/>
+      <c r="KT67" s="66"/>
+      <c r="KU67" s="66"/>
+      <c r="KV67" s="66"/>
+      <c r="KW67" s="66"/>
+      <c r="KX67" s="66"/>
+      <c r="KY67" s="66"/>
+      <c r="KZ67" s="66"/>
+      <c r="LA67" s="66"/>
+      <c r="LB67" s="66"/>
+      <c r="LC67" s="66"/>
+      <c r="LD67" s="66"/>
+      <c r="LE67" s="66"/>
+      <c r="LF67" s="66"/>
+      <c r="LG67" s="66"/>
+      <c r="LH67" s="66"/>
+      <c r="LI67" s="66"/>
+      <c r="LJ67" s="66"/>
+      <c r="LK67" s="66"/>
+      <c r="LL67" s="66"/>
+      <c r="LM67" s="66"/>
+      <c r="LN67" s="66"/>
+      <c r="LO67" s="66"/>
+      <c r="LP67" s="66"/>
+      <c r="LQ67" s="66"/>
+      <c r="LR67" s="66"/>
+      <c r="LS67" s="66"/>
+      <c r="LT67" s="66"/>
+      <c r="LU67" s="66"/>
+      <c r="LV67" s="66"/>
+      <c r="LW67" s="66"/>
+      <c r="LX67" s="66"/>
+      <c r="LY67" s="66"/>
+      <c r="LZ67" s="66"/>
+      <c r="MA67" s="66"/>
+      <c r="MB67" s="66"/>
+      <c r="MC67" s="66"/>
+      <c r="MD67" s="66"/>
+      <c r="ME67" s="66"/>
+      <c r="MF67" s="66"/>
+      <c r="MG67" s="66"/>
+      <c r="MH67" s="66"/>
+      <c r="MI67" s="66"/>
+      <c r="MJ67" s="66"/>
+      <c r="MK67" s="66"/>
+      <c r="ML67" s="66"/>
+      <c r="MM67" s="66"/>
+      <c r="MN67" s="66"/>
+      <c r="MO67" s="66"/>
+      <c r="MP67" s="66"/>
+      <c r="MQ67" s="66"/>
+      <c r="MR67" s="66"/>
+      <c r="MS67" s="66"/>
+      <c r="MT67" s="66"/>
+      <c r="MU67" s="66"/>
+      <c r="MV67" s="66"/>
+      <c r="MW67" s="66"/>
+      <c r="MX67" s="66"/>
+      <c r="MY67" s="66"/>
+      <c r="MZ67" s="66"/>
+      <c r="NA67" s="66"/>
+      <c r="NB67" s="66"/>
+      <c r="NC67" s="66"/>
+      <c r="ND67" s="66"/>
+      <c r="NE67" s="66"/>
+      <c r="NF67" s="66"/>
+      <c r="NG67" s="66"/>
+      <c r="NH67" s="66"/>
+      <c r="NI67" s="66"/>
+      <c r="NJ67" s="66"/>
+      <c r="NK67" s="66"/>
+      <c r="NL67" s="66"/>
+      <c r="NM67" s="66"/>
+      <c r="NN67" s="66"/>
+      <c r="NO67" s="66"/>
+      <c r="NP67" s="66"/>
+      <c r="NQ67" s="66"/>
+      <c r="NR67" s="66"/>
+      <c r="NS67" s="66"/>
+      <c r="NT67" s="66"/>
+      <c r="NU67" s="66"/>
+      <c r="NV67" s="66"/>
+      <c r="NW67" s="66"/>
+      <c r="NX67" s="66"/>
+      <c r="NY67" s="66"/>
+      <c r="NZ67" s="66"/>
+      <c r="OA67" s="66"/>
+      <c r="OB67" s="66"/>
+      <c r="OC67" s="66"/>
+      <c r="OD67" s="66"/>
+      <c r="OE67" s="66"/>
+      <c r="OF67" s="66"/>
+      <c r="OG67" s="66"/>
+      <c r="OH67" s="66"/>
+      <c r="OI67" s="66"/>
+      <c r="OJ67" s="66"/>
+      <c r="OK67" s="66"/>
+      <c r="OL67" s="66"/>
+      <c r="OM67" s="66"/>
+      <c r="ON67" s="66"/>
+      <c r="OO67" s="66"/>
+      <c r="OP67" s="66"/>
+      <c r="OQ67" s="66"/>
+      <c r="OR67" s="66"/>
+      <c r="OS67" s="66"/>
+      <c r="OT67" s="66"/>
+      <c r="OU67" s="66"/>
+      <c r="OV67" s="66"/>
+      <c r="OW67" s="66"/>
+      <c r="OX67" s="66"/>
+      <c r="OY67" s="66"/>
+      <c r="OZ67" s="66"/>
+      <c r="PA67" s="66"/>
+      <c r="PB67" s="66"/>
+      <c r="PC67" s="66"/>
+      <c r="PD67" s="66"/>
+      <c r="PE67" s="66"/>
+      <c r="PF67" s="66"/>
+      <c r="PG67" s="66"/>
+      <c r="PH67" s="66"/>
+      <c r="PI67" s="66"/>
+      <c r="PJ67" s="66"/>
+      <c r="PK67" s="66"/>
+      <c r="PL67" s="66"/>
+      <c r="PM67" s="66"/>
+      <c r="PN67" s="66"/>
+      <c r="PO67" s="66"/>
+      <c r="PP67" s="66"/>
+      <c r="PQ67" s="66"/>
+      <c r="PR67" s="66"/>
+      <c r="PS67" s="66"/>
+      <c r="PT67" s="66"/>
+      <c r="PU67" s="66"/>
+      <c r="PV67" s="66"/>
+      <c r="PW67" s="66"/>
+      <c r="PX67" s="66"/>
+      <c r="PY67" s="66"/>
+      <c r="PZ67" s="66"/>
+      <c r="QA67" s="66"/>
+      <c r="QB67" s="66"/>
+      <c r="QC67" s="66"/>
+      <c r="QD67" s="66"/>
+      <c r="QE67" s="66"/>
+      <c r="QF67" s="66"/>
+      <c r="QG67" s="66"/>
+      <c r="QH67" s="66"/>
+      <c r="QI67" s="66"/>
+      <c r="QJ67" s="66"/>
+      <c r="QK67" s="66"/>
+      <c r="QL67" s="66"/>
+      <c r="QM67" s="66"/>
+      <c r="QN67" s="66"/>
+      <c r="QO67" s="66"/>
+      <c r="QP67" s="66"/>
+      <c r="QQ67" s="66"/>
+      <c r="QR67" s="66"/>
+      <c r="QS67" s="66"/>
+      <c r="QT67" s="66"/>
+      <c r="QU67" s="66"/>
+      <c r="QV67" s="66"/>
+      <c r="QW67" s="66"/>
+      <c r="QX67" s="66"/>
+      <c r="QY67" s="66"/>
+      <c r="QZ67" s="66"/>
+      <c r="RA67" s="66"/>
+      <c r="RB67" s="66"/>
+      <c r="RC67" s="66"/>
+      <c r="RD67" s="66"/>
+      <c r="RE67" s="66"/>
+      <c r="RF67" s="66"/>
+      <c r="RG67" s="66"/>
+      <c r="RH67" s="66"/>
+      <c r="RI67" s="66"/>
+      <c r="RJ67" s="66"/>
+      <c r="RK67" s="66"/>
+      <c r="RL67" s="66"/>
+      <c r="RM67" s="66"/>
+      <c r="RN67" s="66"/>
+      <c r="RO67" s="66"/>
+      <c r="RP67" s="66"/>
+      <c r="RQ67" s="66"/>
+      <c r="RR67" s="66"/>
+      <c r="RS67" s="66"/>
+      <c r="RT67" s="66"/>
+      <c r="RU67" s="66"/>
+      <c r="RV67" s="66"/>
+      <c r="RW67" s="66"/>
+      <c r="RX67" s="66"/>
+      <c r="RY67" s="66"/>
+      <c r="RZ67" s="66"/>
+      <c r="SA67" s="66"/>
+      <c r="SB67" s="66"/>
+      <c r="SC67" s="66"/>
+      <c r="SD67" s="66"/>
+      <c r="SE67" s="66"/>
+      <c r="SF67" s="66"/>
+      <c r="SG67" s="66"/>
+      <c r="SH67" s="66"/>
+      <c r="SI67" s="66"/>
+      <c r="SJ67" s="66"/>
+      <c r="SK67" s="66"/>
+      <c r="SL67" s="66"/>
+      <c r="SM67" s="66"/>
+      <c r="SN67" s="66"/>
+      <c r="SO67" s="66"/>
+      <c r="SP67" s="66"/>
+      <c r="SQ67" s="66"/>
+      <c r="SR67" s="66"/>
+      <c r="SS67" s="66"/>
+      <c r="ST67" s="66"/>
+      <c r="SU67" s="66"/>
+      <c r="SV67" s="66"/>
+      <c r="SW67" s="66"/>
+      <c r="SX67" s="66"/>
+      <c r="SY67" s="66"/>
+      <c r="SZ67" s="66"/>
+      <c r="TA67" s="66"/>
+      <c r="TB67" s="66"/>
+      <c r="TC67" s="66"/>
+      <c r="TD67" s="66"/>
+      <c r="TE67" s="66"/>
+      <c r="TF67" s="66"/>
+      <c r="TG67" s="66"/>
+      <c r="TH67" s="66"/>
+      <c r="TI67" s="66"/>
+      <c r="TJ67" s="66"/>
+      <c r="TK67" s="66"/>
+      <c r="TL67" s="66"/>
+      <c r="TM67" s="66"/>
+      <c r="TN67" s="66"/>
+      <c r="TO67" s="66"/>
+      <c r="TP67" s="66"/>
+      <c r="TQ67" s="66"/>
+      <c r="TR67" s="66"/>
+      <c r="TS67" s="66"/>
+      <c r="TT67" s="66"/>
+      <c r="TU67" s="66"/>
+      <c r="TV67" s="66"/>
+      <c r="TW67" s="66"/>
+      <c r="TX67" s="66"/>
+      <c r="TY67" s="66"/>
+      <c r="TZ67" s="66"/>
+      <c r="UA67" s="66"/>
+      <c r="UB67" s="66"/>
+      <c r="UC67" s="66"/>
+      <c r="UD67" s="66"/>
+      <c r="UE67" s="66"/>
+      <c r="UF67" s="66"/>
+      <c r="UG67" s="66"/>
+      <c r="UH67" s="66"/>
+      <c r="UI67" s="66"/>
+      <c r="UJ67" s="66"/>
+      <c r="UK67" s="66"/>
+      <c r="UL67" s="66"/>
+      <c r="UM67" s="66"/>
+      <c r="UN67" s="66"/>
+      <c r="UO67" s="66"/>
+      <c r="UP67" s="66"/>
+      <c r="UQ67" s="66"/>
+      <c r="UR67" s="66"/>
+      <c r="US67" s="66"/>
+      <c r="UT67" s="66"/>
+      <c r="UU67" s="66"/>
+      <c r="UV67" s="66"/>
+      <c r="UW67" s="66"/>
+      <c r="UX67" s="66"/>
+      <c r="UY67" s="66"/>
+      <c r="UZ67" s="66"/>
+      <c r="VA67" s="66"/>
+      <c r="VB67" s="66"/>
+      <c r="VC67" s="66"/>
+      <c r="VD67" s="66"/>
+      <c r="VE67" s="66"/>
+      <c r="VF67" s="66"/>
+      <c r="VG67" s="66"/>
+      <c r="VH67" s="66"/>
+      <c r="VI67" s="66"/>
+      <c r="VJ67" s="66"/>
+      <c r="VK67" s="66"/>
+      <c r="VL67" s="66"/>
+      <c r="VM67" s="66"/>
+      <c r="VN67" s="66"/>
+      <c r="VO67" s="66"/>
+      <c r="VP67" s="66"/>
+      <c r="VQ67" s="66"/>
+      <c r="VR67" s="66"/>
+      <c r="VS67" s="66"/>
+      <c r="VT67" s="66"/>
+      <c r="VU67" s="66"/>
+      <c r="VV67" s="66"/>
+      <c r="VW67" s="66"/>
+      <c r="VX67" s="66"/>
+      <c r="VY67" s="66"/>
+      <c r="VZ67" s="66"/>
+      <c r="WA67" s="66"/>
+      <c r="WB67" s="66"/>
+      <c r="WC67" s="66"/>
+      <c r="WD67" s="66"/>
+      <c r="WE67" s="66"/>
+      <c r="WF67" s="66"/>
+      <c r="WG67" s="66"/>
+      <c r="WH67" s="66"/>
+      <c r="WI67" s="66"/>
+      <c r="WJ67" s="66"/>
+      <c r="WK67" s="66"/>
+      <c r="WL67" s="66"/>
+      <c r="WM67" s="66"/>
+      <c r="WN67" s="66"/>
+      <c r="WO67" s="66"/>
+      <c r="WP67" s="66"/>
+      <c r="WQ67" s="66"/>
+      <c r="WR67" s="66"/>
+      <c r="WS67" s="66"/>
+      <c r="WT67" s="66"/>
+      <c r="WU67" s="66"/>
+      <c r="WV67" s="66"/>
+      <c r="WW67" s="66"/>
+      <c r="WX67" s="66"/>
+      <c r="WY67" s="66"/>
+      <c r="WZ67" s="66"/>
+      <c r="XA67" s="66"/>
+      <c r="XB67" s="66"/>
+      <c r="XC67" s="66"/>
+      <c r="XD67" s="66"/>
+      <c r="XE67" s="66"/>
+      <c r="XF67" s="66"/>
+      <c r="XG67" s="66"/>
+      <c r="XH67" s="66"/>
+      <c r="XI67" s="66"/>
+      <c r="XJ67" s="66"/>
+      <c r="XK67" s="66"/>
+      <c r="XL67" s="66"/>
+      <c r="XM67" s="66"/>
+      <c r="XN67" s="66"/>
+      <c r="XO67" s="66"/>
+      <c r="XP67" s="66"/>
+      <c r="XQ67" s="66"/>
+      <c r="XR67" s="66"/>
+      <c r="XS67" s="66"/>
+      <c r="XT67" s="66"/>
+      <c r="XU67" s="66"/>
+      <c r="XV67" s="66"/>
+      <c r="XW67" s="66"/>
+      <c r="XX67" s="66"/>
+      <c r="XY67" s="66"/>
+      <c r="XZ67" s="66"/>
+      <c r="YA67" s="66"/>
+      <c r="YB67" s="66"/>
+      <c r="YC67" s="66"/>
+      <c r="YD67" s="66"/>
+      <c r="YE67" s="66"/>
+      <c r="YF67" s="66"/>
+      <c r="YG67" s="66"/>
+      <c r="YH67" s="66"/>
+      <c r="YI67" s="66"/>
+      <c r="YJ67" s="66"/>
+      <c r="YK67" s="66"/>
+      <c r="YL67" s="66"/>
+      <c r="YM67" s="66"/>
+      <c r="YN67" s="66"/>
+      <c r="YO67" s="66"/>
+      <c r="YP67" s="66"/>
+      <c r="YQ67" s="66"/>
+      <c r="YR67" s="66"/>
+      <c r="YS67" s="66"/>
+      <c r="YT67" s="66"/>
+      <c r="YU67" s="66"/>
+      <c r="YV67" s="66"/>
+      <c r="YW67" s="66"/>
+      <c r="YX67" s="66"/>
+      <c r="YY67" s="66"/>
+      <c r="YZ67" s="66"/>
+      <c r="ZA67" s="66"/>
+      <c r="ZB67" s="66"/>
+      <c r="ZC67" s="66"/>
+      <c r="ZD67" s="66"/>
+      <c r="ZE67" s="66"/>
+      <c r="ZF67" s="66"/>
+      <c r="ZG67" s="66"/>
+      <c r="ZH67" s="66"/>
+      <c r="ZI67" s="66"/>
+      <c r="ZJ67" s="66"/>
+      <c r="ZK67" s="66"/>
+      <c r="ZL67" s="66"/>
+      <c r="ZM67" s="66"/>
+      <c r="ZN67" s="66"/>
+      <c r="ZO67" s="66"/>
+      <c r="ZP67" s="66"/>
+      <c r="ZQ67" s="66"/>
+      <c r="ZR67" s="66"/>
+      <c r="ZS67" s="66"/>
+      <c r="ZT67" s="66"/>
+      <c r="ZU67" s="66"/>
+      <c r="ZV67" s="66"/>
+      <c r="ZW67" s="66"/>
+      <c r="ZX67" s="66"/>
+      <c r="ZY67" s="66"/>
+      <c r="ZZ67" s="66"/>
+      <c r="AAA67" s="66"/>
+      <c r="AAB67" s="66"/>
+      <c r="AAC67" s="66"/>
+      <c r="AAD67" s="66"/>
+      <c r="AAE67" s="66"/>
+      <c r="AAF67" s="66"/>
+      <c r="AAG67" s="66"/>
+      <c r="AAH67" s="66"/>
+      <c r="AAI67" s="66"/>
+      <c r="AAJ67" s="66"/>
+      <c r="AAK67" s="66"/>
+      <c r="AAL67" s="66"/>
+      <c r="AAM67" s="66"/>
+      <c r="AAN67" s="66"/>
+      <c r="AAO67" s="66"/>
+      <c r="AAP67" s="66"/>
+      <c r="AAQ67" s="66"/>
+      <c r="AAR67" s="66"/>
+      <c r="AAS67" s="66"/>
+      <c r="AAT67" s="66"/>
+      <c r="AAU67" s="66"/>
+      <c r="AAV67" s="66"/>
+      <c r="AAW67" s="66"/>
+      <c r="AAX67" s="66"/>
+      <c r="AAY67" s="66"/>
+      <c r="AAZ67" s="66"/>
+      <c r="ABA67" s="66"/>
+      <c r="ABB67" s="66"/>
+      <c r="ABC67" s="66"/>
+      <c r="ABD67" s="66"/>
+      <c r="ABE67" s="66"/>
+      <c r="ABF67" s="66"/>
+      <c r="ABG67" s="66"/>
+      <c r="ABH67" s="66"/>
+      <c r="ABI67" s="66"/>
+      <c r="ABJ67" s="66"/>
+      <c r="ABK67" s="66"/>
+      <c r="ABL67" s="66"/>
+      <c r="ABM67" s="66"/>
+      <c r="ABN67" s="66"/>
+      <c r="ABO67" s="66"/>
+      <c r="ABP67" s="66"/>
+      <c r="ABQ67" s="66"/>
+      <c r="ABR67" s="66"/>
+      <c r="ABS67" s="66"/>
+      <c r="ABT67" s="66"/>
+      <c r="ABU67" s="66"/>
+      <c r="ABV67" s="66"/>
+      <c r="ABW67" s="66"/>
+      <c r="ABX67" s="66"/>
+      <c r="ABY67" s="66"/>
+      <c r="ABZ67" s="66"/>
+      <c r="ACA67" s="66"/>
+      <c r="ACB67" s="66"/>
+      <c r="ACC67" s="66"/>
+      <c r="ACD67" s="66"/>
+      <c r="ACE67" s="66"/>
+      <c r="ACF67" s="66"/>
+      <c r="ACG67" s="66"/>
+      <c r="ACH67" s="66"/>
+      <c r="ACI67" s="66"/>
+      <c r="ACJ67" s="66"/>
+      <c r="ACK67" s="66"/>
+      <c r="ACL67" s="66"/>
+      <c r="ACM67" s="66"/>
+      <c r="ACN67" s="66"/>
+      <c r="ACO67" s="66"/>
+      <c r="ACP67" s="66"/>
+      <c r="ACQ67" s="66"/>
+      <c r="ACR67" s="66"/>
+      <c r="ACS67" s="66"/>
+      <c r="ACT67" s="66"/>
+      <c r="ACU67" s="66"/>
+      <c r="ACV67" s="66"/>
+      <c r="ACW67" s="66"/>
+      <c r="ACX67" s="66"/>
+      <c r="ACY67" s="66"/>
+      <c r="ACZ67" s="66"/>
+      <c r="ADA67" s="66"/>
+      <c r="ADB67" s="66"/>
+      <c r="ADC67" s="66"/>
+      <c r="ADD67" s="66"/>
+      <c r="ADE67" s="66"/>
+      <c r="ADF67" s="66"/>
+      <c r="ADG67" s="66"/>
+      <c r="ADH67" s="66"/>
+      <c r="ADI67" s="66"/>
+      <c r="ADJ67" s="66"/>
+      <c r="ADK67" s="66"/>
+      <c r="ADL67" s="66"/>
+      <c r="ADM67" s="66"/>
+      <c r="ADN67" s="66"/>
+      <c r="ADO67" s="66"/>
+      <c r="ADP67" s="66"/>
+      <c r="ADQ67" s="66"/>
+      <c r="ADR67" s="66"/>
+      <c r="ADS67" s="66"/>
+      <c r="ADT67" s="66"/>
+      <c r="ADU67" s="66"/>
+      <c r="ADV67" s="66"/>
+      <c r="ADW67" s="66"/>
+      <c r="ADX67" s="66"/>
+      <c r="ADY67" s="66"/>
+      <c r="ADZ67" s="66"/>
+      <c r="AEA67" s="66"/>
+      <c r="AEB67" s="66"/>
+      <c r="AEC67" s="66"/>
+      <c r="AED67" s="66"/>
+      <c r="AEE67" s="66"/>
+      <c r="AEF67" s="66"/>
+      <c r="AEG67" s="66"/>
+      <c r="AEH67" s="66"/>
+      <c r="AEI67" s="66"/>
+      <c r="AEJ67" s="66"/>
+      <c r="AEK67" s="66"/>
+      <c r="AEL67" s="66"/>
+      <c r="AEM67" s="66"/>
+      <c r="AEN67" s="66"/>
+      <c r="AEO67" s="66"/>
+      <c r="AEP67" s="66"/>
+      <c r="AEQ67" s="66"/>
+      <c r="AER67" s="66"/>
+      <c r="AES67" s="66"/>
+      <c r="AET67" s="66"/>
+      <c r="AEU67" s="66"/>
+      <c r="AEV67" s="66"/>
+      <c r="AEW67" s="66"/>
+      <c r="AEX67" s="66"/>
+      <c r="AEY67" s="66"/>
+      <c r="AEZ67" s="66"/>
+      <c r="AFA67" s="66"/>
+      <c r="AFB67" s="66"/>
+      <c r="AFC67" s="66"/>
+      <c r="AFD67" s="66"/>
+      <c r="AFE67" s="66"/>
+      <c r="AFF67" s="66"/>
+      <c r="AFG67" s="66"/>
+      <c r="AFH67" s="66"/>
+      <c r="AFI67" s="66"/>
+      <c r="AFJ67" s="66"/>
+      <c r="AFK67" s="66"/>
+      <c r="AFL67" s="66"/>
+      <c r="AFM67" s="66"/>
+      <c r="AFN67" s="66"/>
+      <c r="AFO67" s="66"/>
+      <c r="AFP67" s="66"/>
+      <c r="AFQ67" s="66"/>
+      <c r="AFR67" s="66"/>
+      <c r="AFS67" s="66"/>
+      <c r="AFT67" s="66"/>
+      <c r="AFU67" s="66"/>
+      <c r="AFV67" s="66"/>
+      <c r="AFW67" s="66"/>
+      <c r="AFX67" s="66"/>
+      <c r="AFY67" s="66"/>
+      <c r="AFZ67" s="66"/>
+      <c r="AGA67" s="66"/>
+      <c r="AGB67" s="66"/>
+      <c r="AGC67" s="66"/>
+      <c r="AGD67" s="66"/>
+      <c r="AGE67" s="66"/>
+      <c r="AGF67" s="66"/>
+      <c r="AGG67" s="66"/>
+      <c r="AGH67" s="66"/>
+      <c r="AGI67" s="66"/>
+      <c r="AGJ67" s="66"/>
+      <c r="AGK67" s="66"/>
+      <c r="AGL67" s="66"/>
+      <c r="AGM67" s="66"/>
+      <c r="AGN67" s="66"/>
+      <c r="AGO67" s="66"/>
+      <c r="AGP67" s="66"/>
+      <c r="AGQ67" s="66"/>
+      <c r="AGR67" s="66"/>
+      <c r="AGS67" s="66"/>
+      <c r="AGT67" s="66"/>
+      <c r="AGU67" s="66"/>
+      <c r="AGV67" s="66"/>
+      <c r="AGW67" s="66"/>
+      <c r="AGX67" s="66"/>
+      <c r="AGY67" s="66"/>
+      <c r="AGZ67" s="66"/>
+      <c r="AHA67" s="66"/>
+      <c r="AHB67" s="66"/>
+      <c r="AHC67" s="66"/>
+      <c r="AHD67" s="66"/>
+      <c r="AHE67" s="66"/>
+      <c r="AHF67" s="66"/>
+      <c r="AHG67" s="66"/>
+      <c r="AHH67" s="66"/>
+      <c r="AHI67" s="66"/>
+      <c r="AHJ67" s="66"/>
+      <c r="AHK67" s="66"/>
+      <c r="AHL67" s="66"/>
+      <c r="AHM67" s="66"/>
+      <c r="AHN67" s="66"/>
+      <c r="AHO67" s="66"/>
+      <c r="AHP67" s="66"/>
+      <c r="AHQ67" s="66"/>
+      <c r="AHR67" s="66"/>
+      <c r="AHS67" s="66"/>
+      <c r="AHT67" s="66"/>
+      <c r="AHU67" s="66"/>
+      <c r="AHV67" s="66"/>
+      <c r="AHW67" s="66"/>
+      <c r="AHX67" s="66"/>
+      <c r="AHY67" s="66"/>
+      <c r="AHZ67" s="66"/>
+      <c r="AIA67" s="66"/>
+      <c r="AIB67" s="66"/>
+      <c r="AIC67" s="66"/>
+      <c r="AID67" s="66"/>
+      <c r="AIE67" s="66"/>
+      <c r="AIF67" s="66"/>
+      <c r="AIG67" s="66"/>
+      <c r="AIH67" s="66"/>
+      <c r="AII67" s="66"/>
+      <c r="AIJ67" s="66"/>
+      <c r="AIK67" s="66"/>
+      <c r="AIL67" s="66"/>
+      <c r="AIM67" s="66"/>
+      <c r="AIN67" s="66"/>
+      <c r="AIO67" s="66"/>
+      <c r="AIP67" s="66"/>
+      <c r="AIQ67" s="66"/>
+      <c r="AIR67" s="66"/>
+      <c r="AIS67" s="66"/>
+      <c r="AIT67" s="66"/>
+      <c r="AIU67" s="66"/>
+      <c r="AIV67" s="66"/>
+      <c r="AIW67" s="66"/>
+      <c r="AIX67" s="66"/>
+      <c r="AIY67" s="66"/>
+      <c r="AIZ67" s="66"/>
+      <c r="AJA67" s="66"/>
+      <c r="AJB67" s="66"/>
+      <c r="AJC67" s="66"/>
+      <c r="AJD67" s="66"/>
+      <c r="AJE67" s="66"/>
+      <c r="AJF67" s="66"/>
+      <c r="AJG67" s="66"/>
+      <c r="AJH67" s="66"/>
+      <c r="AJI67" s="66"/>
+      <c r="AJJ67" s="66"/>
+      <c r="AJK67" s="66"/>
+      <c r="AJL67" s="66"/>
+      <c r="AJM67" s="66"/>
+      <c r="AJN67" s="66"/>
+      <c r="AJO67" s="66"/>
+      <c r="AJP67" s="66"/>
+      <c r="AJQ67" s="66"/>
+      <c r="AJR67" s="66"/>
+      <c r="AJS67" s="66"/>
+      <c r="AJT67" s="66"/>
+      <c r="AJU67" s="66"/>
+      <c r="AJV67" s="66"/>
+      <c r="AJW67" s="66"/>
+      <c r="AJX67" s="66"/>
+      <c r="AJY67" s="66"/>
+      <c r="AJZ67" s="66"/>
+      <c r="AKA67" s="66"/>
+      <c r="AKB67" s="66"/>
+      <c r="AKC67" s="66"/>
+      <c r="AKD67" s="66"/>
+      <c r="AKE67" s="66"/>
+      <c r="AKF67" s="66"/>
+      <c r="AKG67" s="66"/>
+      <c r="AKH67" s="66"/>
+      <c r="AKI67" s="66"/>
+      <c r="AKJ67" s="66"/>
+      <c r="AKK67" s="66"/>
+      <c r="AKL67" s="66"/>
+      <c r="AKM67" s="66"/>
+      <c r="AKN67" s="66"/>
+      <c r="AKO67" s="66"/>
+      <c r="AKP67" s="66"/>
+      <c r="AKQ67" s="66"/>
+      <c r="AKR67" s="66"/>
+      <c r="AKS67" s="66"/>
+      <c r="AKT67" s="66"/>
+      <c r="AKU67" s="66"/>
+      <c r="AKV67" s="66"/>
+      <c r="AKW67" s="66"/>
+      <c r="AKX67" s="66"/>
+      <c r="AKY67" s="66"/>
+      <c r="AKZ67" s="66"/>
+      <c r="ALA67" s="66"/>
+      <c r="ALB67" s="66"/>
+      <c r="ALC67" s="66"/>
+      <c r="ALD67" s="66"/>
+      <c r="ALE67" s="66"/>
+      <c r="ALF67" s="66"/>
+      <c r="ALG67" s="66"/>
+      <c r="ALH67" s="66"/>
+      <c r="ALI67" s="66"/>
+      <c r="ALJ67" s="66"/>
+      <c r="ALK67" s="66"/>
+      <c r="ALL67" s="66"/>
+      <c r="ALM67" s="66"/>
+      <c r="ALN67" s="66"/>
+      <c r="ALO67" s="66"/>
+      <c r="ALP67" s="66"/>
+      <c r="ALQ67" s="66"/>
+      <c r="ALR67" s="66"/>
+      <c r="ALS67" s="66"/>
+      <c r="ALT67" s="66"/>
+      <c r="ALU67" s="66"/>
+      <c r="ALV67" s="66"/>
+      <c r="ALW67" s="66"/>
+      <c r="ALX67" s="66"/>
+      <c r="ALY67" s="66"/>
+      <c r="ALZ67" s="66"/>
+      <c r="AMA67" s="66"/>
+      <c r="AMB67" s="66"/>
+      <c r="AMC67" s="66"/>
+      <c r="AMD67" s="66"/>
+      <c r="AME67" s="66"/>
+      <c r="AMF67" s="66"/>
+      <c r="AMG67" s="66"/>
+      <c r="AMH67" s="66"/>
+      <c r="AMI67" s="66"/>
+      <c r="AMJ67" s="66"/>
     </row>
     <row r="68" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
-      <c r="B68" s="68" t="s">
-        <v>89</v>
+      <c r="B68" s="67" t="s">
+        <v>87</v>
       </c>
-      <c r="C68" s="68"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="70"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="69"/>
       <c r="K68" s="26"/>
       <c r="L68" s="24"/>
       <c r="M68" s="24"/>
@@ -30859,15 +30818,15 @@
     </row>
     <row r="69" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="70"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="69"/>
       <c r="K69" s="26"/>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
@@ -31885,15 +31844,15 @@
     </row>
     <row r="70" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
-      <c r="H70" s="69"/>
-      <c r="I70" s="69"/>
-      <c r="J70" s="70"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="68"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="69"/>
       <c r="K70" s="26"/>
       <c r="L70" s="24"/>
       <c r="M70" s="24"/>
@@ -32911,15 +32870,15 @@
     </row>
     <row r="71" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
-      <c r="I71" s="69"/>
-      <c r="J71" s="70"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="69"/>
       <c r="K71" s="26"/>
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
@@ -33936,16 +33895,16 @@
       <c r="AMJ71" s="24"/>
     </row>
     <row r="72" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
+      <c r="A72" s="70"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
       <c r="K72" s="26"/>
       <c r="L72" s="24"/>
       <c r="M72" s="24"/>
@@ -34963,23 +34922,23 @@
     </row>
     <row r="73" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
-      <c r="B73" s="68" t="s">
+      <c r="B73" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="67"/>
+      <c r="D73" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="71"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C73" s="68"/>
-      <c r="D73" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="72"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="H73" s="69" t="s">
+      <c r="H73" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="I73" s="69"/>
-      <c r="J73" s="70"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="69"/>
       <c r="K73" s="26"/>
       <c r="L73" s="24"/>
       <c r="M73" s="24"/>

--- a/src/main/resources/protocol.xlsx
+++ b/src/main/resources/protocol.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
   <si>
     <t xml:space="preserve">г. Новочеркасск</t>
   </si>
@@ -121,6 +121,9 @@
     <t xml:space="preserve">#MGRKABS#</t>
   </si>
   <si>
+    <t xml:space="preserve">#MGRRESULT#</t>
+  </si>
+  <si>
     <t xml:space="preserve">#VIUNAME#</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">#VIUTIME#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#VIURESULT#</t>
   </si>
   <si>
     <t xml:space="preserve">#IKASNAME#</t>
@@ -210,6 +216,9 @@
     <t xml:space="preserve">#IKASDEV#</t>
   </si>
   <si>
+    <t xml:space="preserve">#IKASRESULT#</t>
+  </si>
+  <si>
     <t xml:space="preserve">#HHNAME#</t>
   </si>
   <si>
@@ -259,6 +268,9 @@
   </si>
   <si>
     <t xml:space="preserve">#HHCOS#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#HHRESULT#</t>
   </si>
   <si>
     <t xml:space="preserve">#TLNAME#</t>
@@ -334,6 +346,9 @@
   </si>
   <si>
     <t xml:space="preserve">#TLLOS#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#TLRESULT#</t>
   </si>
   <si>
     <t xml:space="preserve">Рекомендации</t>
@@ -1181,8 +1196,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F64" activeCellId="0" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8641,7 +8656,9 @@
       <c r="F22" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="H22" s="29"/>
       <c r="I22" s="39"/>
       <c r="J22" s="42"/>
@@ -9695,7 +9712,7 @@
     <row r="25" s="30" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="32"/>
       <c r="B25" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
@@ -10739,11 +10756,11 @@
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="41" t="s">
         <v>28</v>
@@ -11769,17 +11786,19 @@
     <row r="28" s="31" customFormat="true" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="35"/>
       <c r="B28" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="H28" s="29"/>
       <c r="I28" s="39"/>
       <c r="J28" s="42"/>
@@ -12841,7 +12860,7 @@
     <row r="31" s="30" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="32"/>
       <c r="B31" s="33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
@@ -14895,15 +14914,15 @@
     <row r="33" s="31" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="35"/>
       <c r="B33" s="29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="39"/>
@@ -15927,15 +15946,15 @@
     <row r="34" s="31" customFormat="true" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="35"/>
       <c r="B34" s="29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="39"/>
@@ -16979,15 +16998,15 @@
     <row r="36" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="35"/>
       <c r="B36" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="39"/>
@@ -17005,15 +17024,15 @@
     <row r="37" s="31" customFormat="true" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="35"/>
       <c r="B37" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="39"/>
@@ -17053,7 +17072,7 @@
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E39" s="54"/>
       <c r="F39" s="41" t="s">
@@ -17077,10 +17096,12 @@
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="F40" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="G40" s="29"/>
       <c r="H40" s="39"/>
       <c r="I40" s="39"/>
@@ -17137,7 +17158,7 @@
     <row r="43" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="32"/>
       <c r="B43" s="55" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C43" s="55"/>
       <c r="D43" s="55"/>
@@ -19191,28 +19212,28 @@
     <row r="45" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="35"/>
       <c r="B45" s="29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J45" s="42"/>
       <c r="K45" s="26"/>
@@ -20233,28 +20254,28 @@
     <row r="46" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="35"/>
       <c r="B46" s="29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J46" s="42"/>
       <c r="K46" s="26"/>
@@ -23332,7 +23353,9 @@
       <c r="C49" s="41"/>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
-      <c r="F49" s="29"/>
+      <c r="F49" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
@@ -27433,7 +27456,7 @@
     <row r="53" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="32"/>
       <c r="B53" s="63" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C53" s="63"/>
       <c r="D53" s="63"/>
@@ -27475,19 +27498,19 @@
     <row r="55" s="31" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="35"/>
       <c r="B55" s="29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G55" s="56"/>
       <c r="H55" s="56"/>
@@ -27505,19 +27528,19 @@
     <row r="56" s="31" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="35"/>
       <c r="B56" s="64" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G56" s="56"/>
       <c r="H56" s="56"/>
@@ -27557,15 +27580,15 @@
     <row r="58" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="35"/>
       <c r="B58" s="29" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G58" s="29"/>
       <c r="H58" s="56"/>
@@ -27585,15 +27608,15 @@
     <row r="59" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="35"/>
       <c r="B59" s="29" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E59" s="29"/>
       <c r="F59" s="29" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G59" s="29"/>
       <c r="H59" s="56"/>
@@ -27662,7 +27685,9 @@
       <c r="C62" s="41"/>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
-      <c r="F62" s="29"/>
+      <c r="F62" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
@@ -29791,7 +29816,7 @@
     <row r="68" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
       <c r="B68" s="67" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C68" s="67"/>
       <c r="D68" s="68"/>
@@ -34923,16 +34948,16 @@
     <row r="73" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="67" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C73" s="67"/>
       <c r="D73" s="71" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E73" s="71"/>
       <c r="F73" s="72"/>
       <c r="G73" s="73" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H73" s="68" t="s">
         <v>10</v>

--- a/src/main/resources/protocol.xlsx
+++ b/src/main/resources/protocol.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t xml:space="preserve">г. Новочеркасск</t>
   </si>
@@ -70,9 +70,6 @@
     <t xml:space="preserve">I, А</t>
   </si>
   <si>
-    <t xml:space="preserve">#RSM#</t>
-  </si>
-  <si>
     <t xml:space="preserve">Схема соединения обмоток</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">#IN#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#NASYNC#</t>
   </si>
   <si>
     <t xml:space="preserve">#SCHEME#</t>
@@ -240,9 +234,6 @@
     <t xml:space="preserve">Iw, А</t>
   </si>
   <si>
-    <t xml:space="preserve">P1, kW</t>
-  </si>
-  <si>
     <t xml:space="preserve">cosφ</t>
   </si>
   <si>
@@ -262,9 +253,6 @@
   </si>
   <si>
     <t xml:space="preserve">#HHIC#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#HHP1#</t>
   </si>
   <si>
     <t xml:space="preserve">#HHCOS#</t>
@@ -500,13 +488,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -714,7 +702,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -879,10 +867,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -983,7 +967,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1007,7 +991,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1196,8 +1180,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F64" activeCellId="0" sqref="F64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C34" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6502,35 +6486,31 @@
       <c r="F15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="41"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="39"/>
-      <c r="J15" s="42"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="26"/>
     </row>
     <row r="16" s="31" customFormat="true" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="35"/>
       <c r="B16" s="39"/>
       <c r="C16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="39"/>
-      <c r="J16" s="42"/>
+      <c r="J16" s="41"/>
       <c r="K16" s="26"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
@@ -7547,16 +7527,16 @@
       <c r="AMJ16" s="30"/>
     </row>
     <row r="17" s="30" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
@@ -7581,7 +7561,7 @@
     <row r="19" s="30" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="32"/>
       <c r="B19" s="33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -7590,7 +7570,7 @@
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
-      <c r="J19" s="46"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" s="30" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="35"/>
@@ -8620,48 +8600,48 @@
     </row>
     <row r="21" s="30" customFormat="true" ht="28.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="35"/>
-      <c r="B21" s="44"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="F21" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="G21" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="41"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
       <c r="K21" s="26"/>
     </row>
     <row r="22" s="31" customFormat="true" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="35"/>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="F22" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="G22" s="29" t="s">
         <v>31</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>33</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="39"/>
-      <c r="J22" s="42"/>
+      <c r="J22" s="41"/>
       <c r="K22" s="26"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
@@ -9678,28 +9658,28 @@
       <c r="AMJ22" s="30"/>
     </row>
     <row r="23" s="30" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
       <c r="AMC24" s="38"/>
       <c r="AMD24" s="38"/>
       <c r="AME24" s="38"/>
@@ -9712,7 +9692,7 @@
     <row r="25" s="30" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="32"/>
       <c r="B25" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
@@ -9721,7 +9701,7 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
-      <c r="J25" s="46"/>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" s="30" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="35"/>
@@ -10752,22 +10732,22 @@
     <row r="27" s="31" customFormat="true" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="35"/>
       <c r="B27" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E27" s="29"/>
-      <c r="F27" s="47" t="s">
-        <v>36</v>
+      <c r="F27" s="46" t="s">
+        <v>34</v>
       </c>
-      <c r="G27" s="41" t="s">
-        <v>28</v>
+      <c r="G27" s="40" t="s">
+        <v>26</v>
       </c>
-      <c r="H27" s="41"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="42"/>
+      <c r="J27" s="41"/>
       <c r="K27" s="26"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
@@ -11786,22 +11766,22 @@
     <row r="28" s="31" customFormat="true" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="35"/>
       <c r="B28" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="42"/>
+      <c r="J28" s="41"/>
       <c r="K28" s="26"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
@@ -12818,16 +12798,16 @@
       <c r="AMJ28" s="30"/>
     </row>
     <row r="29" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="43"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="52"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="51"/>
       <c r="AMC29" s="38"/>
       <c r="AMD29" s="38"/>
       <c r="AME29" s="38"/>
@@ -12838,16 +12818,16 @@
       <c r="AMJ29" s="38"/>
     </row>
     <row r="30" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="50"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
       <c r="AMC30" s="38"/>
       <c r="AMD30" s="38"/>
       <c r="AME30" s="38"/>
@@ -12860,7 +12840,7 @@
     <row r="31" s="30" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="32"/>
       <c r="B31" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
@@ -12869,7 +12849,7 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
-      <c r="J31" s="53"/>
+      <c r="J31" s="52"/>
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
@@ -14914,20 +14894,20 @@
     <row r="33" s="31" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="35"/>
       <c r="B33" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="42"/>
+      <c r="J33" s="41"/>
       <c r="K33" s="26"/>
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
@@ -15946,20 +15926,20 @@
     <row r="34" s="31" customFormat="true" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="35"/>
       <c r="B34" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="39"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="42"/>
+      <c r="J34" s="41"/>
       <c r="K34" s="26"/>
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
@@ -16977,15 +16957,15 @@
     </row>
     <row r="35" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="35"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="42"/>
+      <c r="J35" s="41"/>
       <c r="AMC35" s="38"/>
       <c r="AMD35" s="38"/>
       <c r="AME35" s="38"/>
@@ -16998,20 +16978,20 @@
     <row r="36" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="35"/>
       <c r="B36" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="39"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="42"/>
+      <c r="J36" s="41"/>
       <c r="AMC36" s="38"/>
       <c r="AMD36" s="38"/>
       <c r="AME36" s="38"/>
@@ -17024,20 +17004,20 @@
     <row r="37" s="31" customFormat="true" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="35"/>
       <c r="B37" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="39"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="42"/>
+      <c r="J37" s="41"/>
       <c r="AMC37" s="38"/>
       <c r="AMD37" s="38"/>
       <c r="AME37" s="38"/>
@@ -17051,13 +17031,13 @@
       <c r="A38" s="35"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="39"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="42"/>
+      <c r="J38" s="41"/>
       <c r="AMC38" s="38"/>
       <c r="AMD38" s="38"/>
       <c r="AME38" s="38"/>
@@ -17071,17 +17051,17 @@
       <c r="A39" s="35"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
-      <c r="D39" s="54" t="s">
-        <v>54</v>
+      <c r="D39" s="53" t="s">
+        <v>52</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="41" t="s">
-        <v>28</v>
+      <c r="E39" s="53"/>
+      <c r="F39" s="40" t="s">
+        <v>26</v>
       </c>
-      <c r="G39" s="41"/>
+      <c r="G39" s="40"/>
       <c r="H39" s="39"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="42"/>
+      <c r="J39" s="41"/>
       <c r="AMC39" s="38"/>
       <c r="AMD39" s="38"/>
       <c r="AME39" s="38"/>
@@ -17096,16 +17076,16 @@
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="39"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="42"/>
+      <c r="J40" s="41"/>
       <c r="AMC40" s="38"/>
       <c r="AMD40" s="38"/>
       <c r="AME40" s="38"/>
@@ -17116,16 +17096,16 @@
       <c r="AMJ40" s="38"/>
     </row>
     <row r="41" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="43"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="45"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="44"/>
       <c r="AMC41" s="38"/>
       <c r="AMD41" s="38"/>
       <c r="AME41" s="38"/>
@@ -17136,16 +17116,16 @@
       <c r="AMJ41" s="38"/>
     </row>
     <row r="42" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="48"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="50"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="49"/>
       <c r="AMC42" s="38"/>
       <c r="AMD42" s="38"/>
       <c r="AME42" s="38"/>
@@ -17157,17 +17137,17 @@
     </row>
     <row r="43" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="32"/>
-      <c r="B43" s="55" t="s">
-        <v>57</v>
+      <c r="B43" s="54" t="s">
+        <v>55</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="46"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="45"/>
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
       <c r="M43" s="30"/>
@@ -18185,14 +18165,14 @@
     </row>
     <row r="44" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="35"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
       <c r="J44" s="36"/>
       <c r="K44" s="37"/>
       <c r="L44" s="31"/>
@@ -19212,30 +19192,28 @@
     <row r="45" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="35"/>
       <c r="B45" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="E45" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="F45" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="G45" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="H45" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" s="42"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="41"/>
       <c r="K45" s="26"/>
       <c r="L45" s="30"/>
       <c r="M45" s="30"/>
@@ -20254,30 +20232,28 @@
     <row r="46" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="35"/>
       <c r="B46" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="F46" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="G46" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="H46" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="I46" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" s="42"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="41"/>
       <c r="K46" s="26"/>
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
@@ -21303,7 +21279,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="42"/>
+      <c r="J47" s="41"/>
       <c r="K47" s="26"/>
       <c r="L47" s="30"/>
       <c r="M47" s="30"/>
@@ -22321,15 +22297,15 @@
     </row>
     <row r="48" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="35"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="57"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="56"/>
       <c r="K48" s="30"/>
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
@@ -23347,20 +23323,20 @@
     </row>
     <row r="49" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="35"/>
-      <c r="B49" s="41" t="s">
-        <v>28</v>
+      <c r="B49" s="40" t="s">
+        <v>26</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="59"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="58"/>
       <c r="L49" s="30"/>
       <c r="M49" s="30"/>
       <c r="N49" s="30"/>
@@ -24377,16 +24353,16 @@
     </row>
     <row r="50" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="35"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="59"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="58"/>
       <c r="L50" s="30"/>
       <c r="M50" s="30"/>
       <c r="N50" s="30"/>
@@ -25402,16 +25378,16 @@
       <c r="AMJ50" s="30"/>
     </row>
     <row r="51" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="43"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="45"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="44"/>
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
       <c r="M51" s="30"/>
@@ -26428,16 +26404,16 @@
       <c r="AMJ51" s="30"/>
     </row>
     <row r="52" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="60"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="62"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="61"/>
       <c r="K52" s="30"/>
       <c r="L52" s="30"/>
       <c r="M52" s="30"/>
@@ -27455,17 +27431,17 @@
     </row>
     <row r="53" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="32"/>
-      <c r="B53" s="63" t="s">
-        <v>75</v>
+      <c r="B53" s="62" t="s">
+        <v>71</v>
       </c>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="46"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="45"/>
       <c r="AMC53" s="38"/>
       <c r="AMD53" s="38"/>
       <c r="AME53" s="38"/>
@@ -27477,14 +27453,14 @@
     </row>
     <row r="54" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="35"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
       <c r="J54" s="36"/>
       <c r="AMC54" s="38"/>
       <c r="AMD54" s="38"/>
@@ -27498,24 +27474,24 @@
     <row r="55" s="31" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="35"/>
       <c r="B55" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="42"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="41"/>
       <c r="AMC55" s="38"/>
       <c r="AMD55" s="38"/>
       <c r="AME55" s="38"/>
@@ -27527,25 +27503,25 @@
     </row>
     <row r="56" s="31" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="35"/>
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="42"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="41"/>
       <c r="AMC56" s="38"/>
       <c r="AMD56" s="38"/>
       <c r="AME56" s="38"/>
@@ -27557,17 +27533,17 @@
     </row>
     <row r="57" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="35"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
       <c r="AMC57" s="38"/>
       <c r="AMD57" s="38"/>
       <c r="AME57" s="38"/>
@@ -27580,22 +27556,22 @@
     <row r="58" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="35"/>
       <c r="B58" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G58" s="29"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
       <c r="AMC58" s="38"/>
       <c r="AMD58" s="38"/>
       <c r="AME58" s="38"/>
@@ -27608,22 +27584,22 @@
     <row r="59" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="35"/>
       <c r="B59" s="29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E59" s="29"/>
       <c r="F59" s="29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G59" s="29"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
       <c r="AMC59" s="38"/>
       <c r="AMD59" s="38"/>
       <c r="AME59" s="38"/>
@@ -27635,17 +27611,17 @@
     </row>
     <row r="60" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="35"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
       <c r="AMC60" s="38"/>
       <c r="AMD60" s="38"/>
       <c r="AME60" s="38"/>
@@ -27657,17 +27633,17 @@
     </row>
     <row r="61" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="35"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
       <c r="AMC61" s="38"/>
       <c r="AMD61" s="38"/>
       <c r="AME61" s="38"/>
@@ -27679,19 +27655,19 @@
     </row>
     <row r="62" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="35"/>
-      <c r="B62" s="41" t="s">
-        <v>28</v>
+      <c r="B62" s="40" t="s">
+        <v>26</v>
       </c>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
-      <c r="J62" s="58"/>
+      <c r="J62" s="57"/>
       <c r="AMC62" s="38"/>
       <c r="AMD62" s="38"/>
       <c r="AME62" s="38"/>
@@ -27703,15 +27679,15 @@
     </row>
     <row r="63" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="35"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="29"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
       <c r="I63" s="29"/>
-      <c r="J63" s="58"/>
+      <c r="J63" s="57"/>
       <c r="AMC63" s="38"/>
       <c r="AMD63" s="38"/>
       <c r="AME63" s="38"/>
@@ -27722,16 +27698,16 @@
       <c r="AMJ63" s="38"/>
     </row>
     <row r="64" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="43"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="45"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="44"/>
       <c r="AMC64" s="38"/>
       <c r="AMD64" s="38"/>
       <c r="AME64" s="38"/>
@@ -27742,1030 +27718,1030 @@
       <c r="AMJ64" s="38"/>
     </row>
     <row r="65" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="66"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="66"/>
-      <c r="T65" s="66"/>
-      <c r="U65" s="66"/>
-      <c r="V65" s="66"/>
-      <c r="W65" s="66"/>
-      <c r="X65" s="66"/>
-      <c r="Y65" s="66"/>
-      <c r="Z65" s="66"/>
-      <c r="AA65" s="66"/>
-      <c r="AB65" s="66"/>
-      <c r="AC65" s="66"/>
-      <c r="AD65" s="66"/>
-      <c r="AE65" s="66"/>
-      <c r="AF65" s="66"/>
-      <c r="AG65" s="66"/>
-      <c r="AH65" s="66"/>
-      <c r="AI65" s="66"/>
-      <c r="AJ65" s="66"/>
-      <c r="AK65" s="66"/>
-      <c r="AL65" s="66"/>
-      <c r="AM65" s="66"/>
-      <c r="AN65" s="66"/>
-      <c r="AO65" s="66"/>
-      <c r="AP65" s="66"/>
-      <c r="AQ65" s="66"/>
-      <c r="AR65" s="66"/>
-      <c r="AS65" s="66"/>
-      <c r="AT65" s="66"/>
-      <c r="AU65" s="66"/>
-      <c r="AV65" s="66"/>
-      <c r="AW65" s="66"/>
-      <c r="AX65" s="66"/>
-      <c r="AY65" s="66"/>
-      <c r="AZ65" s="66"/>
-      <c r="BA65" s="66"/>
-      <c r="BB65" s="66"/>
-      <c r="BC65" s="66"/>
-      <c r="BD65" s="66"/>
-      <c r="BE65" s="66"/>
-      <c r="BF65" s="66"/>
-      <c r="BG65" s="66"/>
-      <c r="BH65" s="66"/>
-      <c r="BI65" s="66"/>
-      <c r="BJ65" s="66"/>
-      <c r="BK65" s="66"/>
-      <c r="BL65" s="66"/>
-      <c r="BM65" s="66"/>
-      <c r="BN65" s="66"/>
-      <c r="BO65" s="66"/>
-      <c r="BP65" s="66"/>
-      <c r="BQ65" s="66"/>
-      <c r="BR65" s="66"/>
-      <c r="BS65" s="66"/>
-      <c r="BT65" s="66"/>
-      <c r="BU65" s="66"/>
-      <c r="BV65" s="66"/>
-      <c r="BW65" s="66"/>
-      <c r="BX65" s="66"/>
-      <c r="BY65" s="66"/>
-      <c r="BZ65" s="66"/>
-      <c r="CA65" s="66"/>
-      <c r="CB65" s="66"/>
-      <c r="CC65" s="66"/>
-      <c r="CD65" s="66"/>
-      <c r="CE65" s="66"/>
-      <c r="CF65" s="66"/>
-      <c r="CG65" s="66"/>
-      <c r="CH65" s="66"/>
-      <c r="CI65" s="66"/>
-      <c r="CJ65" s="66"/>
-      <c r="CK65" s="66"/>
-      <c r="CL65" s="66"/>
-      <c r="CM65" s="66"/>
-      <c r="CN65" s="66"/>
-      <c r="CO65" s="66"/>
-      <c r="CP65" s="66"/>
-      <c r="CQ65" s="66"/>
-      <c r="CR65" s="66"/>
-      <c r="CS65" s="66"/>
-      <c r="CT65" s="66"/>
-      <c r="CU65" s="66"/>
-      <c r="CV65" s="66"/>
-      <c r="CW65" s="66"/>
-      <c r="CX65" s="66"/>
-      <c r="CY65" s="66"/>
-      <c r="CZ65" s="66"/>
-      <c r="DA65" s="66"/>
-      <c r="DB65" s="66"/>
-      <c r="DC65" s="66"/>
-      <c r="DD65" s="66"/>
-      <c r="DE65" s="66"/>
-      <c r="DF65" s="66"/>
-      <c r="DG65" s="66"/>
-      <c r="DH65" s="66"/>
-      <c r="DI65" s="66"/>
-      <c r="DJ65" s="66"/>
-      <c r="DK65" s="66"/>
-      <c r="DL65" s="66"/>
-      <c r="DM65" s="66"/>
-      <c r="DN65" s="66"/>
-      <c r="DO65" s="66"/>
-      <c r="DP65" s="66"/>
-      <c r="DQ65" s="66"/>
-      <c r="DR65" s="66"/>
-      <c r="DS65" s="66"/>
-      <c r="DT65" s="66"/>
-      <c r="DU65" s="66"/>
-      <c r="DV65" s="66"/>
-      <c r="DW65" s="66"/>
-      <c r="DX65" s="66"/>
-      <c r="DY65" s="66"/>
-      <c r="DZ65" s="66"/>
-      <c r="EA65" s="66"/>
-      <c r="EB65" s="66"/>
-      <c r="EC65" s="66"/>
-      <c r="ED65" s="66"/>
-      <c r="EE65" s="66"/>
-      <c r="EF65" s="66"/>
-      <c r="EG65" s="66"/>
-      <c r="EH65" s="66"/>
-      <c r="EI65" s="66"/>
-      <c r="EJ65" s="66"/>
-      <c r="EK65" s="66"/>
-      <c r="EL65" s="66"/>
-      <c r="EM65" s="66"/>
-      <c r="EN65" s="66"/>
-      <c r="EO65" s="66"/>
-      <c r="EP65" s="66"/>
-      <c r="EQ65" s="66"/>
-      <c r="ER65" s="66"/>
-      <c r="ES65" s="66"/>
-      <c r="ET65" s="66"/>
-      <c r="EU65" s="66"/>
-      <c r="EV65" s="66"/>
-      <c r="EW65" s="66"/>
-      <c r="EX65" s="66"/>
-      <c r="EY65" s="66"/>
-      <c r="EZ65" s="66"/>
-      <c r="FA65" s="66"/>
-      <c r="FB65" s="66"/>
-      <c r="FC65" s="66"/>
-      <c r="FD65" s="66"/>
-      <c r="FE65" s="66"/>
-      <c r="FF65" s="66"/>
-      <c r="FG65" s="66"/>
-      <c r="FH65" s="66"/>
-      <c r="FI65" s="66"/>
-      <c r="FJ65" s="66"/>
-      <c r="FK65" s="66"/>
-      <c r="FL65" s="66"/>
-      <c r="FM65" s="66"/>
-      <c r="FN65" s="66"/>
-      <c r="FO65" s="66"/>
-      <c r="FP65" s="66"/>
-      <c r="FQ65" s="66"/>
-      <c r="FR65" s="66"/>
-      <c r="FS65" s="66"/>
-      <c r="FT65" s="66"/>
-      <c r="FU65" s="66"/>
-      <c r="FV65" s="66"/>
-      <c r="FW65" s="66"/>
-      <c r="FX65" s="66"/>
-      <c r="FY65" s="66"/>
-      <c r="FZ65" s="66"/>
-      <c r="GA65" s="66"/>
-      <c r="GB65" s="66"/>
-      <c r="GC65" s="66"/>
-      <c r="GD65" s="66"/>
-      <c r="GE65" s="66"/>
-      <c r="GF65" s="66"/>
-      <c r="GG65" s="66"/>
-      <c r="GH65" s="66"/>
-      <c r="GI65" s="66"/>
-      <c r="GJ65" s="66"/>
-      <c r="GK65" s="66"/>
-      <c r="GL65" s="66"/>
-      <c r="GM65" s="66"/>
-      <c r="GN65" s="66"/>
-      <c r="GO65" s="66"/>
-      <c r="GP65" s="66"/>
-      <c r="GQ65" s="66"/>
-      <c r="GR65" s="66"/>
-      <c r="GS65" s="66"/>
-      <c r="GT65" s="66"/>
-      <c r="GU65" s="66"/>
-      <c r="GV65" s="66"/>
-      <c r="GW65" s="66"/>
-      <c r="GX65" s="66"/>
-      <c r="GY65" s="66"/>
-      <c r="GZ65" s="66"/>
-      <c r="HA65" s="66"/>
-      <c r="HB65" s="66"/>
-      <c r="HC65" s="66"/>
-      <c r="HD65" s="66"/>
-      <c r="HE65" s="66"/>
-      <c r="HF65" s="66"/>
-      <c r="HG65" s="66"/>
-      <c r="HH65" s="66"/>
-      <c r="HI65" s="66"/>
-      <c r="HJ65" s="66"/>
-      <c r="HK65" s="66"/>
-      <c r="HL65" s="66"/>
-      <c r="HM65" s="66"/>
-      <c r="HN65" s="66"/>
-      <c r="HO65" s="66"/>
-      <c r="HP65" s="66"/>
-      <c r="HQ65" s="66"/>
-      <c r="HR65" s="66"/>
-      <c r="HS65" s="66"/>
-      <c r="HT65" s="66"/>
-      <c r="HU65" s="66"/>
-      <c r="HV65" s="66"/>
-      <c r="HW65" s="66"/>
-      <c r="HX65" s="66"/>
-      <c r="HY65" s="66"/>
-      <c r="HZ65" s="66"/>
-      <c r="IA65" s="66"/>
-      <c r="IB65" s="66"/>
-      <c r="IC65" s="66"/>
-      <c r="ID65" s="66"/>
-      <c r="IE65" s="66"/>
-      <c r="IF65" s="66"/>
-      <c r="IG65" s="66"/>
-      <c r="IH65" s="66"/>
-      <c r="II65" s="66"/>
-      <c r="IJ65" s="66"/>
-      <c r="IK65" s="66"/>
-      <c r="IL65" s="66"/>
-      <c r="IM65" s="66"/>
-      <c r="IN65" s="66"/>
-      <c r="IO65" s="66"/>
-      <c r="IP65" s="66"/>
-      <c r="IQ65" s="66"/>
-      <c r="IR65" s="66"/>
-      <c r="IS65" s="66"/>
-      <c r="IT65" s="66"/>
-      <c r="IU65" s="66"/>
-      <c r="IV65" s="66"/>
-      <c r="IW65" s="66"/>
-      <c r="IX65" s="66"/>
-      <c r="IY65" s="66"/>
-      <c r="IZ65" s="66"/>
-      <c r="JA65" s="66"/>
-      <c r="JB65" s="66"/>
-      <c r="JC65" s="66"/>
-      <c r="JD65" s="66"/>
-      <c r="JE65" s="66"/>
-      <c r="JF65" s="66"/>
-      <c r="JG65" s="66"/>
-      <c r="JH65" s="66"/>
-      <c r="JI65" s="66"/>
-      <c r="JJ65" s="66"/>
-      <c r="JK65" s="66"/>
-      <c r="JL65" s="66"/>
-      <c r="JM65" s="66"/>
-      <c r="JN65" s="66"/>
-      <c r="JO65" s="66"/>
-      <c r="JP65" s="66"/>
-      <c r="JQ65" s="66"/>
-      <c r="JR65" s="66"/>
-      <c r="JS65" s="66"/>
-      <c r="JT65" s="66"/>
-      <c r="JU65" s="66"/>
-      <c r="JV65" s="66"/>
-      <c r="JW65" s="66"/>
-      <c r="JX65" s="66"/>
-      <c r="JY65" s="66"/>
-      <c r="JZ65" s="66"/>
-      <c r="KA65" s="66"/>
-      <c r="KB65" s="66"/>
-      <c r="KC65" s="66"/>
-      <c r="KD65" s="66"/>
-      <c r="KE65" s="66"/>
-      <c r="KF65" s="66"/>
-      <c r="KG65" s="66"/>
-      <c r="KH65" s="66"/>
-      <c r="KI65" s="66"/>
-      <c r="KJ65" s="66"/>
-      <c r="KK65" s="66"/>
-      <c r="KL65" s="66"/>
-      <c r="KM65" s="66"/>
-      <c r="KN65" s="66"/>
-      <c r="KO65" s="66"/>
-      <c r="KP65" s="66"/>
-      <c r="KQ65" s="66"/>
-      <c r="KR65" s="66"/>
-      <c r="KS65" s="66"/>
-      <c r="KT65" s="66"/>
-      <c r="KU65" s="66"/>
-      <c r="KV65" s="66"/>
-      <c r="KW65" s="66"/>
-      <c r="KX65" s="66"/>
-      <c r="KY65" s="66"/>
-      <c r="KZ65" s="66"/>
-      <c r="LA65" s="66"/>
-      <c r="LB65" s="66"/>
-      <c r="LC65" s="66"/>
-      <c r="LD65" s="66"/>
-      <c r="LE65" s="66"/>
-      <c r="LF65" s="66"/>
-      <c r="LG65" s="66"/>
-      <c r="LH65" s="66"/>
-      <c r="LI65" s="66"/>
-      <c r="LJ65" s="66"/>
-      <c r="LK65" s="66"/>
-      <c r="LL65" s="66"/>
-      <c r="LM65" s="66"/>
-      <c r="LN65" s="66"/>
-      <c r="LO65" s="66"/>
-      <c r="LP65" s="66"/>
-      <c r="LQ65" s="66"/>
-      <c r="LR65" s="66"/>
-      <c r="LS65" s="66"/>
-      <c r="LT65" s="66"/>
-      <c r="LU65" s="66"/>
-      <c r="LV65" s="66"/>
-      <c r="LW65" s="66"/>
-      <c r="LX65" s="66"/>
-      <c r="LY65" s="66"/>
-      <c r="LZ65" s="66"/>
-      <c r="MA65" s="66"/>
-      <c r="MB65" s="66"/>
-      <c r="MC65" s="66"/>
-      <c r="MD65" s="66"/>
-      <c r="ME65" s="66"/>
-      <c r="MF65" s="66"/>
-      <c r="MG65" s="66"/>
-      <c r="MH65" s="66"/>
-      <c r="MI65" s="66"/>
-      <c r="MJ65" s="66"/>
-      <c r="MK65" s="66"/>
-      <c r="ML65" s="66"/>
-      <c r="MM65" s="66"/>
-      <c r="MN65" s="66"/>
-      <c r="MO65" s="66"/>
-      <c r="MP65" s="66"/>
-      <c r="MQ65" s="66"/>
-      <c r="MR65" s="66"/>
-      <c r="MS65" s="66"/>
-      <c r="MT65" s="66"/>
-      <c r="MU65" s="66"/>
-      <c r="MV65" s="66"/>
-      <c r="MW65" s="66"/>
-      <c r="MX65" s="66"/>
-      <c r="MY65" s="66"/>
-      <c r="MZ65" s="66"/>
-      <c r="NA65" s="66"/>
-      <c r="NB65" s="66"/>
-      <c r="NC65" s="66"/>
-      <c r="ND65" s="66"/>
-      <c r="NE65" s="66"/>
-      <c r="NF65" s="66"/>
-      <c r="NG65" s="66"/>
-      <c r="NH65" s="66"/>
-      <c r="NI65" s="66"/>
-      <c r="NJ65" s="66"/>
-      <c r="NK65" s="66"/>
-      <c r="NL65" s="66"/>
-      <c r="NM65" s="66"/>
-      <c r="NN65" s="66"/>
-      <c r="NO65" s="66"/>
-      <c r="NP65" s="66"/>
-      <c r="NQ65" s="66"/>
-      <c r="NR65" s="66"/>
-      <c r="NS65" s="66"/>
-      <c r="NT65" s="66"/>
-      <c r="NU65" s="66"/>
-      <c r="NV65" s="66"/>
-      <c r="NW65" s="66"/>
-      <c r="NX65" s="66"/>
-      <c r="NY65" s="66"/>
-      <c r="NZ65" s="66"/>
-      <c r="OA65" s="66"/>
-      <c r="OB65" s="66"/>
-      <c r="OC65" s="66"/>
-      <c r="OD65" s="66"/>
-      <c r="OE65" s="66"/>
-      <c r="OF65" s="66"/>
-      <c r="OG65" s="66"/>
-      <c r="OH65" s="66"/>
-      <c r="OI65" s="66"/>
-      <c r="OJ65" s="66"/>
-      <c r="OK65" s="66"/>
-      <c r="OL65" s="66"/>
-      <c r="OM65" s="66"/>
-      <c r="ON65" s="66"/>
-      <c r="OO65" s="66"/>
-      <c r="OP65" s="66"/>
-      <c r="OQ65" s="66"/>
-      <c r="OR65" s="66"/>
-      <c r="OS65" s="66"/>
-      <c r="OT65" s="66"/>
-      <c r="OU65" s="66"/>
-      <c r="OV65" s="66"/>
-      <c r="OW65" s="66"/>
-      <c r="OX65" s="66"/>
-      <c r="OY65" s="66"/>
-      <c r="OZ65" s="66"/>
-      <c r="PA65" s="66"/>
-      <c r="PB65" s="66"/>
-      <c r="PC65" s="66"/>
-      <c r="PD65" s="66"/>
-      <c r="PE65" s="66"/>
-      <c r="PF65" s="66"/>
-      <c r="PG65" s="66"/>
-      <c r="PH65" s="66"/>
-      <c r="PI65" s="66"/>
-      <c r="PJ65" s="66"/>
-      <c r="PK65" s="66"/>
-      <c r="PL65" s="66"/>
-      <c r="PM65" s="66"/>
-      <c r="PN65" s="66"/>
-      <c r="PO65" s="66"/>
-      <c r="PP65" s="66"/>
-      <c r="PQ65" s="66"/>
-      <c r="PR65" s="66"/>
-      <c r="PS65" s="66"/>
-      <c r="PT65" s="66"/>
-      <c r="PU65" s="66"/>
-      <c r="PV65" s="66"/>
-      <c r="PW65" s="66"/>
-      <c r="PX65" s="66"/>
-      <c r="PY65" s="66"/>
-      <c r="PZ65" s="66"/>
-      <c r="QA65" s="66"/>
-      <c r="QB65" s="66"/>
-      <c r="QC65" s="66"/>
-      <c r="QD65" s="66"/>
-      <c r="QE65" s="66"/>
-      <c r="QF65" s="66"/>
-      <c r="QG65" s="66"/>
-      <c r="QH65" s="66"/>
-      <c r="QI65" s="66"/>
-      <c r="QJ65" s="66"/>
-      <c r="QK65" s="66"/>
-      <c r="QL65" s="66"/>
-      <c r="QM65" s="66"/>
-      <c r="QN65" s="66"/>
-      <c r="QO65" s="66"/>
-      <c r="QP65" s="66"/>
-      <c r="QQ65" s="66"/>
-      <c r="QR65" s="66"/>
-      <c r="QS65" s="66"/>
-      <c r="QT65" s="66"/>
-      <c r="QU65" s="66"/>
-      <c r="QV65" s="66"/>
-      <c r="QW65" s="66"/>
-      <c r="QX65" s="66"/>
-      <c r="QY65" s="66"/>
-      <c r="QZ65" s="66"/>
-      <c r="RA65" s="66"/>
-      <c r="RB65" s="66"/>
-      <c r="RC65" s="66"/>
-      <c r="RD65" s="66"/>
-      <c r="RE65" s="66"/>
-      <c r="RF65" s="66"/>
-      <c r="RG65" s="66"/>
-      <c r="RH65" s="66"/>
-      <c r="RI65" s="66"/>
-      <c r="RJ65" s="66"/>
-      <c r="RK65" s="66"/>
-      <c r="RL65" s="66"/>
-      <c r="RM65" s="66"/>
-      <c r="RN65" s="66"/>
-      <c r="RO65" s="66"/>
-      <c r="RP65" s="66"/>
-      <c r="RQ65" s="66"/>
-      <c r="RR65" s="66"/>
-      <c r="RS65" s="66"/>
-      <c r="RT65" s="66"/>
-      <c r="RU65" s="66"/>
-      <c r="RV65" s="66"/>
-      <c r="RW65" s="66"/>
-      <c r="RX65" s="66"/>
-      <c r="RY65" s="66"/>
-      <c r="RZ65" s="66"/>
-      <c r="SA65" s="66"/>
-      <c r="SB65" s="66"/>
-      <c r="SC65" s="66"/>
-      <c r="SD65" s="66"/>
-      <c r="SE65" s="66"/>
-      <c r="SF65" s="66"/>
-      <c r="SG65" s="66"/>
-      <c r="SH65" s="66"/>
-      <c r="SI65" s="66"/>
-      <c r="SJ65" s="66"/>
-      <c r="SK65" s="66"/>
-      <c r="SL65" s="66"/>
-      <c r="SM65" s="66"/>
-      <c r="SN65" s="66"/>
-      <c r="SO65" s="66"/>
-      <c r="SP65" s="66"/>
-      <c r="SQ65" s="66"/>
-      <c r="SR65" s="66"/>
-      <c r="SS65" s="66"/>
-      <c r="ST65" s="66"/>
-      <c r="SU65" s="66"/>
-      <c r="SV65" s="66"/>
-      <c r="SW65" s="66"/>
-      <c r="SX65" s="66"/>
-      <c r="SY65" s="66"/>
-      <c r="SZ65" s="66"/>
-      <c r="TA65" s="66"/>
-      <c r="TB65" s="66"/>
-      <c r="TC65" s="66"/>
-      <c r="TD65" s="66"/>
-      <c r="TE65" s="66"/>
-      <c r="TF65" s="66"/>
-      <c r="TG65" s="66"/>
-      <c r="TH65" s="66"/>
-      <c r="TI65" s="66"/>
-      <c r="TJ65" s="66"/>
-      <c r="TK65" s="66"/>
-      <c r="TL65" s="66"/>
-      <c r="TM65" s="66"/>
-      <c r="TN65" s="66"/>
-      <c r="TO65" s="66"/>
-      <c r="TP65" s="66"/>
-      <c r="TQ65" s="66"/>
-      <c r="TR65" s="66"/>
-      <c r="TS65" s="66"/>
-      <c r="TT65" s="66"/>
-      <c r="TU65" s="66"/>
-      <c r="TV65" s="66"/>
-      <c r="TW65" s="66"/>
-      <c r="TX65" s="66"/>
-      <c r="TY65" s="66"/>
-      <c r="TZ65" s="66"/>
-      <c r="UA65" s="66"/>
-      <c r="UB65" s="66"/>
-      <c r="UC65" s="66"/>
-      <c r="UD65" s="66"/>
-      <c r="UE65" s="66"/>
-      <c r="UF65" s="66"/>
-      <c r="UG65" s="66"/>
-      <c r="UH65" s="66"/>
-      <c r="UI65" s="66"/>
-      <c r="UJ65" s="66"/>
-      <c r="UK65" s="66"/>
-      <c r="UL65" s="66"/>
-      <c r="UM65" s="66"/>
-      <c r="UN65" s="66"/>
-      <c r="UO65" s="66"/>
-      <c r="UP65" s="66"/>
-      <c r="UQ65" s="66"/>
-      <c r="UR65" s="66"/>
-      <c r="US65" s="66"/>
-      <c r="UT65" s="66"/>
-      <c r="UU65" s="66"/>
-      <c r="UV65" s="66"/>
-      <c r="UW65" s="66"/>
-      <c r="UX65" s="66"/>
-      <c r="UY65" s="66"/>
-      <c r="UZ65" s="66"/>
-      <c r="VA65" s="66"/>
-      <c r="VB65" s="66"/>
-      <c r="VC65" s="66"/>
-      <c r="VD65" s="66"/>
-      <c r="VE65" s="66"/>
-      <c r="VF65" s="66"/>
-      <c r="VG65" s="66"/>
-      <c r="VH65" s="66"/>
-      <c r="VI65" s="66"/>
-      <c r="VJ65" s="66"/>
-      <c r="VK65" s="66"/>
-      <c r="VL65" s="66"/>
-      <c r="VM65" s="66"/>
-      <c r="VN65" s="66"/>
-      <c r="VO65" s="66"/>
-      <c r="VP65" s="66"/>
-      <c r="VQ65" s="66"/>
-      <c r="VR65" s="66"/>
-      <c r="VS65" s="66"/>
-      <c r="VT65" s="66"/>
-      <c r="VU65" s="66"/>
-      <c r="VV65" s="66"/>
-      <c r="VW65" s="66"/>
-      <c r="VX65" s="66"/>
-      <c r="VY65" s="66"/>
-      <c r="VZ65" s="66"/>
-      <c r="WA65" s="66"/>
-      <c r="WB65" s="66"/>
-      <c r="WC65" s="66"/>
-      <c r="WD65" s="66"/>
-      <c r="WE65" s="66"/>
-      <c r="WF65" s="66"/>
-      <c r="WG65" s="66"/>
-      <c r="WH65" s="66"/>
-      <c r="WI65" s="66"/>
-      <c r="WJ65" s="66"/>
-      <c r="WK65" s="66"/>
-      <c r="WL65" s="66"/>
-      <c r="WM65" s="66"/>
-      <c r="WN65" s="66"/>
-      <c r="WO65" s="66"/>
-      <c r="WP65" s="66"/>
-      <c r="WQ65" s="66"/>
-      <c r="WR65" s="66"/>
-      <c r="WS65" s="66"/>
-      <c r="WT65" s="66"/>
-      <c r="WU65" s="66"/>
-      <c r="WV65" s="66"/>
-      <c r="WW65" s="66"/>
-      <c r="WX65" s="66"/>
-      <c r="WY65" s="66"/>
-      <c r="WZ65" s="66"/>
-      <c r="XA65" s="66"/>
-      <c r="XB65" s="66"/>
-      <c r="XC65" s="66"/>
-      <c r="XD65" s="66"/>
-      <c r="XE65" s="66"/>
-      <c r="XF65" s="66"/>
-      <c r="XG65" s="66"/>
-      <c r="XH65" s="66"/>
-      <c r="XI65" s="66"/>
-      <c r="XJ65" s="66"/>
-      <c r="XK65" s="66"/>
-      <c r="XL65" s="66"/>
-      <c r="XM65" s="66"/>
-      <c r="XN65" s="66"/>
-      <c r="XO65" s="66"/>
-      <c r="XP65" s="66"/>
-      <c r="XQ65" s="66"/>
-      <c r="XR65" s="66"/>
-      <c r="XS65" s="66"/>
-      <c r="XT65" s="66"/>
-      <c r="XU65" s="66"/>
-      <c r="XV65" s="66"/>
-      <c r="XW65" s="66"/>
-      <c r="XX65" s="66"/>
-      <c r="XY65" s="66"/>
-      <c r="XZ65" s="66"/>
-      <c r="YA65" s="66"/>
-      <c r="YB65" s="66"/>
-      <c r="YC65" s="66"/>
-      <c r="YD65" s="66"/>
-      <c r="YE65" s="66"/>
-      <c r="YF65" s="66"/>
-      <c r="YG65" s="66"/>
-      <c r="YH65" s="66"/>
-      <c r="YI65" s="66"/>
-      <c r="YJ65" s="66"/>
-      <c r="YK65" s="66"/>
-      <c r="YL65" s="66"/>
-      <c r="YM65" s="66"/>
-      <c r="YN65" s="66"/>
-      <c r="YO65" s="66"/>
-      <c r="YP65" s="66"/>
-      <c r="YQ65" s="66"/>
-      <c r="YR65" s="66"/>
-      <c r="YS65" s="66"/>
-      <c r="YT65" s="66"/>
-      <c r="YU65" s="66"/>
-      <c r="YV65" s="66"/>
-      <c r="YW65" s="66"/>
-      <c r="YX65" s="66"/>
-      <c r="YY65" s="66"/>
-      <c r="YZ65" s="66"/>
-      <c r="ZA65" s="66"/>
-      <c r="ZB65" s="66"/>
-      <c r="ZC65" s="66"/>
-      <c r="ZD65" s="66"/>
-      <c r="ZE65" s="66"/>
-      <c r="ZF65" s="66"/>
-      <c r="ZG65" s="66"/>
-      <c r="ZH65" s="66"/>
-      <c r="ZI65" s="66"/>
-      <c r="ZJ65" s="66"/>
-      <c r="ZK65" s="66"/>
-      <c r="ZL65" s="66"/>
-      <c r="ZM65" s="66"/>
-      <c r="ZN65" s="66"/>
-      <c r="ZO65" s="66"/>
-      <c r="ZP65" s="66"/>
-      <c r="ZQ65" s="66"/>
-      <c r="ZR65" s="66"/>
-      <c r="ZS65" s="66"/>
-      <c r="ZT65" s="66"/>
-      <c r="ZU65" s="66"/>
-      <c r="ZV65" s="66"/>
-      <c r="ZW65" s="66"/>
-      <c r="ZX65" s="66"/>
-      <c r="ZY65" s="66"/>
-      <c r="ZZ65" s="66"/>
-      <c r="AAA65" s="66"/>
-      <c r="AAB65" s="66"/>
-      <c r="AAC65" s="66"/>
-      <c r="AAD65" s="66"/>
-      <c r="AAE65" s="66"/>
-      <c r="AAF65" s="66"/>
-      <c r="AAG65" s="66"/>
-      <c r="AAH65" s="66"/>
-      <c r="AAI65" s="66"/>
-      <c r="AAJ65" s="66"/>
-      <c r="AAK65" s="66"/>
-      <c r="AAL65" s="66"/>
-      <c r="AAM65" s="66"/>
-      <c r="AAN65" s="66"/>
-      <c r="AAO65" s="66"/>
-      <c r="AAP65" s="66"/>
-      <c r="AAQ65" s="66"/>
-      <c r="AAR65" s="66"/>
-      <c r="AAS65" s="66"/>
-      <c r="AAT65" s="66"/>
-      <c r="AAU65" s="66"/>
-      <c r="AAV65" s="66"/>
-      <c r="AAW65" s="66"/>
-      <c r="AAX65" s="66"/>
-      <c r="AAY65" s="66"/>
-      <c r="AAZ65" s="66"/>
-      <c r="ABA65" s="66"/>
-      <c r="ABB65" s="66"/>
-      <c r="ABC65" s="66"/>
-      <c r="ABD65" s="66"/>
-      <c r="ABE65" s="66"/>
-      <c r="ABF65" s="66"/>
-      <c r="ABG65" s="66"/>
-      <c r="ABH65" s="66"/>
-      <c r="ABI65" s="66"/>
-      <c r="ABJ65" s="66"/>
-      <c r="ABK65" s="66"/>
-      <c r="ABL65" s="66"/>
-      <c r="ABM65" s="66"/>
-      <c r="ABN65" s="66"/>
-      <c r="ABO65" s="66"/>
-      <c r="ABP65" s="66"/>
-      <c r="ABQ65" s="66"/>
-      <c r="ABR65" s="66"/>
-      <c r="ABS65" s="66"/>
-      <c r="ABT65" s="66"/>
-      <c r="ABU65" s="66"/>
-      <c r="ABV65" s="66"/>
-      <c r="ABW65" s="66"/>
-      <c r="ABX65" s="66"/>
-      <c r="ABY65" s="66"/>
-      <c r="ABZ65" s="66"/>
-      <c r="ACA65" s="66"/>
-      <c r="ACB65" s="66"/>
-      <c r="ACC65" s="66"/>
-      <c r="ACD65" s="66"/>
-      <c r="ACE65" s="66"/>
-      <c r="ACF65" s="66"/>
-      <c r="ACG65" s="66"/>
-      <c r="ACH65" s="66"/>
-      <c r="ACI65" s="66"/>
-      <c r="ACJ65" s="66"/>
-      <c r="ACK65" s="66"/>
-      <c r="ACL65" s="66"/>
-      <c r="ACM65" s="66"/>
-      <c r="ACN65" s="66"/>
-      <c r="ACO65" s="66"/>
-      <c r="ACP65" s="66"/>
-      <c r="ACQ65" s="66"/>
-      <c r="ACR65" s="66"/>
-      <c r="ACS65" s="66"/>
-      <c r="ACT65" s="66"/>
-      <c r="ACU65" s="66"/>
-      <c r="ACV65" s="66"/>
-      <c r="ACW65" s="66"/>
-      <c r="ACX65" s="66"/>
-      <c r="ACY65" s="66"/>
-      <c r="ACZ65" s="66"/>
-      <c r="ADA65" s="66"/>
-      <c r="ADB65" s="66"/>
-      <c r="ADC65" s="66"/>
-      <c r="ADD65" s="66"/>
-      <c r="ADE65" s="66"/>
-      <c r="ADF65" s="66"/>
-      <c r="ADG65" s="66"/>
-      <c r="ADH65" s="66"/>
-      <c r="ADI65" s="66"/>
-      <c r="ADJ65" s="66"/>
-      <c r="ADK65" s="66"/>
-      <c r="ADL65" s="66"/>
-      <c r="ADM65" s="66"/>
-      <c r="ADN65" s="66"/>
-      <c r="ADO65" s="66"/>
-      <c r="ADP65" s="66"/>
-      <c r="ADQ65" s="66"/>
-      <c r="ADR65" s="66"/>
-      <c r="ADS65" s="66"/>
-      <c r="ADT65" s="66"/>
-      <c r="ADU65" s="66"/>
-      <c r="ADV65" s="66"/>
-      <c r="ADW65" s="66"/>
-      <c r="ADX65" s="66"/>
-      <c r="ADY65" s="66"/>
-      <c r="ADZ65" s="66"/>
-      <c r="AEA65" s="66"/>
-      <c r="AEB65" s="66"/>
-      <c r="AEC65" s="66"/>
-      <c r="AED65" s="66"/>
-      <c r="AEE65" s="66"/>
-      <c r="AEF65" s="66"/>
-      <c r="AEG65" s="66"/>
-      <c r="AEH65" s="66"/>
-      <c r="AEI65" s="66"/>
-      <c r="AEJ65" s="66"/>
-      <c r="AEK65" s="66"/>
-      <c r="AEL65" s="66"/>
-      <c r="AEM65" s="66"/>
-      <c r="AEN65" s="66"/>
-      <c r="AEO65" s="66"/>
-      <c r="AEP65" s="66"/>
-      <c r="AEQ65" s="66"/>
-      <c r="AER65" s="66"/>
-      <c r="AES65" s="66"/>
-      <c r="AET65" s="66"/>
-      <c r="AEU65" s="66"/>
-      <c r="AEV65" s="66"/>
-      <c r="AEW65" s="66"/>
-      <c r="AEX65" s="66"/>
-      <c r="AEY65" s="66"/>
-      <c r="AEZ65" s="66"/>
-      <c r="AFA65" s="66"/>
-      <c r="AFB65" s="66"/>
-      <c r="AFC65" s="66"/>
-      <c r="AFD65" s="66"/>
-      <c r="AFE65" s="66"/>
-      <c r="AFF65" s="66"/>
-      <c r="AFG65" s="66"/>
-      <c r="AFH65" s="66"/>
-      <c r="AFI65" s="66"/>
-      <c r="AFJ65" s="66"/>
-      <c r="AFK65" s="66"/>
-      <c r="AFL65" s="66"/>
-      <c r="AFM65" s="66"/>
-      <c r="AFN65" s="66"/>
-      <c r="AFO65" s="66"/>
-      <c r="AFP65" s="66"/>
-      <c r="AFQ65" s="66"/>
-      <c r="AFR65" s="66"/>
-      <c r="AFS65" s="66"/>
-      <c r="AFT65" s="66"/>
-      <c r="AFU65" s="66"/>
-      <c r="AFV65" s="66"/>
-      <c r="AFW65" s="66"/>
-      <c r="AFX65" s="66"/>
-      <c r="AFY65" s="66"/>
-      <c r="AFZ65" s="66"/>
-      <c r="AGA65" s="66"/>
-      <c r="AGB65" s="66"/>
-      <c r="AGC65" s="66"/>
-      <c r="AGD65" s="66"/>
-      <c r="AGE65" s="66"/>
-      <c r="AGF65" s="66"/>
-      <c r="AGG65" s="66"/>
-      <c r="AGH65" s="66"/>
-      <c r="AGI65" s="66"/>
-      <c r="AGJ65" s="66"/>
-      <c r="AGK65" s="66"/>
-      <c r="AGL65" s="66"/>
-      <c r="AGM65" s="66"/>
-      <c r="AGN65" s="66"/>
-      <c r="AGO65" s="66"/>
-      <c r="AGP65" s="66"/>
-      <c r="AGQ65" s="66"/>
-      <c r="AGR65" s="66"/>
-      <c r="AGS65" s="66"/>
-      <c r="AGT65" s="66"/>
-      <c r="AGU65" s="66"/>
-      <c r="AGV65" s="66"/>
-      <c r="AGW65" s="66"/>
-      <c r="AGX65" s="66"/>
-      <c r="AGY65" s="66"/>
-      <c r="AGZ65" s="66"/>
-      <c r="AHA65" s="66"/>
-      <c r="AHB65" s="66"/>
-      <c r="AHC65" s="66"/>
-      <c r="AHD65" s="66"/>
-      <c r="AHE65" s="66"/>
-      <c r="AHF65" s="66"/>
-      <c r="AHG65" s="66"/>
-      <c r="AHH65" s="66"/>
-      <c r="AHI65" s="66"/>
-      <c r="AHJ65" s="66"/>
-      <c r="AHK65" s="66"/>
-      <c r="AHL65" s="66"/>
-      <c r="AHM65" s="66"/>
-      <c r="AHN65" s="66"/>
-      <c r="AHO65" s="66"/>
-      <c r="AHP65" s="66"/>
-      <c r="AHQ65" s="66"/>
-      <c r="AHR65" s="66"/>
-      <c r="AHS65" s="66"/>
-      <c r="AHT65" s="66"/>
-      <c r="AHU65" s="66"/>
-      <c r="AHV65" s="66"/>
-      <c r="AHW65" s="66"/>
-      <c r="AHX65" s="66"/>
-      <c r="AHY65" s="66"/>
-      <c r="AHZ65" s="66"/>
-      <c r="AIA65" s="66"/>
-      <c r="AIB65" s="66"/>
-      <c r="AIC65" s="66"/>
-      <c r="AID65" s="66"/>
-      <c r="AIE65" s="66"/>
-      <c r="AIF65" s="66"/>
-      <c r="AIG65" s="66"/>
-      <c r="AIH65" s="66"/>
-      <c r="AII65" s="66"/>
-      <c r="AIJ65" s="66"/>
-      <c r="AIK65" s="66"/>
-      <c r="AIL65" s="66"/>
-      <c r="AIM65" s="66"/>
-      <c r="AIN65" s="66"/>
-      <c r="AIO65" s="66"/>
-      <c r="AIP65" s="66"/>
-      <c r="AIQ65" s="66"/>
-      <c r="AIR65" s="66"/>
-      <c r="AIS65" s="66"/>
-      <c r="AIT65" s="66"/>
-      <c r="AIU65" s="66"/>
-      <c r="AIV65" s="66"/>
-      <c r="AIW65" s="66"/>
-      <c r="AIX65" s="66"/>
-      <c r="AIY65" s="66"/>
-      <c r="AIZ65" s="66"/>
-      <c r="AJA65" s="66"/>
-      <c r="AJB65" s="66"/>
-      <c r="AJC65" s="66"/>
-      <c r="AJD65" s="66"/>
-      <c r="AJE65" s="66"/>
-      <c r="AJF65" s="66"/>
-      <c r="AJG65" s="66"/>
-      <c r="AJH65" s="66"/>
-      <c r="AJI65" s="66"/>
-      <c r="AJJ65" s="66"/>
-      <c r="AJK65" s="66"/>
-      <c r="AJL65" s="66"/>
-      <c r="AJM65" s="66"/>
-      <c r="AJN65" s="66"/>
-      <c r="AJO65" s="66"/>
-      <c r="AJP65" s="66"/>
-      <c r="AJQ65" s="66"/>
-      <c r="AJR65" s="66"/>
-      <c r="AJS65" s="66"/>
-      <c r="AJT65" s="66"/>
-      <c r="AJU65" s="66"/>
-      <c r="AJV65" s="66"/>
-      <c r="AJW65" s="66"/>
-      <c r="AJX65" s="66"/>
-      <c r="AJY65" s="66"/>
-      <c r="AJZ65" s="66"/>
-      <c r="AKA65" s="66"/>
-      <c r="AKB65" s="66"/>
-      <c r="AKC65" s="66"/>
-      <c r="AKD65" s="66"/>
-      <c r="AKE65" s="66"/>
-      <c r="AKF65" s="66"/>
-      <c r="AKG65" s="66"/>
-      <c r="AKH65" s="66"/>
-      <c r="AKI65" s="66"/>
-      <c r="AKJ65" s="66"/>
-      <c r="AKK65" s="66"/>
-      <c r="AKL65" s="66"/>
-      <c r="AKM65" s="66"/>
-      <c r="AKN65" s="66"/>
-      <c r="AKO65" s="66"/>
-      <c r="AKP65" s="66"/>
-      <c r="AKQ65" s="66"/>
-      <c r="AKR65" s="66"/>
-      <c r="AKS65" s="66"/>
-      <c r="AKT65" s="66"/>
-      <c r="AKU65" s="66"/>
-      <c r="AKV65" s="66"/>
-      <c r="AKW65" s="66"/>
-      <c r="AKX65" s="66"/>
-      <c r="AKY65" s="66"/>
-      <c r="AKZ65" s="66"/>
-      <c r="ALA65" s="66"/>
-      <c r="ALB65" s="66"/>
-      <c r="ALC65" s="66"/>
-      <c r="ALD65" s="66"/>
-      <c r="ALE65" s="66"/>
-      <c r="ALF65" s="66"/>
-      <c r="ALG65" s="66"/>
-      <c r="ALH65" s="66"/>
-      <c r="ALI65" s="66"/>
-      <c r="ALJ65" s="66"/>
-      <c r="ALK65" s="66"/>
-      <c r="ALL65" s="66"/>
-      <c r="ALM65" s="66"/>
-      <c r="ALN65" s="66"/>
-      <c r="ALO65" s="66"/>
-      <c r="ALP65" s="66"/>
-      <c r="ALQ65" s="66"/>
-      <c r="ALR65" s="66"/>
-      <c r="ALS65" s="66"/>
-      <c r="ALT65" s="66"/>
-      <c r="ALU65" s="66"/>
-      <c r="ALV65" s="66"/>
-      <c r="ALW65" s="66"/>
-      <c r="ALX65" s="66"/>
-      <c r="ALY65" s="66"/>
-      <c r="ALZ65" s="66"/>
-      <c r="AMA65" s="66"/>
-      <c r="AMB65" s="66"/>
-      <c r="AMC65" s="66"/>
-      <c r="AMD65" s="66"/>
-      <c r="AME65" s="66"/>
-      <c r="AMF65" s="66"/>
-      <c r="AMG65" s="66"/>
-      <c r="AMH65" s="66"/>
-      <c r="AMI65" s="66"/>
-      <c r="AMJ65" s="66"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="65"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="65"/>
+      <c r="N65" s="65"/>
+      <c r="O65" s="65"/>
+      <c r="P65" s="65"/>
+      <c r="Q65" s="65"/>
+      <c r="R65" s="65"/>
+      <c r="S65" s="65"/>
+      <c r="T65" s="65"/>
+      <c r="U65" s="65"/>
+      <c r="V65" s="65"/>
+      <c r="W65" s="65"/>
+      <c r="X65" s="65"/>
+      <c r="Y65" s="65"/>
+      <c r="Z65" s="65"/>
+      <c r="AA65" s="65"/>
+      <c r="AB65" s="65"/>
+      <c r="AC65" s="65"/>
+      <c r="AD65" s="65"/>
+      <c r="AE65" s="65"/>
+      <c r="AF65" s="65"/>
+      <c r="AG65" s="65"/>
+      <c r="AH65" s="65"/>
+      <c r="AI65" s="65"/>
+      <c r="AJ65" s="65"/>
+      <c r="AK65" s="65"/>
+      <c r="AL65" s="65"/>
+      <c r="AM65" s="65"/>
+      <c r="AN65" s="65"/>
+      <c r="AO65" s="65"/>
+      <c r="AP65" s="65"/>
+      <c r="AQ65" s="65"/>
+      <c r="AR65" s="65"/>
+      <c r="AS65" s="65"/>
+      <c r="AT65" s="65"/>
+      <c r="AU65" s="65"/>
+      <c r="AV65" s="65"/>
+      <c r="AW65" s="65"/>
+      <c r="AX65" s="65"/>
+      <c r="AY65" s="65"/>
+      <c r="AZ65" s="65"/>
+      <c r="BA65" s="65"/>
+      <c r="BB65" s="65"/>
+      <c r="BC65" s="65"/>
+      <c r="BD65" s="65"/>
+      <c r="BE65" s="65"/>
+      <c r="BF65" s="65"/>
+      <c r="BG65" s="65"/>
+      <c r="BH65" s="65"/>
+      <c r="BI65" s="65"/>
+      <c r="BJ65" s="65"/>
+      <c r="BK65" s="65"/>
+      <c r="BL65" s="65"/>
+      <c r="BM65" s="65"/>
+      <c r="BN65" s="65"/>
+      <c r="BO65" s="65"/>
+      <c r="BP65" s="65"/>
+      <c r="BQ65" s="65"/>
+      <c r="BR65" s="65"/>
+      <c r="BS65" s="65"/>
+      <c r="BT65" s="65"/>
+      <c r="BU65" s="65"/>
+      <c r="BV65" s="65"/>
+      <c r="BW65" s="65"/>
+      <c r="BX65" s="65"/>
+      <c r="BY65" s="65"/>
+      <c r="BZ65" s="65"/>
+      <c r="CA65" s="65"/>
+      <c r="CB65" s="65"/>
+      <c r="CC65" s="65"/>
+      <c r="CD65" s="65"/>
+      <c r="CE65" s="65"/>
+      <c r="CF65" s="65"/>
+      <c r="CG65" s="65"/>
+      <c r="CH65" s="65"/>
+      <c r="CI65" s="65"/>
+      <c r="CJ65" s="65"/>
+      <c r="CK65" s="65"/>
+      <c r="CL65" s="65"/>
+      <c r="CM65" s="65"/>
+      <c r="CN65" s="65"/>
+      <c r="CO65" s="65"/>
+      <c r="CP65" s="65"/>
+      <c r="CQ65" s="65"/>
+      <c r="CR65" s="65"/>
+      <c r="CS65" s="65"/>
+      <c r="CT65" s="65"/>
+      <c r="CU65" s="65"/>
+      <c r="CV65" s="65"/>
+      <c r="CW65" s="65"/>
+      <c r="CX65" s="65"/>
+      <c r="CY65" s="65"/>
+      <c r="CZ65" s="65"/>
+      <c r="DA65" s="65"/>
+      <c r="DB65" s="65"/>
+      <c r="DC65" s="65"/>
+      <c r="DD65" s="65"/>
+      <c r="DE65" s="65"/>
+      <c r="DF65" s="65"/>
+      <c r="DG65" s="65"/>
+      <c r="DH65" s="65"/>
+      <c r="DI65" s="65"/>
+      <c r="DJ65" s="65"/>
+      <c r="DK65" s="65"/>
+      <c r="DL65" s="65"/>
+      <c r="DM65" s="65"/>
+      <c r="DN65" s="65"/>
+      <c r="DO65" s="65"/>
+      <c r="DP65" s="65"/>
+      <c r="DQ65" s="65"/>
+      <c r="DR65" s="65"/>
+      <c r="DS65" s="65"/>
+      <c r="DT65" s="65"/>
+      <c r="DU65" s="65"/>
+      <c r="DV65" s="65"/>
+      <c r="DW65" s="65"/>
+      <c r="DX65" s="65"/>
+      <c r="DY65" s="65"/>
+      <c r="DZ65" s="65"/>
+      <c r="EA65" s="65"/>
+      <c r="EB65" s="65"/>
+      <c r="EC65" s="65"/>
+      <c r="ED65" s="65"/>
+      <c r="EE65" s="65"/>
+      <c r="EF65" s="65"/>
+      <c r="EG65" s="65"/>
+      <c r="EH65" s="65"/>
+      <c r="EI65" s="65"/>
+      <c r="EJ65" s="65"/>
+      <c r="EK65" s="65"/>
+      <c r="EL65" s="65"/>
+      <c r="EM65" s="65"/>
+      <c r="EN65" s="65"/>
+      <c r="EO65" s="65"/>
+      <c r="EP65" s="65"/>
+      <c r="EQ65" s="65"/>
+      <c r="ER65" s="65"/>
+      <c r="ES65" s="65"/>
+      <c r="ET65" s="65"/>
+      <c r="EU65" s="65"/>
+      <c r="EV65" s="65"/>
+      <c r="EW65" s="65"/>
+      <c r="EX65" s="65"/>
+      <c r="EY65" s="65"/>
+      <c r="EZ65" s="65"/>
+      <c r="FA65" s="65"/>
+      <c r="FB65" s="65"/>
+      <c r="FC65" s="65"/>
+      <c r="FD65" s="65"/>
+      <c r="FE65" s="65"/>
+      <c r="FF65" s="65"/>
+      <c r="FG65" s="65"/>
+      <c r="FH65" s="65"/>
+      <c r="FI65" s="65"/>
+      <c r="FJ65" s="65"/>
+      <c r="FK65" s="65"/>
+      <c r="FL65" s="65"/>
+      <c r="FM65" s="65"/>
+      <c r="FN65" s="65"/>
+      <c r="FO65" s="65"/>
+      <c r="FP65" s="65"/>
+      <c r="FQ65" s="65"/>
+      <c r="FR65" s="65"/>
+      <c r="FS65" s="65"/>
+      <c r="FT65" s="65"/>
+      <c r="FU65" s="65"/>
+      <c r="FV65" s="65"/>
+      <c r="FW65" s="65"/>
+      <c r="FX65" s="65"/>
+      <c r="FY65" s="65"/>
+      <c r="FZ65" s="65"/>
+      <c r="GA65" s="65"/>
+      <c r="GB65" s="65"/>
+      <c r="GC65" s="65"/>
+      <c r="GD65" s="65"/>
+      <c r="GE65" s="65"/>
+      <c r="GF65" s="65"/>
+      <c r="GG65" s="65"/>
+      <c r="GH65" s="65"/>
+      <c r="GI65" s="65"/>
+      <c r="GJ65" s="65"/>
+      <c r="GK65" s="65"/>
+      <c r="GL65" s="65"/>
+      <c r="GM65" s="65"/>
+      <c r="GN65" s="65"/>
+      <c r="GO65" s="65"/>
+      <c r="GP65" s="65"/>
+      <c r="GQ65" s="65"/>
+      <c r="GR65" s="65"/>
+      <c r="GS65" s="65"/>
+      <c r="GT65" s="65"/>
+      <c r="GU65" s="65"/>
+      <c r="GV65" s="65"/>
+      <c r="GW65" s="65"/>
+      <c r="GX65" s="65"/>
+      <c r="GY65" s="65"/>
+      <c r="GZ65" s="65"/>
+      <c r="HA65" s="65"/>
+      <c r="HB65" s="65"/>
+      <c r="HC65" s="65"/>
+      <c r="HD65" s="65"/>
+      <c r="HE65" s="65"/>
+      <c r="HF65" s="65"/>
+      <c r="HG65" s="65"/>
+      <c r="HH65" s="65"/>
+      <c r="HI65" s="65"/>
+      <c r="HJ65" s="65"/>
+      <c r="HK65" s="65"/>
+      <c r="HL65" s="65"/>
+      <c r="HM65" s="65"/>
+      <c r="HN65" s="65"/>
+      <c r="HO65" s="65"/>
+      <c r="HP65" s="65"/>
+      <c r="HQ65" s="65"/>
+      <c r="HR65" s="65"/>
+      <c r="HS65" s="65"/>
+      <c r="HT65" s="65"/>
+      <c r="HU65" s="65"/>
+      <c r="HV65" s="65"/>
+      <c r="HW65" s="65"/>
+      <c r="HX65" s="65"/>
+      <c r="HY65" s="65"/>
+      <c r="HZ65" s="65"/>
+      <c r="IA65" s="65"/>
+      <c r="IB65" s="65"/>
+      <c r="IC65" s="65"/>
+      <c r="ID65" s="65"/>
+      <c r="IE65" s="65"/>
+      <c r="IF65" s="65"/>
+      <c r="IG65" s="65"/>
+      <c r="IH65" s="65"/>
+      <c r="II65" s="65"/>
+      <c r="IJ65" s="65"/>
+      <c r="IK65" s="65"/>
+      <c r="IL65" s="65"/>
+      <c r="IM65" s="65"/>
+      <c r="IN65" s="65"/>
+      <c r="IO65" s="65"/>
+      <c r="IP65" s="65"/>
+      <c r="IQ65" s="65"/>
+      <c r="IR65" s="65"/>
+      <c r="IS65" s="65"/>
+      <c r="IT65" s="65"/>
+      <c r="IU65" s="65"/>
+      <c r="IV65" s="65"/>
+      <c r="IW65" s="65"/>
+      <c r="IX65" s="65"/>
+      <c r="IY65" s="65"/>
+      <c r="IZ65" s="65"/>
+      <c r="JA65" s="65"/>
+      <c r="JB65" s="65"/>
+      <c r="JC65" s="65"/>
+      <c r="JD65" s="65"/>
+      <c r="JE65" s="65"/>
+      <c r="JF65" s="65"/>
+      <c r="JG65" s="65"/>
+      <c r="JH65" s="65"/>
+      <c r="JI65" s="65"/>
+      <c r="JJ65" s="65"/>
+      <c r="JK65" s="65"/>
+      <c r="JL65" s="65"/>
+      <c r="JM65" s="65"/>
+      <c r="JN65" s="65"/>
+      <c r="JO65" s="65"/>
+      <c r="JP65" s="65"/>
+      <c r="JQ65" s="65"/>
+      <c r="JR65" s="65"/>
+      <c r="JS65" s="65"/>
+      <c r="JT65" s="65"/>
+      <c r="JU65" s="65"/>
+      <c r="JV65" s="65"/>
+      <c r="JW65" s="65"/>
+      <c r="JX65" s="65"/>
+      <c r="JY65" s="65"/>
+      <c r="JZ65" s="65"/>
+      <c r="KA65" s="65"/>
+      <c r="KB65" s="65"/>
+      <c r="KC65" s="65"/>
+      <c r="KD65" s="65"/>
+      <c r="KE65" s="65"/>
+      <c r="KF65" s="65"/>
+      <c r="KG65" s="65"/>
+      <c r="KH65" s="65"/>
+      <c r="KI65" s="65"/>
+      <c r="KJ65" s="65"/>
+      <c r="KK65" s="65"/>
+      <c r="KL65" s="65"/>
+      <c r="KM65" s="65"/>
+      <c r="KN65" s="65"/>
+      <c r="KO65" s="65"/>
+      <c r="KP65" s="65"/>
+      <c r="KQ65" s="65"/>
+      <c r="KR65" s="65"/>
+      <c r="KS65" s="65"/>
+      <c r="KT65" s="65"/>
+      <c r="KU65" s="65"/>
+      <c r="KV65" s="65"/>
+      <c r="KW65" s="65"/>
+      <c r="KX65" s="65"/>
+      <c r="KY65" s="65"/>
+      <c r="KZ65" s="65"/>
+      <c r="LA65" s="65"/>
+      <c r="LB65" s="65"/>
+      <c r="LC65" s="65"/>
+      <c r="LD65" s="65"/>
+      <c r="LE65" s="65"/>
+      <c r="LF65" s="65"/>
+      <c r="LG65" s="65"/>
+      <c r="LH65" s="65"/>
+      <c r="LI65" s="65"/>
+      <c r="LJ65" s="65"/>
+      <c r="LK65" s="65"/>
+      <c r="LL65" s="65"/>
+      <c r="LM65" s="65"/>
+      <c r="LN65" s="65"/>
+      <c r="LO65" s="65"/>
+      <c r="LP65" s="65"/>
+      <c r="LQ65" s="65"/>
+      <c r="LR65" s="65"/>
+      <c r="LS65" s="65"/>
+      <c r="LT65" s="65"/>
+      <c r="LU65" s="65"/>
+      <c r="LV65" s="65"/>
+      <c r="LW65" s="65"/>
+      <c r="LX65" s="65"/>
+      <c r="LY65" s="65"/>
+      <c r="LZ65" s="65"/>
+      <c r="MA65" s="65"/>
+      <c r="MB65" s="65"/>
+      <c r="MC65" s="65"/>
+      <c r="MD65" s="65"/>
+      <c r="ME65" s="65"/>
+      <c r="MF65" s="65"/>
+      <c r="MG65" s="65"/>
+      <c r="MH65" s="65"/>
+      <c r="MI65" s="65"/>
+      <c r="MJ65" s="65"/>
+      <c r="MK65" s="65"/>
+      <c r="ML65" s="65"/>
+      <c r="MM65" s="65"/>
+      <c r="MN65" s="65"/>
+      <c r="MO65" s="65"/>
+      <c r="MP65" s="65"/>
+      <c r="MQ65" s="65"/>
+      <c r="MR65" s="65"/>
+      <c r="MS65" s="65"/>
+      <c r="MT65" s="65"/>
+      <c r="MU65" s="65"/>
+      <c r="MV65" s="65"/>
+      <c r="MW65" s="65"/>
+      <c r="MX65" s="65"/>
+      <c r="MY65" s="65"/>
+      <c r="MZ65" s="65"/>
+      <c r="NA65" s="65"/>
+      <c r="NB65" s="65"/>
+      <c r="NC65" s="65"/>
+      <c r="ND65" s="65"/>
+      <c r="NE65" s="65"/>
+      <c r="NF65" s="65"/>
+      <c r="NG65" s="65"/>
+      <c r="NH65" s="65"/>
+      <c r="NI65" s="65"/>
+      <c r="NJ65" s="65"/>
+      <c r="NK65" s="65"/>
+      <c r="NL65" s="65"/>
+      <c r="NM65" s="65"/>
+      <c r="NN65" s="65"/>
+      <c r="NO65" s="65"/>
+      <c r="NP65" s="65"/>
+      <c r="NQ65" s="65"/>
+      <c r="NR65" s="65"/>
+      <c r="NS65" s="65"/>
+      <c r="NT65" s="65"/>
+      <c r="NU65" s="65"/>
+      <c r="NV65" s="65"/>
+      <c r="NW65" s="65"/>
+      <c r="NX65" s="65"/>
+      <c r="NY65" s="65"/>
+      <c r="NZ65" s="65"/>
+      <c r="OA65" s="65"/>
+      <c r="OB65" s="65"/>
+      <c r="OC65" s="65"/>
+      <c r="OD65" s="65"/>
+      <c r="OE65" s="65"/>
+      <c r="OF65" s="65"/>
+      <c r="OG65" s="65"/>
+      <c r="OH65" s="65"/>
+      <c r="OI65" s="65"/>
+      <c r="OJ65" s="65"/>
+      <c r="OK65" s="65"/>
+      <c r="OL65" s="65"/>
+      <c r="OM65" s="65"/>
+      <c r="ON65" s="65"/>
+      <c r="OO65" s="65"/>
+      <c r="OP65" s="65"/>
+      <c r="OQ65" s="65"/>
+      <c r="OR65" s="65"/>
+      <c r="OS65" s="65"/>
+      <c r="OT65" s="65"/>
+      <c r="OU65" s="65"/>
+      <c r="OV65" s="65"/>
+      <c r="OW65" s="65"/>
+      <c r="OX65" s="65"/>
+      <c r="OY65" s="65"/>
+      <c r="OZ65" s="65"/>
+      <c r="PA65" s="65"/>
+      <c r="PB65" s="65"/>
+      <c r="PC65" s="65"/>
+      <c r="PD65" s="65"/>
+      <c r="PE65" s="65"/>
+      <c r="PF65" s="65"/>
+      <c r="PG65" s="65"/>
+      <c r="PH65" s="65"/>
+      <c r="PI65" s="65"/>
+      <c r="PJ65" s="65"/>
+      <c r="PK65" s="65"/>
+      <c r="PL65" s="65"/>
+      <c r="PM65" s="65"/>
+      <c r="PN65" s="65"/>
+      <c r="PO65" s="65"/>
+      <c r="PP65" s="65"/>
+      <c r="PQ65" s="65"/>
+      <c r="PR65" s="65"/>
+      <c r="PS65" s="65"/>
+      <c r="PT65" s="65"/>
+      <c r="PU65" s="65"/>
+      <c r="PV65" s="65"/>
+      <c r="PW65" s="65"/>
+      <c r="PX65" s="65"/>
+      <c r="PY65" s="65"/>
+      <c r="PZ65" s="65"/>
+      <c r="QA65" s="65"/>
+      <c r="QB65" s="65"/>
+      <c r="QC65" s="65"/>
+      <c r="QD65" s="65"/>
+      <c r="QE65" s="65"/>
+      <c r="QF65" s="65"/>
+      <c r="QG65" s="65"/>
+      <c r="QH65" s="65"/>
+      <c r="QI65" s="65"/>
+      <c r="QJ65" s="65"/>
+      <c r="QK65" s="65"/>
+      <c r="QL65" s="65"/>
+      <c r="QM65" s="65"/>
+      <c r="QN65" s="65"/>
+      <c r="QO65" s="65"/>
+      <c r="QP65" s="65"/>
+      <c r="QQ65" s="65"/>
+      <c r="QR65" s="65"/>
+      <c r="QS65" s="65"/>
+      <c r="QT65" s="65"/>
+      <c r="QU65" s="65"/>
+      <c r="QV65" s="65"/>
+      <c r="QW65" s="65"/>
+      <c r="QX65" s="65"/>
+      <c r="QY65" s="65"/>
+      <c r="QZ65" s="65"/>
+      <c r="RA65" s="65"/>
+      <c r="RB65" s="65"/>
+      <c r="RC65" s="65"/>
+      <c r="RD65" s="65"/>
+      <c r="RE65" s="65"/>
+      <c r="RF65" s="65"/>
+      <c r="RG65" s="65"/>
+      <c r="RH65" s="65"/>
+      <c r="RI65" s="65"/>
+      <c r="RJ65" s="65"/>
+      <c r="RK65" s="65"/>
+      <c r="RL65" s="65"/>
+      <c r="RM65" s="65"/>
+      <c r="RN65" s="65"/>
+      <c r="RO65" s="65"/>
+      <c r="RP65" s="65"/>
+      <c r="RQ65" s="65"/>
+      <c r="RR65" s="65"/>
+      <c r="RS65" s="65"/>
+      <c r="RT65" s="65"/>
+      <c r="RU65" s="65"/>
+      <c r="RV65" s="65"/>
+      <c r="RW65" s="65"/>
+      <c r="RX65" s="65"/>
+      <c r="RY65" s="65"/>
+      <c r="RZ65" s="65"/>
+      <c r="SA65" s="65"/>
+      <c r="SB65" s="65"/>
+      <c r="SC65" s="65"/>
+      <c r="SD65" s="65"/>
+      <c r="SE65" s="65"/>
+      <c r="SF65" s="65"/>
+      <c r="SG65" s="65"/>
+      <c r="SH65" s="65"/>
+      <c r="SI65" s="65"/>
+      <c r="SJ65" s="65"/>
+      <c r="SK65" s="65"/>
+      <c r="SL65" s="65"/>
+      <c r="SM65" s="65"/>
+      <c r="SN65" s="65"/>
+      <c r="SO65" s="65"/>
+      <c r="SP65" s="65"/>
+      <c r="SQ65" s="65"/>
+      <c r="SR65" s="65"/>
+      <c r="SS65" s="65"/>
+      <c r="ST65" s="65"/>
+      <c r="SU65" s="65"/>
+      <c r="SV65" s="65"/>
+      <c r="SW65" s="65"/>
+      <c r="SX65" s="65"/>
+      <c r="SY65" s="65"/>
+      <c r="SZ65" s="65"/>
+      <c r="TA65" s="65"/>
+      <c r="TB65" s="65"/>
+      <c r="TC65" s="65"/>
+      <c r="TD65" s="65"/>
+      <c r="TE65" s="65"/>
+      <c r="TF65" s="65"/>
+      <c r="TG65" s="65"/>
+      <c r="TH65" s="65"/>
+      <c r="TI65" s="65"/>
+      <c r="TJ65" s="65"/>
+      <c r="TK65" s="65"/>
+      <c r="TL65" s="65"/>
+      <c r="TM65" s="65"/>
+      <c r="TN65" s="65"/>
+      <c r="TO65" s="65"/>
+      <c r="TP65" s="65"/>
+      <c r="TQ65" s="65"/>
+      <c r="TR65" s="65"/>
+      <c r="TS65" s="65"/>
+      <c r="TT65" s="65"/>
+      <c r="TU65" s="65"/>
+      <c r="TV65" s="65"/>
+      <c r="TW65" s="65"/>
+      <c r="TX65" s="65"/>
+      <c r="TY65" s="65"/>
+      <c r="TZ65" s="65"/>
+      <c r="UA65" s="65"/>
+      <c r="UB65" s="65"/>
+      <c r="UC65" s="65"/>
+      <c r="UD65" s="65"/>
+      <c r="UE65" s="65"/>
+      <c r="UF65" s="65"/>
+      <c r="UG65" s="65"/>
+      <c r="UH65" s="65"/>
+      <c r="UI65" s="65"/>
+      <c r="UJ65" s="65"/>
+      <c r="UK65" s="65"/>
+      <c r="UL65" s="65"/>
+      <c r="UM65" s="65"/>
+      <c r="UN65" s="65"/>
+      <c r="UO65" s="65"/>
+      <c r="UP65" s="65"/>
+      <c r="UQ65" s="65"/>
+      <c r="UR65" s="65"/>
+      <c r="US65" s="65"/>
+      <c r="UT65" s="65"/>
+      <c r="UU65" s="65"/>
+      <c r="UV65" s="65"/>
+      <c r="UW65" s="65"/>
+      <c r="UX65" s="65"/>
+      <c r="UY65" s="65"/>
+      <c r="UZ65" s="65"/>
+      <c r="VA65" s="65"/>
+      <c r="VB65" s="65"/>
+      <c r="VC65" s="65"/>
+      <c r="VD65" s="65"/>
+      <c r="VE65" s="65"/>
+      <c r="VF65" s="65"/>
+      <c r="VG65" s="65"/>
+      <c r="VH65" s="65"/>
+      <c r="VI65" s="65"/>
+      <c r="VJ65" s="65"/>
+      <c r="VK65" s="65"/>
+      <c r="VL65" s="65"/>
+      <c r="VM65" s="65"/>
+      <c r="VN65" s="65"/>
+      <c r="VO65" s="65"/>
+      <c r="VP65" s="65"/>
+      <c r="VQ65" s="65"/>
+      <c r="VR65" s="65"/>
+      <c r="VS65" s="65"/>
+      <c r="VT65" s="65"/>
+      <c r="VU65" s="65"/>
+      <c r="VV65" s="65"/>
+      <c r="VW65" s="65"/>
+      <c r="VX65" s="65"/>
+      <c r="VY65" s="65"/>
+      <c r="VZ65" s="65"/>
+      <c r="WA65" s="65"/>
+      <c r="WB65" s="65"/>
+      <c r="WC65" s="65"/>
+      <c r="WD65" s="65"/>
+      <c r="WE65" s="65"/>
+      <c r="WF65" s="65"/>
+      <c r="WG65" s="65"/>
+      <c r="WH65" s="65"/>
+      <c r="WI65" s="65"/>
+      <c r="WJ65" s="65"/>
+      <c r="WK65" s="65"/>
+      <c r="WL65" s="65"/>
+      <c r="WM65" s="65"/>
+      <c r="WN65" s="65"/>
+      <c r="WO65" s="65"/>
+      <c r="WP65" s="65"/>
+      <c r="WQ65" s="65"/>
+      <c r="WR65" s="65"/>
+      <c r="WS65" s="65"/>
+      <c r="WT65" s="65"/>
+      <c r="WU65" s="65"/>
+      <c r="WV65" s="65"/>
+      <c r="WW65" s="65"/>
+      <c r="WX65" s="65"/>
+      <c r="WY65" s="65"/>
+      <c r="WZ65" s="65"/>
+      <c r="XA65" s="65"/>
+      <c r="XB65" s="65"/>
+      <c r="XC65" s="65"/>
+      <c r="XD65" s="65"/>
+      <c r="XE65" s="65"/>
+      <c r="XF65" s="65"/>
+      <c r="XG65" s="65"/>
+      <c r="XH65" s="65"/>
+      <c r="XI65" s="65"/>
+      <c r="XJ65" s="65"/>
+      <c r="XK65" s="65"/>
+      <c r="XL65" s="65"/>
+      <c r="XM65" s="65"/>
+      <c r="XN65" s="65"/>
+      <c r="XO65" s="65"/>
+      <c r="XP65" s="65"/>
+      <c r="XQ65" s="65"/>
+      <c r="XR65" s="65"/>
+      <c r="XS65" s="65"/>
+      <c r="XT65" s="65"/>
+      <c r="XU65" s="65"/>
+      <c r="XV65" s="65"/>
+      <c r="XW65" s="65"/>
+      <c r="XX65" s="65"/>
+      <c r="XY65" s="65"/>
+      <c r="XZ65" s="65"/>
+      <c r="YA65" s="65"/>
+      <c r="YB65" s="65"/>
+      <c r="YC65" s="65"/>
+      <c r="YD65" s="65"/>
+      <c r="YE65" s="65"/>
+      <c r="YF65" s="65"/>
+      <c r="YG65" s="65"/>
+      <c r="YH65" s="65"/>
+      <c r="YI65" s="65"/>
+      <c r="YJ65" s="65"/>
+      <c r="YK65" s="65"/>
+      <c r="YL65" s="65"/>
+      <c r="YM65" s="65"/>
+      <c r="YN65" s="65"/>
+      <c r="YO65" s="65"/>
+      <c r="YP65" s="65"/>
+      <c r="YQ65" s="65"/>
+      <c r="YR65" s="65"/>
+      <c r="YS65" s="65"/>
+      <c r="YT65" s="65"/>
+      <c r="YU65" s="65"/>
+      <c r="YV65" s="65"/>
+      <c r="YW65" s="65"/>
+      <c r="YX65" s="65"/>
+      <c r="YY65" s="65"/>
+      <c r="YZ65" s="65"/>
+      <c r="ZA65" s="65"/>
+      <c r="ZB65" s="65"/>
+      <c r="ZC65" s="65"/>
+      <c r="ZD65" s="65"/>
+      <c r="ZE65" s="65"/>
+      <c r="ZF65" s="65"/>
+      <c r="ZG65" s="65"/>
+      <c r="ZH65" s="65"/>
+      <c r="ZI65" s="65"/>
+      <c r="ZJ65" s="65"/>
+      <c r="ZK65" s="65"/>
+      <c r="ZL65" s="65"/>
+      <c r="ZM65" s="65"/>
+      <c r="ZN65" s="65"/>
+      <c r="ZO65" s="65"/>
+      <c r="ZP65" s="65"/>
+      <c r="ZQ65" s="65"/>
+      <c r="ZR65" s="65"/>
+      <c r="ZS65" s="65"/>
+      <c r="ZT65" s="65"/>
+      <c r="ZU65" s="65"/>
+      <c r="ZV65" s="65"/>
+      <c r="ZW65" s="65"/>
+      <c r="ZX65" s="65"/>
+      <c r="ZY65" s="65"/>
+      <c r="ZZ65" s="65"/>
+      <c r="AAA65" s="65"/>
+      <c r="AAB65" s="65"/>
+      <c r="AAC65" s="65"/>
+      <c r="AAD65" s="65"/>
+      <c r="AAE65" s="65"/>
+      <c r="AAF65" s="65"/>
+      <c r="AAG65" s="65"/>
+      <c r="AAH65" s="65"/>
+      <c r="AAI65" s="65"/>
+      <c r="AAJ65" s="65"/>
+      <c r="AAK65" s="65"/>
+      <c r="AAL65" s="65"/>
+      <c r="AAM65" s="65"/>
+      <c r="AAN65" s="65"/>
+      <c r="AAO65" s="65"/>
+      <c r="AAP65" s="65"/>
+      <c r="AAQ65" s="65"/>
+      <c r="AAR65" s="65"/>
+      <c r="AAS65" s="65"/>
+      <c r="AAT65" s="65"/>
+      <c r="AAU65" s="65"/>
+      <c r="AAV65" s="65"/>
+      <c r="AAW65" s="65"/>
+      <c r="AAX65" s="65"/>
+      <c r="AAY65" s="65"/>
+      <c r="AAZ65" s="65"/>
+      <c r="ABA65" s="65"/>
+      <c r="ABB65" s="65"/>
+      <c r="ABC65" s="65"/>
+      <c r="ABD65" s="65"/>
+      <c r="ABE65" s="65"/>
+      <c r="ABF65" s="65"/>
+      <c r="ABG65" s="65"/>
+      <c r="ABH65" s="65"/>
+      <c r="ABI65" s="65"/>
+      <c r="ABJ65" s="65"/>
+      <c r="ABK65" s="65"/>
+      <c r="ABL65" s="65"/>
+      <c r="ABM65" s="65"/>
+      <c r="ABN65" s="65"/>
+      <c r="ABO65" s="65"/>
+      <c r="ABP65" s="65"/>
+      <c r="ABQ65" s="65"/>
+      <c r="ABR65" s="65"/>
+      <c r="ABS65" s="65"/>
+      <c r="ABT65" s="65"/>
+      <c r="ABU65" s="65"/>
+      <c r="ABV65" s="65"/>
+      <c r="ABW65" s="65"/>
+      <c r="ABX65" s="65"/>
+      <c r="ABY65" s="65"/>
+      <c r="ABZ65" s="65"/>
+      <c r="ACA65" s="65"/>
+      <c r="ACB65" s="65"/>
+      <c r="ACC65" s="65"/>
+      <c r="ACD65" s="65"/>
+      <c r="ACE65" s="65"/>
+      <c r="ACF65" s="65"/>
+      <c r="ACG65" s="65"/>
+      <c r="ACH65" s="65"/>
+      <c r="ACI65" s="65"/>
+      <c r="ACJ65" s="65"/>
+      <c r="ACK65" s="65"/>
+      <c r="ACL65" s="65"/>
+      <c r="ACM65" s="65"/>
+      <c r="ACN65" s="65"/>
+      <c r="ACO65" s="65"/>
+      <c r="ACP65" s="65"/>
+      <c r="ACQ65" s="65"/>
+      <c r="ACR65" s="65"/>
+      <c r="ACS65" s="65"/>
+      <c r="ACT65" s="65"/>
+      <c r="ACU65" s="65"/>
+      <c r="ACV65" s="65"/>
+      <c r="ACW65" s="65"/>
+      <c r="ACX65" s="65"/>
+      <c r="ACY65" s="65"/>
+      <c r="ACZ65" s="65"/>
+      <c r="ADA65" s="65"/>
+      <c r="ADB65" s="65"/>
+      <c r="ADC65" s="65"/>
+      <c r="ADD65" s="65"/>
+      <c r="ADE65" s="65"/>
+      <c r="ADF65" s="65"/>
+      <c r="ADG65" s="65"/>
+      <c r="ADH65" s="65"/>
+      <c r="ADI65" s="65"/>
+      <c r="ADJ65" s="65"/>
+      <c r="ADK65" s="65"/>
+      <c r="ADL65" s="65"/>
+      <c r="ADM65" s="65"/>
+      <c r="ADN65" s="65"/>
+      <c r="ADO65" s="65"/>
+      <c r="ADP65" s="65"/>
+      <c r="ADQ65" s="65"/>
+      <c r="ADR65" s="65"/>
+      <c r="ADS65" s="65"/>
+      <c r="ADT65" s="65"/>
+      <c r="ADU65" s="65"/>
+      <c r="ADV65" s="65"/>
+      <c r="ADW65" s="65"/>
+      <c r="ADX65" s="65"/>
+      <c r="ADY65" s="65"/>
+      <c r="ADZ65" s="65"/>
+      <c r="AEA65" s="65"/>
+      <c r="AEB65" s="65"/>
+      <c r="AEC65" s="65"/>
+      <c r="AED65" s="65"/>
+      <c r="AEE65" s="65"/>
+      <c r="AEF65" s="65"/>
+      <c r="AEG65" s="65"/>
+      <c r="AEH65" s="65"/>
+      <c r="AEI65" s="65"/>
+      <c r="AEJ65" s="65"/>
+      <c r="AEK65" s="65"/>
+      <c r="AEL65" s="65"/>
+      <c r="AEM65" s="65"/>
+      <c r="AEN65" s="65"/>
+      <c r="AEO65" s="65"/>
+      <c r="AEP65" s="65"/>
+      <c r="AEQ65" s="65"/>
+      <c r="AER65" s="65"/>
+      <c r="AES65" s="65"/>
+      <c r="AET65" s="65"/>
+      <c r="AEU65" s="65"/>
+      <c r="AEV65" s="65"/>
+      <c r="AEW65" s="65"/>
+      <c r="AEX65" s="65"/>
+      <c r="AEY65" s="65"/>
+      <c r="AEZ65" s="65"/>
+      <c r="AFA65" s="65"/>
+      <c r="AFB65" s="65"/>
+      <c r="AFC65" s="65"/>
+      <c r="AFD65" s="65"/>
+      <c r="AFE65" s="65"/>
+      <c r="AFF65" s="65"/>
+      <c r="AFG65" s="65"/>
+      <c r="AFH65" s="65"/>
+      <c r="AFI65" s="65"/>
+      <c r="AFJ65" s="65"/>
+      <c r="AFK65" s="65"/>
+      <c r="AFL65" s="65"/>
+      <c r="AFM65" s="65"/>
+      <c r="AFN65" s="65"/>
+      <c r="AFO65" s="65"/>
+      <c r="AFP65" s="65"/>
+      <c r="AFQ65" s="65"/>
+      <c r="AFR65" s="65"/>
+      <c r="AFS65" s="65"/>
+      <c r="AFT65" s="65"/>
+      <c r="AFU65" s="65"/>
+      <c r="AFV65" s="65"/>
+      <c r="AFW65" s="65"/>
+      <c r="AFX65" s="65"/>
+      <c r="AFY65" s="65"/>
+      <c r="AFZ65" s="65"/>
+      <c r="AGA65" s="65"/>
+      <c r="AGB65" s="65"/>
+      <c r="AGC65" s="65"/>
+      <c r="AGD65" s="65"/>
+      <c r="AGE65" s="65"/>
+      <c r="AGF65" s="65"/>
+      <c r="AGG65" s="65"/>
+      <c r="AGH65" s="65"/>
+      <c r="AGI65" s="65"/>
+      <c r="AGJ65" s="65"/>
+      <c r="AGK65" s="65"/>
+      <c r="AGL65" s="65"/>
+      <c r="AGM65" s="65"/>
+      <c r="AGN65" s="65"/>
+      <c r="AGO65" s="65"/>
+      <c r="AGP65" s="65"/>
+      <c r="AGQ65" s="65"/>
+      <c r="AGR65" s="65"/>
+      <c r="AGS65" s="65"/>
+      <c r="AGT65" s="65"/>
+      <c r="AGU65" s="65"/>
+      <c r="AGV65" s="65"/>
+      <c r="AGW65" s="65"/>
+      <c r="AGX65" s="65"/>
+      <c r="AGY65" s="65"/>
+      <c r="AGZ65" s="65"/>
+      <c r="AHA65" s="65"/>
+      <c r="AHB65" s="65"/>
+      <c r="AHC65" s="65"/>
+      <c r="AHD65" s="65"/>
+      <c r="AHE65" s="65"/>
+      <c r="AHF65" s="65"/>
+      <c r="AHG65" s="65"/>
+      <c r="AHH65" s="65"/>
+      <c r="AHI65" s="65"/>
+      <c r="AHJ65" s="65"/>
+      <c r="AHK65" s="65"/>
+      <c r="AHL65" s="65"/>
+      <c r="AHM65" s="65"/>
+      <c r="AHN65" s="65"/>
+      <c r="AHO65" s="65"/>
+      <c r="AHP65" s="65"/>
+      <c r="AHQ65" s="65"/>
+      <c r="AHR65" s="65"/>
+      <c r="AHS65" s="65"/>
+      <c r="AHT65" s="65"/>
+      <c r="AHU65" s="65"/>
+      <c r="AHV65" s="65"/>
+      <c r="AHW65" s="65"/>
+      <c r="AHX65" s="65"/>
+      <c r="AHY65" s="65"/>
+      <c r="AHZ65" s="65"/>
+      <c r="AIA65" s="65"/>
+      <c r="AIB65" s="65"/>
+      <c r="AIC65" s="65"/>
+      <c r="AID65" s="65"/>
+      <c r="AIE65" s="65"/>
+      <c r="AIF65" s="65"/>
+      <c r="AIG65" s="65"/>
+      <c r="AIH65" s="65"/>
+      <c r="AII65" s="65"/>
+      <c r="AIJ65" s="65"/>
+      <c r="AIK65" s="65"/>
+      <c r="AIL65" s="65"/>
+      <c r="AIM65" s="65"/>
+      <c r="AIN65" s="65"/>
+      <c r="AIO65" s="65"/>
+      <c r="AIP65" s="65"/>
+      <c r="AIQ65" s="65"/>
+      <c r="AIR65" s="65"/>
+      <c r="AIS65" s="65"/>
+      <c r="AIT65" s="65"/>
+      <c r="AIU65" s="65"/>
+      <c r="AIV65" s="65"/>
+      <c r="AIW65" s="65"/>
+      <c r="AIX65" s="65"/>
+      <c r="AIY65" s="65"/>
+      <c r="AIZ65" s="65"/>
+      <c r="AJA65" s="65"/>
+      <c r="AJB65" s="65"/>
+      <c r="AJC65" s="65"/>
+      <c r="AJD65" s="65"/>
+      <c r="AJE65" s="65"/>
+      <c r="AJF65" s="65"/>
+      <c r="AJG65" s="65"/>
+      <c r="AJH65" s="65"/>
+      <c r="AJI65" s="65"/>
+      <c r="AJJ65" s="65"/>
+      <c r="AJK65" s="65"/>
+      <c r="AJL65" s="65"/>
+      <c r="AJM65" s="65"/>
+      <c r="AJN65" s="65"/>
+      <c r="AJO65" s="65"/>
+      <c r="AJP65" s="65"/>
+      <c r="AJQ65" s="65"/>
+      <c r="AJR65" s="65"/>
+      <c r="AJS65" s="65"/>
+      <c r="AJT65" s="65"/>
+      <c r="AJU65" s="65"/>
+      <c r="AJV65" s="65"/>
+      <c r="AJW65" s="65"/>
+      <c r="AJX65" s="65"/>
+      <c r="AJY65" s="65"/>
+      <c r="AJZ65" s="65"/>
+      <c r="AKA65" s="65"/>
+      <c r="AKB65" s="65"/>
+      <c r="AKC65" s="65"/>
+      <c r="AKD65" s="65"/>
+      <c r="AKE65" s="65"/>
+      <c r="AKF65" s="65"/>
+      <c r="AKG65" s="65"/>
+      <c r="AKH65" s="65"/>
+      <c r="AKI65" s="65"/>
+      <c r="AKJ65" s="65"/>
+      <c r="AKK65" s="65"/>
+      <c r="AKL65" s="65"/>
+      <c r="AKM65" s="65"/>
+      <c r="AKN65" s="65"/>
+      <c r="AKO65" s="65"/>
+      <c r="AKP65" s="65"/>
+      <c r="AKQ65" s="65"/>
+      <c r="AKR65" s="65"/>
+      <c r="AKS65" s="65"/>
+      <c r="AKT65" s="65"/>
+      <c r="AKU65" s="65"/>
+      <c r="AKV65" s="65"/>
+      <c r="AKW65" s="65"/>
+      <c r="AKX65" s="65"/>
+      <c r="AKY65" s="65"/>
+      <c r="AKZ65" s="65"/>
+      <c r="ALA65" s="65"/>
+      <c r="ALB65" s="65"/>
+      <c r="ALC65" s="65"/>
+      <c r="ALD65" s="65"/>
+      <c r="ALE65" s="65"/>
+      <c r="ALF65" s="65"/>
+      <c r="ALG65" s="65"/>
+      <c r="ALH65" s="65"/>
+      <c r="ALI65" s="65"/>
+      <c r="ALJ65" s="65"/>
+      <c r="ALK65" s="65"/>
+      <c r="ALL65" s="65"/>
+      <c r="ALM65" s="65"/>
+      <c r="ALN65" s="65"/>
+      <c r="ALO65" s="65"/>
+      <c r="ALP65" s="65"/>
+      <c r="ALQ65" s="65"/>
+      <c r="ALR65" s="65"/>
+      <c r="ALS65" s="65"/>
+      <c r="ALT65" s="65"/>
+      <c r="ALU65" s="65"/>
+      <c r="ALV65" s="65"/>
+      <c r="ALW65" s="65"/>
+      <c r="ALX65" s="65"/>
+      <c r="ALY65" s="65"/>
+      <c r="ALZ65" s="65"/>
+      <c r="AMA65" s="65"/>
+      <c r="AMB65" s="65"/>
+      <c r="AMC65" s="65"/>
+      <c r="AMD65" s="65"/>
+      <c r="AME65" s="65"/>
+      <c r="AMF65" s="65"/>
+      <c r="AMG65" s="65"/>
+      <c r="AMH65" s="65"/>
+      <c r="AMI65" s="65"/>
+      <c r="AMJ65" s="65"/>
     </row>
     <row r="66" s="31" customFormat="true" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
@@ -28788,1044 +28764,1044 @@
       <c r="AMJ66" s="38"/>
     </row>
     <row r="67" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="66"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="66"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="66"/>
-      <c r="S67" s="66"/>
-      <c r="T67" s="66"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="66"/>
-      <c r="W67" s="66"/>
-      <c r="X67" s="66"/>
-      <c r="Y67" s="66"/>
-      <c r="Z67" s="66"/>
-      <c r="AA67" s="66"/>
-      <c r="AB67" s="66"/>
-      <c r="AC67" s="66"/>
-      <c r="AD67" s="66"/>
-      <c r="AE67" s="66"/>
-      <c r="AF67" s="66"/>
-      <c r="AG67" s="66"/>
-      <c r="AH67" s="66"/>
-      <c r="AI67" s="66"/>
-      <c r="AJ67" s="66"/>
-      <c r="AK67" s="66"/>
-      <c r="AL67" s="66"/>
-      <c r="AM67" s="66"/>
-      <c r="AN67" s="66"/>
-      <c r="AO67" s="66"/>
-      <c r="AP67" s="66"/>
-      <c r="AQ67" s="66"/>
-      <c r="AR67" s="66"/>
-      <c r="AS67" s="66"/>
-      <c r="AT67" s="66"/>
-      <c r="AU67" s="66"/>
-      <c r="AV67" s="66"/>
-      <c r="AW67" s="66"/>
-      <c r="AX67" s="66"/>
-      <c r="AY67" s="66"/>
-      <c r="AZ67" s="66"/>
-      <c r="BA67" s="66"/>
-      <c r="BB67" s="66"/>
-      <c r="BC67" s="66"/>
-      <c r="BD67" s="66"/>
-      <c r="BE67" s="66"/>
-      <c r="BF67" s="66"/>
-      <c r="BG67" s="66"/>
-      <c r="BH67" s="66"/>
-      <c r="BI67" s="66"/>
-      <c r="BJ67" s="66"/>
-      <c r="BK67" s="66"/>
-      <c r="BL67" s="66"/>
-      <c r="BM67" s="66"/>
-      <c r="BN67" s="66"/>
-      <c r="BO67" s="66"/>
-      <c r="BP67" s="66"/>
-      <c r="BQ67" s="66"/>
-      <c r="BR67" s="66"/>
-      <c r="BS67" s="66"/>
-      <c r="BT67" s="66"/>
-      <c r="BU67" s="66"/>
-      <c r="BV67" s="66"/>
-      <c r="BW67" s="66"/>
-      <c r="BX67" s="66"/>
-      <c r="BY67" s="66"/>
-      <c r="BZ67" s="66"/>
-      <c r="CA67" s="66"/>
-      <c r="CB67" s="66"/>
-      <c r="CC67" s="66"/>
-      <c r="CD67" s="66"/>
-      <c r="CE67" s="66"/>
-      <c r="CF67" s="66"/>
-      <c r="CG67" s="66"/>
-      <c r="CH67" s="66"/>
-      <c r="CI67" s="66"/>
-      <c r="CJ67" s="66"/>
-      <c r="CK67" s="66"/>
-      <c r="CL67" s="66"/>
-      <c r="CM67" s="66"/>
-      <c r="CN67" s="66"/>
-      <c r="CO67" s="66"/>
-      <c r="CP67" s="66"/>
-      <c r="CQ67" s="66"/>
-      <c r="CR67" s="66"/>
-      <c r="CS67" s="66"/>
-      <c r="CT67" s="66"/>
-      <c r="CU67" s="66"/>
-      <c r="CV67" s="66"/>
-      <c r="CW67" s="66"/>
-      <c r="CX67" s="66"/>
-      <c r="CY67" s="66"/>
-      <c r="CZ67" s="66"/>
-      <c r="DA67" s="66"/>
-      <c r="DB67" s="66"/>
-      <c r="DC67" s="66"/>
-      <c r="DD67" s="66"/>
-      <c r="DE67" s="66"/>
-      <c r="DF67" s="66"/>
-      <c r="DG67" s="66"/>
-      <c r="DH67" s="66"/>
-      <c r="DI67" s="66"/>
-      <c r="DJ67" s="66"/>
-      <c r="DK67" s="66"/>
-      <c r="DL67" s="66"/>
-      <c r="DM67" s="66"/>
-      <c r="DN67" s="66"/>
-      <c r="DO67" s="66"/>
-      <c r="DP67" s="66"/>
-      <c r="DQ67" s="66"/>
-      <c r="DR67" s="66"/>
-      <c r="DS67" s="66"/>
-      <c r="DT67" s="66"/>
-      <c r="DU67" s="66"/>
-      <c r="DV67" s="66"/>
-      <c r="DW67" s="66"/>
-      <c r="DX67" s="66"/>
-      <c r="DY67" s="66"/>
-      <c r="DZ67" s="66"/>
-      <c r="EA67" s="66"/>
-      <c r="EB67" s="66"/>
-      <c r="EC67" s="66"/>
-      <c r="ED67" s="66"/>
-      <c r="EE67" s="66"/>
-      <c r="EF67" s="66"/>
-      <c r="EG67" s="66"/>
-      <c r="EH67" s="66"/>
-      <c r="EI67" s="66"/>
-      <c r="EJ67" s="66"/>
-      <c r="EK67" s="66"/>
-      <c r="EL67" s="66"/>
-      <c r="EM67" s="66"/>
-      <c r="EN67" s="66"/>
-      <c r="EO67" s="66"/>
-      <c r="EP67" s="66"/>
-      <c r="EQ67" s="66"/>
-      <c r="ER67" s="66"/>
-      <c r="ES67" s="66"/>
-      <c r="ET67" s="66"/>
-      <c r="EU67" s="66"/>
-      <c r="EV67" s="66"/>
-      <c r="EW67" s="66"/>
-      <c r="EX67" s="66"/>
-      <c r="EY67" s="66"/>
-      <c r="EZ67" s="66"/>
-      <c r="FA67" s="66"/>
-      <c r="FB67" s="66"/>
-      <c r="FC67" s="66"/>
-      <c r="FD67" s="66"/>
-      <c r="FE67" s="66"/>
-      <c r="FF67" s="66"/>
-      <c r="FG67" s="66"/>
-      <c r="FH67" s="66"/>
-      <c r="FI67" s="66"/>
-      <c r="FJ67" s="66"/>
-      <c r="FK67" s="66"/>
-      <c r="FL67" s="66"/>
-      <c r="FM67" s="66"/>
-      <c r="FN67" s="66"/>
-      <c r="FO67" s="66"/>
-      <c r="FP67" s="66"/>
-      <c r="FQ67" s="66"/>
-      <c r="FR67" s="66"/>
-      <c r="FS67" s="66"/>
-      <c r="FT67" s="66"/>
-      <c r="FU67" s="66"/>
-      <c r="FV67" s="66"/>
-      <c r="FW67" s="66"/>
-      <c r="FX67" s="66"/>
-      <c r="FY67" s="66"/>
-      <c r="FZ67" s="66"/>
-      <c r="GA67" s="66"/>
-      <c r="GB67" s="66"/>
-      <c r="GC67" s="66"/>
-      <c r="GD67" s="66"/>
-      <c r="GE67" s="66"/>
-      <c r="GF67" s="66"/>
-      <c r="GG67" s="66"/>
-      <c r="GH67" s="66"/>
-      <c r="GI67" s="66"/>
-      <c r="GJ67" s="66"/>
-      <c r="GK67" s="66"/>
-      <c r="GL67" s="66"/>
-      <c r="GM67" s="66"/>
-      <c r="GN67" s="66"/>
-      <c r="GO67" s="66"/>
-      <c r="GP67" s="66"/>
-      <c r="GQ67" s="66"/>
-      <c r="GR67" s="66"/>
-      <c r="GS67" s="66"/>
-      <c r="GT67" s="66"/>
-      <c r="GU67" s="66"/>
-      <c r="GV67" s="66"/>
-      <c r="GW67" s="66"/>
-      <c r="GX67" s="66"/>
-      <c r="GY67" s="66"/>
-      <c r="GZ67" s="66"/>
-      <c r="HA67" s="66"/>
-      <c r="HB67" s="66"/>
-      <c r="HC67" s="66"/>
-      <c r="HD67" s="66"/>
-      <c r="HE67" s="66"/>
-      <c r="HF67" s="66"/>
-      <c r="HG67" s="66"/>
-      <c r="HH67" s="66"/>
-      <c r="HI67" s="66"/>
-      <c r="HJ67" s="66"/>
-      <c r="HK67" s="66"/>
-      <c r="HL67" s="66"/>
-      <c r="HM67" s="66"/>
-      <c r="HN67" s="66"/>
-      <c r="HO67" s="66"/>
-      <c r="HP67" s="66"/>
-      <c r="HQ67" s="66"/>
-      <c r="HR67" s="66"/>
-      <c r="HS67" s="66"/>
-      <c r="HT67" s="66"/>
-      <c r="HU67" s="66"/>
-      <c r="HV67" s="66"/>
-      <c r="HW67" s="66"/>
-      <c r="HX67" s="66"/>
-      <c r="HY67" s="66"/>
-      <c r="HZ67" s="66"/>
-      <c r="IA67" s="66"/>
-      <c r="IB67" s="66"/>
-      <c r="IC67" s="66"/>
-      <c r="ID67" s="66"/>
-      <c r="IE67" s="66"/>
-      <c r="IF67" s="66"/>
-      <c r="IG67" s="66"/>
-      <c r="IH67" s="66"/>
-      <c r="II67" s="66"/>
-      <c r="IJ67" s="66"/>
-      <c r="IK67" s="66"/>
-      <c r="IL67" s="66"/>
-      <c r="IM67" s="66"/>
-      <c r="IN67" s="66"/>
-      <c r="IO67" s="66"/>
-      <c r="IP67" s="66"/>
-      <c r="IQ67" s="66"/>
-      <c r="IR67" s="66"/>
-      <c r="IS67" s="66"/>
-      <c r="IT67" s="66"/>
-      <c r="IU67" s="66"/>
-      <c r="IV67" s="66"/>
-      <c r="IW67" s="66"/>
-      <c r="IX67" s="66"/>
-      <c r="IY67" s="66"/>
-      <c r="IZ67" s="66"/>
-      <c r="JA67" s="66"/>
-      <c r="JB67" s="66"/>
-      <c r="JC67" s="66"/>
-      <c r="JD67" s="66"/>
-      <c r="JE67" s="66"/>
-      <c r="JF67" s="66"/>
-      <c r="JG67" s="66"/>
-      <c r="JH67" s="66"/>
-      <c r="JI67" s="66"/>
-      <c r="JJ67" s="66"/>
-      <c r="JK67" s="66"/>
-      <c r="JL67" s="66"/>
-      <c r="JM67" s="66"/>
-      <c r="JN67" s="66"/>
-      <c r="JO67" s="66"/>
-      <c r="JP67" s="66"/>
-      <c r="JQ67" s="66"/>
-      <c r="JR67" s="66"/>
-      <c r="JS67" s="66"/>
-      <c r="JT67" s="66"/>
-      <c r="JU67" s="66"/>
-      <c r="JV67" s="66"/>
-      <c r="JW67" s="66"/>
-      <c r="JX67" s="66"/>
-      <c r="JY67" s="66"/>
-      <c r="JZ67" s="66"/>
-      <c r="KA67" s="66"/>
-      <c r="KB67" s="66"/>
-      <c r="KC67" s="66"/>
-      <c r="KD67" s="66"/>
-      <c r="KE67" s="66"/>
-      <c r="KF67" s="66"/>
-      <c r="KG67" s="66"/>
-      <c r="KH67" s="66"/>
-      <c r="KI67" s="66"/>
-      <c r="KJ67" s="66"/>
-      <c r="KK67" s="66"/>
-      <c r="KL67" s="66"/>
-      <c r="KM67" s="66"/>
-      <c r="KN67" s="66"/>
-      <c r="KO67" s="66"/>
-      <c r="KP67" s="66"/>
-      <c r="KQ67" s="66"/>
-      <c r="KR67" s="66"/>
-      <c r="KS67" s="66"/>
-      <c r="KT67" s="66"/>
-      <c r="KU67" s="66"/>
-      <c r="KV67" s="66"/>
-      <c r="KW67" s="66"/>
-      <c r="KX67" s="66"/>
-      <c r="KY67" s="66"/>
-      <c r="KZ67" s="66"/>
-      <c r="LA67" s="66"/>
-      <c r="LB67" s="66"/>
-      <c r="LC67" s="66"/>
-      <c r="LD67" s="66"/>
-      <c r="LE67" s="66"/>
-      <c r="LF67" s="66"/>
-      <c r="LG67" s="66"/>
-      <c r="LH67" s="66"/>
-      <c r="LI67" s="66"/>
-      <c r="LJ67" s="66"/>
-      <c r="LK67" s="66"/>
-      <c r="LL67" s="66"/>
-      <c r="LM67" s="66"/>
-      <c r="LN67" s="66"/>
-      <c r="LO67" s="66"/>
-      <c r="LP67" s="66"/>
-      <c r="LQ67" s="66"/>
-      <c r="LR67" s="66"/>
-      <c r="LS67" s="66"/>
-      <c r="LT67" s="66"/>
-      <c r="LU67" s="66"/>
-      <c r="LV67" s="66"/>
-      <c r="LW67" s="66"/>
-      <c r="LX67" s="66"/>
-      <c r="LY67" s="66"/>
-      <c r="LZ67" s="66"/>
-      <c r="MA67" s="66"/>
-      <c r="MB67" s="66"/>
-      <c r="MC67" s="66"/>
-      <c r="MD67" s="66"/>
-      <c r="ME67" s="66"/>
-      <c r="MF67" s="66"/>
-      <c r="MG67" s="66"/>
-      <c r="MH67" s="66"/>
-      <c r="MI67" s="66"/>
-      <c r="MJ67" s="66"/>
-      <c r="MK67" s="66"/>
-      <c r="ML67" s="66"/>
-      <c r="MM67" s="66"/>
-      <c r="MN67" s="66"/>
-      <c r="MO67" s="66"/>
-      <c r="MP67" s="66"/>
-      <c r="MQ67" s="66"/>
-      <c r="MR67" s="66"/>
-      <c r="MS67" s="66"/>
-      <c r="MT67" s="66"/>
-      <c r="MU67" s="66"/>
-      <c r="MV67" s="66"/>
-      <c r="MW67" s="66"/>
-      <c r="MX67" s="66"/>
-      <c r="MY67" s="66"/>
-      <c r="MZ67" s="66"/>
-      <c r="NA67" s="66"/>
-      <c r="NB67" s="66"/>
-      <c r="NC67" s="66"/>
-      <c r="ND67" s="66"/>
-      <c r="NE67" s="66"/>
-      <c r="NF67" s="66"/>
-      <c r="NG67" s="66"/>
-      <c r="NH67" s="66"/>
-      <c r="NI67" s="66"/>
-      <c r="NJ67" s="66"/>
-      <c r="NK67" s="66"/>
-      <c r="NL67" s="66"/>
-      <c r="NM67" s="66"/>
-      <c r="NN67" s="66"/>
-      <c r="NO67" s="66"/>
-      <c r="NP67" s="66"/>
-      <c r="NQ67" s="66"/>
-      <c r="NR67" s="66"/>
-      <c r="NS67" s="66"/>
-      <c r="NT67" s="66"/>
-      <c r="NU67" s="66"/>
-      <c r="NV67" s="66"/>
-      <c r="NW67" s="66"/>
-      <c r="NX67" s="66"/>
-      <c r="NY67" s="66"/>
-      <c r="NZ67" s="66"/>
-      <c r="OA67" s="66"/>
-      <c r="OB67" s="66"/>
-      <c r="OC67" s="66"/>
-      <c r="OD67" s="66"/>
-      <c r="OE67" s="66"/>
-      <c r="OF67" s="66"/>
-      <c r="OG67" s="66"/>
-      <c r="OH67" s="66"/>
-      <c r="OI67" s="66"/>
-      <c r="OJ67" s="66"/>
-      <c r="OK67" s="66"/>
-      <c r="OL67" s="66"/>
-      <c r="OM67" s="66"/>
-      <c r="ON67" s="66"/>
-      <c r="OO67" s="66"/>
-      <c r="OP67" s="66"/>
-      <c r="OQ67" s="66"/>
-      <c r="OR67" s="66"/>
-      <c r="OS67" s="66"/>
-      <c r="OT67" s="66"/>
-      <c r="OU67" s="66"/>
-      <c r="OV67" s="66"/>
-      <c r="OW67" s="66"/>
-      <c r="OX67" s="66"/>
-      <c r="OY67" s="66"/>
-      <c r="OZ67" s="66"/>
-      <c r="PA67" s="66"/>
-      <c r="PB67" s="66"/>
-      <c r="PC67" s="66"/>
-      <c r="PD67" s="66"/>
-      <c r="PE67" s="66"/>
-      <c r="PF67" s="66"/>
-      <c r="PG67" s="66"/>
-      <c r="PH67" s="66"/>
-      <c r="PI67" s="66"/>
-      <c r="PJ67" s="66"/>
-      <c r="PK67" s="66"/>
-      <c r="PL67" s="66"/>
-      <c r="PM67" s="66"/>
-      <c r="PN67" s="66"/>
-      <c r="PO67" s="66"/>
-      <c r="PP67" s="66"/>
-      <c r="PQ67" s="66"/>
-      <c r="PR67" s="66"/>
-      <c r="PS67" s="66"/>
-      <c r="PT67" s="66"/>
-      <c r="PU67" s="66"/>
-      <c r="PV67" s="66"/>
-      <c r="PW67" s="66"/>
-      <c r="PX67" s="66"/>
-      <c r="PY67" s="66"/>
-      <c r="PZ67" s="66"/>
-      <c r="QA67" s="66"/>
-      <c r="QB67" s="66"/>
-      <c r="QC67" s="66"/>
-      <c r="QD67" s="66"/>
-      <c r="QE67" s="66"/>
-      <c r="QF67" s="66"/>
-      <c r="QG67" s="66"/>
-      <c r="QH67" s="66"/>
-      <c r="QI67" s="66"/>
-      <c r="QJ67" s="66"/>
-      <c r="QK67" s="66"/>
-      <c r="QL67" s="66"/>
-      <c r="QM67" s="66"/>
-      <c r="QN67" s="66"/>
-      <c r="QO67" s="66"/>
-      <c r="QP67" s="66"/>
-      <c r="QQ67" s="66"/>
-      <c r="QR67" s="66"/>
-      <c r="QS67" s="66"/>
-      <c r="QT67" s="66"/>
-      <c r="QU67" s="66"/>
-      <c r="QV67" s="66"/>
-      <c r="QW67" s="66"/>
-      <c r="QX67" s="66"/>
-      <c r="QY67" s="66"/>
-      <c r="QZ67" s="66"/>
-      <c r="RA67" s="66"/>
-      <c r="RB67" s="66"/>
-      <c r="RC67" s="66"/>
-      <c r="RD67" s="66"/>
-      <c r="RE67" s="66"/>
-      <c r="RF67" s="66"/>
-      <c r="RG67" s="66"/>
-      <c r="RH67" s="66"/>
-      <c r="RI67" s="66"/>
-      <c r="RJ67" s="66"/>
-      <c r="RK67" s="66"/>
-      <c r="RL67" s="66"/>
-      <c r="RM67" s="66"/>
-      <c r="RN67" s="66"/>
-      <c r="RO67" s="66"/>
-      <c r="RP67" s="66"/>
-      <c r="RQ67" s="66"/>
-      <c r="RR67" s="66"/>
-      <c r="RS67" s="66"/>
-      <c r="RT67" s="66"/>
-      <c r="RU67" s="66"/>
-      <c r="RV67" s="66"/>
-      <c r="RW67" s="66"/>
-      <c r="RX67" s="66"/>
-      <c r="RY67" s="66"/>
-      <c r="RZ67" s="66"/>
-      <c r="SA67" s="66"/>
-      <c r="SB67" s="66"/>
-      <c r="SC67" s="66"/>
-      <c r="SD67" s="66"/>
-      <c r="SE67" s="66"/>
-      <c r="SF67" s="66"/>
-      <c r="SG67" s="66"/>
-      <c r="SH67" s="66"/>
-      <c r="SI67" s="66"/>
-      <c r="SJ67" s="66"/>
-      <c r="SK67" s="66"/>
-      <c r="SL67" s="66"/>
-      <c r="SM67" s="66"/>
-      <c r="SN67" s="66"/>
-      <c r="SO67" s="66"/>
-      <c r="SP67" s="66"/>
-      <c r="SQ67" s="66"/>
-      <c r="SR67" s="66"/>
-      <c r="SS67" s="66"/>
-      <c r="ST67" s="66"/>
-      <c r="SU67" s="66"/>
-      <c r="SV67" s="66"/>
-      <c r="SW67" s="66"/>
-      <c r="SX67" s="66"/>
-      <c r="SY67" s="66"/>
-      <c r="SZ67" s="66"/>
-      <c r="TA67" s="66"/>
-      <c r="TB67" s="66"/>
-      <c r="TC67" s="66"/>
-      <c r="TD67" s="66"/>
-      <c r="TE67" s="66"/>
-      <c r="TF67" s="66"/>
-      <c r="TG67" s="66"/>
-      <c r="TH67" s="66"/>
-      <c r="TI67" s="66"/>
-      <c r="TJ67" s="66"/>
-      <c r="TK67" s="66"/>
-      <c r="TL67" s="66"/>
-      <c r="TM67" s="66"/>
-      <c r="TN67" s="66"/>
-      <c r="TO67" s="66"/>
-      <c r="TP67" s="66"/>
-      <c r="TQ67" s="66"/>
-      <c r="TR67" s="66"/>
-      <c r="TS67" s="66"/>
-      <c r="TT67" s="66"/>
-      <c r="TU67" s="66"/>
-      <c r="TV67" s="66"/>
-      <c r="TW67" s="66"/>
-      <c r="TX67" s="66"/>
-      <c r="TY67" s="66"/>
-      <c r="TZ67" s="66"/>
-      <c r="UA67" s="66"/>
-      <c r="UB67" s="66"/>
-      <c r="UC67" s="66"/>
-      <c r="UD67" s="66"/>
-      <c r="UE67" s="66"/>
-      <c r="UF67" s="66"/>
-      <c r="UG67" s="66"/>
-      <c r="UH67" s="66"/>
-      <c r="UI67" s="66"/>
-      <c r="UJ67" s="66"/>
-      <c r="UK67" s="66"/>
-      <c r="UL67" s="66"/>
-      <c r="UM67" s="66"/>
-      <c r="UN67" s="66"/>
-      <c r="UO67" s="66"/>
-      <c r="UP67" s="66"/>
-      <c r="UQ67" s="66"/>
-      <c r="UR67" s="66"/>
-      <c r="US67" s="66"/>
-      <c r="UT67" s="66"/>
-      <c r="UU67" s="66"/>
-      <c r="UV67" s="66"/>
-      <c r="UW67" s="66"/>
-      <c r="UX67" s="66"/>
-      <c r="UY67" s="66"/>
-      <c r="UZ67" s="66"/>
-      <c r="VA67" s="66"/>
-      <c r="VB67" s="66"/>
-      <c r="VC67" s="66"/>
-      <c r="VD67" s="66"/>
-      <c r="VE67" s="66"/>
-      <c r="VF67" s="66"/>
-      <c r="VG67" s="66"/>
-      <c r="VH67" s="66"/>
-      <c r="VI67" s="66"/>
-      <c r="VJ67" s="66"/>
-      <c r="VK67" s="66"/>
-      <c r="VL67" s="66"/>
-      <c r="VM67" s="66"/>
-      <c r="VN67" s="66"/>
-      <c r="VO67" s="66"/>
-      <c r="VP67" s="66"/>
-      <c r="VQ67" s="66"/>
-      <c r="VR67" s="66"/>
-      <c r="VS67" s="66"/>
-      <c r="VT67" s="66"/>
-      <c r="VU67" s="66"/>
-      <c r="VV67" s="66"/>
-      <c r="VW67" s="66"/>
-      <c r="VX67" s="66"/>
-      <c r="VY67" s="66"/>
-      <c r="VZ67" s="66"/>
-      <c r="WA67" s="66"/>
-      <c r="WB67" s="66"/>
-      <c r="WC67" s="66"/>
-      <c r="WD67" s="66"/>
-      <c r="WE67" s="66"/>
-      <c r="WF67" s="66"/>
-      <c r="WG67" s="66"/>
-      <c r="WH67" s="66"/>
-      <c r="WI67" s="66"/>
-      <c r="WJ67" s="66"/>
-      <c r="WK67" s="66"/>
-      <c r="WL67" s="66"/>
-      <c r="WM67" s="66"/>
-      <c r="WN67" s="66"/>
-      <c r="WO67" s="66"/>
-      <c r="WP67" s="66"/>
-      <c r="WQ67" s="66"/>
-      <c r="WR67" s="66"/>
-      <c r="WS67" s="66"/>
-      <c r="WT67" s="66"/>
-      <c r="WU67" s="66"/>
-      <c r="WV67" s="66"/>
-      <c r="WW67" s="66"/>
-      <c r="WX67" s="66"/>
-      <c r="WY67" s="66"/>
-      <c r="WZ67" s="66"/>
-      <c r="XA67" s="66"/>
-      <c r="XB67" s="66"/>
-      <c r="XC67" s="66"/>
-      <c r="XD67" s="66"/>
-      <c r="XE67" s="66"/>
-      <c r="XF67" s="66"/>
-      <c r="XG67" s="66"/>
-      <c r="XH67" s="66"/>
-      <c r="XI67" s="66"/>
-      <c r="XJ67" s="66"/>
-      <c r="XK67" s="66"/>
-      <c r="XL67" s="66"/>
-      <c r="XM67" s="66"/>
-      <c r="XN67" s="66"/>
-      <c r="XO67" s="66"/>
-      <c r="XP67" s="66"/>
-      <c r="XQ67" s="66"/>
-      <c r="XR67" s="66"/>
-      <c r="XS67" s="66"/>
-      <c r="XT67" s="66"/>
-      <c r="XU67" s="66"/>
-      <c r="XV67" s="66"/>
-      <c r="XW67" s="66"/>
-      <c r="XX67" s="66"/>
-      <c r="XY67" s="66"/>
-      <c r="XZ67" s="66"/>
-      <c r="YA67" s="66"/>
-      <c r="YB67" s="66"/>
-      <c r="YC67" s="66"/>
-      <c r="YD67" s="66"/>
-      <c r="YE67" s="66"/>
-      <c r="YF67" s="66"/>
-      <c r="YG67" s="66"/>
-      <c r="YH67" s="66"/>
-      <c r="YI67" s="66"/>
-      <c r="YJ67" s="66"/>
-      <c r="YK67" s="66"/>
-      <c r="YL67" s="66"/>
-      <c r="YM67" s="66"/>
-      <c r="YN67" s="66"/>
-      <c r="YO67" s="66"/>
-      <c r="YP67" s="66"/>
-      <c r="YQ67" s="66"/>
-      <c r="YR67" s="66"/>
-      <c r="YS67" s="66"/>
-      <c r="YT67" s="66"/>
-      <c r="YU67" s="66"/>
-      <c r="YV67" s="66"/>
-      <c r="YW67" s="66"/>
-      <c r="YX67" s="66"/>
-      <c r="YY67" s="66"/>
-      <c r="YZ67" s="66"/>
-      <c r="ZA67" s="66"/>
-      <c r="ZB67" s="66"/>
-      <c r="ZC67" s="66"/>
-      <c r="ZD67" s="66"/>
-      <c r="ZE67" s="66"/>
-      <c r="ZF67" s="66"/>
-      <c r="ZG67" s="66"/>
-      <c r="ZH67" s="66"/>
-      <c r="ZI67" s="66"/>
-      <c r="ZJ67" s="66"/>
-      <c r="ZK67" s="66"/>
-      <c r="ZL67" s="66"/>
-      <c r="ZM67" s="66"/>
-      <c r="ZN67" s="66"/>
-      <c r="ZO67" s="66"/>
-      <c r="ZP67" s="66"/>
-      <c r="ZQ67" s="66"/>
-      <c r="ZR67" s="66"/>
-      <c r="ZS67" s="66"/>
-      <c r="ZT67" s="66"/>
-      <c r="ZU67" s="66"/>
-      <c r="ZV67" s="66"/>
-      <c r="ZW67" s="66"/>
-      <c r="ZX67" s="66"/>
-      <c r="ZY67" s="66"/>
-      <c r="ZZ67" s="66"/>
-      <c r="AAA67" s="66"/>
-      <c r="AAB67" s="66"/>
-      <c r="AAC67" s="66"/>
-      <c r="AAD67" s="66"/>
-      <c r="AAE67" s="66"/>
-      <c r="AAF67" s="66"/>
-      <c r="AAG67" s="66"/>
-      <c r="AAH67" s="66"/>
-      <c r="AAI67" s="66"/>
-      <c r="AAJ67" s="66"/>
-      <c r="AAK67" s="66"/>
-      <c r="AAL67" s="66"/>
-      <c r="AAM67" s="66"/>
-      <c r="AAN67" s="66"/>
-      <c r="AAO67" s="66"/>
-      <c r="AAP67" s="66"/>
-      <c r="AAQ67" s="66"/>
-      <c r="AAR67" s="66"/>
-      <c r="AAS67" s="66"/>
-      <c r="AAT67" s="66"/>
-      <c r="AAU67" s="66"/>
-      <c r="AAV67" s="66"/>
-      <c r="AAW67" s="66"/>
-      <c r="AAX67" s="66"/>
-      <c r="AAY67" s="66"/>
-      <c r="AAZ67" s="66"/>
-      <c r="ABA67" s="66"/>
-      <c r="ABB67" s="66"/>
-      <c r="ABC67" s="66"/>
-      <c r="ABD67" s="66"/>
-      <c r="ABE67" s="66"/>
-      <c r="ABF67" s="66"/>
-      <c r="ABG67" s="66"/>
-      <c r="ABH67" s="66"/>
-      <c r="ABI67" s="66"/>
-      <c r="ABJ67" s="66"/>
-      <c r="ABK67" s="66"/>
-      <c r="ABL67" s="66"/>
-      <c r="ABM67" s="66"/>
-      <c r="ABN67" s="66"/>
-      <c r="ABO67" s="66"/>
-      <c r="ABP67" s="66"/>
-      <c r="ABQ67" s="66"/>
-      <c r="ABR67" s="66"/>
-      <c r="ABS67" s="66"/>
-      <c r="ABT67" s="66"/>
-      <c r="ABU67" s="66"/>
-      <c r="ABV67" s="66"/>
-      <c r="ABW67" s="66"/>
-      <c r="ABX67" s="66"/>
-      <c r="ABY67" s="66"/>
-      <c r="ABZ67" s="66"/>
-      <c r="ACA67" s="66"/>
-      <c r="ACB67" s="66"/>
-      <c r="ACC67" s="66"/>
-      <c r="ACD67" s="66"/>
-      <c r="ACE67" s="66"/>
-      <c r="ACF67" s="66"/>
-      <c r="ACG67" s="66"/>
-      <c r="ACH67" s="66"/>
-      <c r="ACI67" s="66"/>
-      <c r="ACJ67" s="66"/>
-      <c r="ACK67" s="66"/>
-      <c r="ACL67" s="66"/>
-      <c r="ACM67" s="66"/>
-      <c r="ACN67" s="66"/>
-      <c r="ACO67" s="66"/>
-      <c r="ACP67" s="66"/>
-      <c r="ACQ67" s="66"/>
-      <c r="ACR67" s="66"/>
-      <c r="ACS67" s="66"/>
-      <c r="ACT67" s="66"/>
-      <c r="ACU67" s="66"/>
-      <c r="ACV67" s="66"/>
-      <c r="ACW67" s="66"/>
-      <c r="ACX67" s="66"/>
-      <c r="ACY67" s="66"/>
-      <c r="ACZ67" s="66"/>
-      <c r="ADA67" s="66"/>
-      <c r="ADB67" s="66"/>
-      <c r="ADC67" s="66"/>
-      <c r="ADD67" s="66"/>
-      <c r="ADE67" s="66"/>
-      <c r="ADF67" s="66"/>
-      <c r="ADG67" s="66"/>
-      <c r="ADH67" s="66"/>
-      <c r="ADI67" s="66"/>
-      <c r="ADJ67" s="66"/>
-      <c r="ADK67" s="66"/>
-      <c r="ADL67" s="66"/>
-      <c r="ADM67" s="66"/>
-      <c r="ADN67" s="66"/>
-      <c r="ADO67" s="66"/>
-      <c r="ADP67" s="66"/>
-      <c r="ADQ67" s="66"/>
-      <c r="ADR67" s="66"/>
-      <c r="ADS67" s="66"/>
-      <c r="ADT67" s="66"/>
-      <c r="ADU67" s="66"/>
-      <c r="ADV67" s="66"/>
-      <c r="ADW67" s="66"/>
-      <c r="ADX67" s="66"/>
-      <c r="ADY67" s="66"/>
-      <c r="ADZ67" s="66"/>
-      <c r="AEA67" s="66"/>
-      <c r="AEB67" s="66"/>
-      <c r="AEC67" s="66"/>
-      <c r="AED67" s="66"/>
-      <c r="AEE67" s="66"/>
-      <c r="AEF67" s="66"/>
-      <c r="AEG67" s="66"/>
-      <c r="AEH67" s="66"/>
-      <c r="AEI67" s="66"/>
-      <c r="AEJ67" s="66"/>
-      <c r="AEK67" s="66"/>
-      <c r="AEL67" s="66"/>
-      <c r="AEM67" s="66"/>
-      <c r="AEN67" s="66"/>
-      <c r="AEO67" s="66"/>
-      <c r="AEP67" s="66"/>
-      <c r="AEQ67" s="66"/>
-      <c r="AER67" s="66"/>
-      <c r="AES67" s="66"/>
-      <c r="AET67" s="66"/>
-      <c r="AEU67" s="66"/>
-      <c r="AEV67" s="66"/>
-      <c r="AEW67" s="66"/>
-      <c r="AEX67" s="66"/>
-      <c r="AEY67" s="66"/>
-      <c r="AEZ67" s="66"/>
-      <c r="AFA67" s="66"/>
-      <c r="AFB67" s="66"/>
-      <c r="AFC67" s="66"/>
-      <c r="AFD67" s="66"/>
-      <c r="AFE67" s="66"/>
-      <c r="AFF67" s="66"/>
-      <c r="AFG67" s="66"/>
-      <c r="AFH67" s="66"/>
-      <c r="AFI67" s="66"/>
-      <c r="AFJ67" s="66"/>
-      <c r="AFK67" s="66"/>
-      <c r="AFL67" s="66"/>
-      <c r="AFM67" s="66"/>
-      <c r="AFN67" s="66"/>
-      <c r="AFO67" s="66"/>
-      <c r="AFP67" s="66"/>
-      <c r="AFQ67" s="66"/>
-      <c r="AFR67" s="66"/>
-      <c r="AFS67" s="66"/>
-      <c r="AFT67" s="66"/>
-      <c r="AFU67" s="66"/>
-      <c r="AFV67" s="66"/>
-      <c r="AFW67" s="66"/>
-      <c r="AFX67" s="66"/>
-      <c r="AFY67" s="66"/>
-      <c r="AFZ67" s="66"/>
-      <c r="AGA67" s="66"/>
-      <c r="AGB67" s="66"/>
-      <c r="AGC67" s="66"/>
-      <c r="AGD67" s="66"/>
-      <c r="AGE67" s="66"/>
-      <c r="AGF67" s="66"/>
-      <c r="AGG67" s="66"/>
-      <c r="AGH67" s="66"/>
-      <c r="AGI67" s="66"/>
-      <c r="AGJ67" s="66"/>
-      <c r="AGK67" s="66"/>
-      <c r="AGL67" s="66"/>
-      <c r="AGM67" s="66"/>
-      <c r="AGN67" s="66"/>
-      <c r="AGO67" s="66"/>
-      <c r="AGP67" s="66"/>
-      <c r="AGQ67" s="66"/>
-      <c r="AGR67" s="66"/>
-      <c r="AGS67" s="66"/>
-      <c r="AGT67" s="66"/>
-      <c r="AGU67" s="66"/>
-      <c r="AGV67" s="66"/>
-      <c r="AGW67" s="66"/>
-      <c r="AGX67" s="66"/>
-      <c r="AGY67" s="66"/>
-      <c r="AGZ67" s="66"/>
-      <c r="AHA67" s="66"/>
-      <c r="AHB67" s="66"/>
-      <c r="AHC67" s="66"/>
-      <c r="AHD67" s="66"/>
-      <c r="AHE67" s="66"/>
-      <c r="AHF67" s="66"/>
-      <c r="AHG67" s="66"/>
-      <c r="AHH67" s="66"/>
-      <c r="AHI67" s="66"/>
-      <c r="AHJ67" s="66"/>
-      <c r="AHK67" s="66"/>
-      <c r="AHL67" s="66"/>
-      <c r="AHM67" s="66"/>
-      <c r="AHN67" s="66"/>
-      <c r="AHO67" s="66"/>
-      <c r="AHP67" s="66"/>
-      <c r="AHQ67" s="66"/>
-      <c r="AHR67" s="66"/>
-      <c r="AHS67" s="66"/>
-      <c r="AHT67" s="66"/>
-      <c r="AHU67" s="66"/>
-      <c r="AHV67" s="66"/>
-      <c r="AHW67" s="66"/>
-      <c r="AHX67" s="66"/>
-      <c r="AHY67" s="66"/>
-      <c r="AHZ67" s="66"/>
-      <c r="AIA67" s="66"/>
-      <c r="AIB67" s="66"/>
-      <c r="AIC67" s="66"/>
-      <c r="AID67" s="66"/>
-      <c r="AIE67" s="66"/>
-      <c r="AIF67" s="66"/>
-      <c r="AIG67" s="66"/>
-      <c r="AIH67" s="66"/>
-      <c r="AII67" s="66"/>
-      <c r="AIJ67" s="66"/>
-      <c r="AIK67" s="66"/>
-      <c r="AIL67" s="66"/>
-      <c r="AIM67" s="66"/>
-      <c r="AIN67" s="66"/>
-      <c r="AIO67" s="66"/>
-      <c r="AIP67" s="66"/>
-      <c r="AIQ67" s="66"/>
-      <c r="AIR67" s="66"/>
-      <c r="AIS67" s="66"/>
-      <c r="AIT67" s="66"/>
-      <c r="AIU67" s="66"/>
-      <c r="AIV67" s="66"/>
-      <c r="AIW67" s="66"/>
-      <c r="AIX67" s="66"/>
-      <c r="AIY67" s="66"/>
-      <c r="AIZ67" s="66"/>
-      <c r="AJA67" s="66"/>
-      <c r="AJB67" s="66"/>
-      <c r="AJC67" s="66"/>
-      <c r="AJD67" s="66"/>
-      <c r="AJE67" s="66"/>
-      <c r="AJF67" s="66"/>
-      <c r="AJG67" s="66"/>
-      <c r="AJH67" s="66"/>
-      <c r="AJI67" s="66"/>
-      <c r="AJJ67" s="66"/>
-      <c r="AJK67" s="66"/>
-      <c r="AJL67" s="66"/>
-      <c r="AJM67" s="66"/>
-      <c r="AJN67" s="66"/>
-      <c r="AJO67" s="66"/>
-      <c r="AJP67" s="66"/>
-      <c r="AJQ67" s="66"/>
-      <c r="AJR67" s="66"/>
-      <c r="AJS67" s="66"/>
-      <c r="AJT67" s="66"/>
-      <c r="AJU67" s="66"/>
-      <c r="AJV67" s="66"/>
-      <c r="AJW67" s="66"/>
-      <c r="AJX67" s="66"/>
-      <c r="AJY67" s="66"/>
-      <c r="AJZ67" s="66"/>
-      <c r="AKA67" s="66"/>
-      <c r="AKB67" s="66"/>
-      <c r="AKC67" s="66"/>
-      <c r="AKD67" s="66"/>
-      <c r="AKE67" s="66"/>
-      <c r="AKF67" s="66"/>
-      <c r="AKG67" s="66"/>
-      <c r="AKH67" s="66"/>
-      <c r="AKI67" s="66"/>
-      <c r="AKJ67" s="66"/>
-      <c r="AKK67" s="66"/>
-      <c r="AKL67" s="66"/>
-      <c r="AKM67" s="66"/>
-      <c r="AKN67" s="66"/>
-      <c r="AKO67" s="66"/>
-      <c r="AKP67" s="66"/>
-      <c r="AKQ67" s="66"/>
-      <c r="AKR67" s="66"/>
-      <c r="AKS67" s="66"/>
-      <c r="AKT67" s="66"/>
-      <c r="AKU67" s="66"/>
-      <c r="AKV67" s="66"/>
-      <c r="AKW67" s="66"/>
-      <c r="AKX67" s="66"/>
-      <c r="AKY67" s="66"/>
-      <c r="AKZ67" s="66"/>
-      <c r="ALA67" s="66"/>
-      <c r="ALB67" s="66"/>
-      <c r="ALC67" s="66"/>
-      <c r="ALD67" s="66"/>
-      <c r="ALE67" s="66"/>
-      <c r="ALF67" s="66"/>
-      <c r="ALG67" s="66"/>
-      <c r="ALH67" s="66"/>
-      <c r="ALI67" s="66"/>
-      <c r="ALJ67" s="66"/>
-      <c r="ALK67" s="66"/>
-      <c r="ALL67" s="66"/>
-      <c r="ALM67" s="66"/>
-      <c r="ALN67" s="66"/>
-      <c r="ALO67" s="66"/>
-      <c r="ALP67" s="66"/>
-      <c r="ALQ67" s="66"/>
-      <c r="ALR67" s="66"/>
-      <c r="ALS67" s="66"/>
-      <c r="ALT67" s="66"/>
-      <c r="ALU67" s="66"/>
-      <c r="ALV67" s="66"/>
-      <c r="ALW67" s="66"/>
-      <c r="ALX67" s="66"/>
-      <c r="ALY67" s="66"/>
-      <c r="ALZ67" s="66"/>
-      <c r="AMA67" s="66"/>
-      <c r="AMB67" s="66"/>
-      <c r="AMC67" s="66"/>
-      <c r="AMD67" s="66"/>
-      <c r="AME67" s="66"/>
-      <c r="AMF67" s="66"/>
-      <c r="AMG67" s="66"/>
-      <c r="AMH67" s="66"/>
-      <c r="AMI67" s="66"/>
-      <c r="AMJ67" s="66"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="65"/>
+      <c r="N67" s="65"/>
+      <c r="O67" s="65"/>
+      <c r="P67" s="65"/>
+      <c r="Q67" s="65"/>
+      <c r="R67" s="65"/>
+      <c r="S67" s="65"/>
+      <c r="T67" s="65"/>
+      <c r="U67" s="65"/>
+      <c r="V67" s="65"/>
+      <c r="W67" s="65"/>
+      <c r="X67" s="65"/>
+      <c r="Y67" s="65"/>
+      <c r="Z67" s="65"/>
+      <c r="AA67" s="65"/>
+      <c r="AB67" s="65"/>
+      <c r="AC67" s="65"/>
+      <c r="AD67" s="65"/>
+      <c r="AE67" s="65"/>
+      <c r="AF67" s="65"/>
+      <c r="AG67" s="65"/>
+      <c r="AH67" s="65"/>
+      <c r="AI67" s="65"/>
+      <c r="AJ67" s="65"/>
+      <c r="AK67" s="65"/>
+      <c r="AL67" s="65"/>
+      <c r="AM67" s="65"/>
+      <c r="AN67" s="65"/>
+      <c r="AO67" s="65"/>
+      <c r="AP67" s="65"/>
+      <c r="AQ67" s="65"/>
+      <c r="AR67" s="65"/>
+      <c r="AS67" s="65"/>
+      <c r="AT67" s="65"/>
+      <c r="AU67" s="65"/>
+      <c r="AV67" s="65"/>
+      <c r="AW67" s="65"/>
+      <c r="AX67" s="65"/>
+      <c r="AY67" s="65"/>
+      <c r="AZ67" s="65"/>
+      <c r="BA67" s="65"/>
+      <c r="BB67" s="65"/>
+      <c r="BC67" s="65"/>
+      <c r="BD67" s="65"/>
+      <c r="BE67" s="65"/>
+      <c r="BF67" s="65"/>
+      <c r="BG67" s="65"/>
+      <c r="BH67" s="65"/>
+      <c r="BI67" s="65"/>
+      <c r="BJ67" s="65"/>
+      <c r="BK67" s="65"/>
+      <c r="BL67" s="65"/>
+      <c r="BM67" s="65"/>
+      <c r="BN67" s="65"/>
+      <c r="BO67" s="65"/>
+      <c r="BP67" s="65"/>
+      <c r="BQ67" s="65"/>
+      <c r="BR67" s="65"/>
+      <c r="BS67" s="65"/>
+      <c r="BT67" s="65"/>
+      <c r="BU67" s="65"/>
+      <c r="BV67" s="65"/>
+      <c r="BW67" s="65"/>
+      <c r="BX67" s="65"/>
+      <c r="BY67" s="65"/>
+      <c r="BZ67" s="65"/>
+      <c r="CA67" s="65"/>
+      <c r="CB67" s="65"/>
+      <c r="CC67" s="65"/>
+      <c r="CD67" s="65"/>
+      <c r="CE67" s="65"/>
+      <c r="CF67" s="65"/>
+      <c r="CG67" s="65"/>
+      <c r="CH67" s="65"/>
+      <c r="CI67" s="65"/>
+      <c r="CJ67" s="65"/>
+      <c r="CK67" s="65"/>
+      <c r="CL67" s="65"/>
+      <c r="CM67" s="65"/>
+      <c r="CN67" s="65"/>
+      <c r="CO67" s="65"/>
+      <c r="CP67" s="65"/>
+      <c r="CQ67" s="65"/>
+      <c r="CR67" s="65"/>
+      <c r="CS67" s="65"/>
+      <c r="CT67" s="65"/>
+      <c r="CU67" s="65"/>
+      <c r="CV67" s="65"/>
+      <c r="CW67" s="65"/>
+      <c r="CX67" s="65"/>
+      <c r="CY67" s="65"/>
+      <c r="CZ67" s="65"/>
+      <c r="DA67" s="65"/>
+      <c r="DB67" s="65"/>
+      <c r="DC67" s="65"/>
+      <c r="DD67" s="65"/>
+      <c r="DE67" s="65"/>
+      <c r="DF67" s="65"/>
+      <c r="DG67" s="65"/>
+      <c r="DH67" s="65"/>
+      <c r="DI67" s="65"/>
+      <c r="DJ67" s="65"/>
+      <c r="DK67" s="65"/>
+      <c r="DL67" s="65"/>
+      <c r="DM67" s="65"/>
+      <c r="DN67" s="65"/>
+      <c r="DO67" s="65"/>
+      <c r="DP67" s="65"/>
+      <c r="DQ67" s="65"/>
+      <c r="DR67" s="65"/>
+      <c r="DS67" s="65"/>
+      <c r="DT67" s="65"/>
+      <c r="DU67" s="65"/>
+      <c r="DV67" s="65"/>
+      <c r="DW67" s="65"/>
+      <c r="DX67" s="65"/>
+      <c r="DY67" s="65"/>
+      <c r="DZ67" s="65"/>
+      <c r="EA67" s="65"/>
+      <c r="EB67" s="65"/>
+      <c r="EC67" s="65"/>
+      <c r="ED67" s="65"/>
+      <c r="EE67" s="65"/>
+      <c r="EF67" s="65"/>
+      <c r="EG67" s="65"/>
+      <c r="EH67" s="65"/>
+      <c r="EI67" s="65"/>
+      <c r="EJ67" s="65"/>
+      <c r="EK67" s="65"/>
+      <c r="EL67" s="65"/>
+      <c r="EM67" s="65"/>
+      <c r="EN67" s="65"/>
+      <c r="EO67" s="65"/>
+      <c r="EP67" s="65"/>
+      <c r="EQ67" s="65"/>
+      <c r="ER67" s="65"/>
+      <c r="ES67" s="65"/>
+      <c r="ET67" s="65"/>
+      <c r="EU67" s="65"/>
+      <c r="EV67" s="65"/>
+      <c r="EW67" s="65"/>
+      <c r="EX67" s="65"/>
+      <c r="EY67" s="65"/>
+      <c r="EZ67" s="65"/>
+      <c r="FA67" s="65"/>
+      <c r="FB67" s="65"/>
+      <c r="FC67" s="65"/>
+      <c r="FD67" s="65"/>
+      <c r="FE67" s="65"/>
+      <c r="FF67" s="65"/>
+      <c r="FG67" s="65"/>
+      <c r="FH67" s="65"/>
+      <c r="FI67" s="65"/>
+      <c r="FJ67" s="65"/>
+      <c r="FK67" s="65"/>
+      <c r="FL67" s="65"/>
+      <c r="FM67" s="65"/>
+      <c r="FN67" s="65"/>
+      <c r="FO67" s="65"/>
+      <c r="FP67" s="65"/>
+      <c r="FQ67" s="65"/>
+      <c r="FR67" s="65"/>
+      <c r="FS67" s="65"/>
+      <c r="FT67" s="65"/>
+      <c r="FU67" s="65"/>
+      <c r="FV67" s="65"/>
+      <c r="FW67" s="65"/>
+      <c r="FX67" s="65"/>
+      <c r="FY67" s="65"/>
+      <c r="FZ67" s="65"/>
+      <c r="GA67" s="65"/>
+      <c r="GB67" s="65"/>
+      <c r="GC67" s="65"/>
+      <c r="GD67" s="65"/>
+      <c r="GE67" s="65"/>
+      <c r="GF67" s="65"/>
+      <c r="GG67" s="65"/>
+      <c r="GH67" s="65"/>
+      <c r="GI67" s="65"/>
+      <c r="GJ67" s="65"/>
+      <c r="GK67" s="65"/>
+      <c r="GL67" s="65"/>
+      <c r="GM67" s="65"/>
+      <c r="GN67" s="65"/>
+      <c r="GO67" s="65"/>
+      <c r="GP67" s="65"/>
+      <c r="GQ67" s="65"/>
+      <c r="GR67" s="65"/>
+      <c r="GS67" s="65"/>
+      <c r="GT67" s="65"/>
+      <c r="GU67" s="65"/>
+      <c r="GV67" s="65"/>
+      <c r="GW67" s="65"/>
+      <c r="GX67" s="65"/>
+      <c r="GY67" s="65"/>
+      <c r="GZ67" s="65"/>
+      <c r="HA67" s="65"/>
+      <c r="HB67" s="65"/>
+      <c r="HC67" s="65"/>
+      <c r="HD67" s="65"/>
+      <c r="HE67" s="65"/>
+      <c r="HF67" s="65"/>
+      <c r="HG67" s="65"/>
+      <c r="HH67" s="65"/>
+      <c r="HI67" s="65"/>
+      <c r="HJ67" s="65"/>
+      <c r="HK67" s="65"/>
+      <c r="HL67" s="65"/>
+      <c r="HM67" s="65"/>
+      <c r="HN67" s="65"/>
+      <c r="HO67" s="65"/>
+      <c r="HP67" s="65"/>
+      <c r="HQ67" s="65"/>
+      <c r="HR67" s="65"/>
+      <c r="HS67" s="65"/>
+      <c r="HT67" s="65"/>
+      <c r="HU67" s="65"/>
+      <c r="HV67" s="65"/>
+      <c r="HW67" s="65"/>
+      <c r="HX67" s="65"/>
+      <c r="HY67" s="65"/>
+      <c r="HZ67" s="65"/>
+      <c r="IA67" s="65"/>
+      <c r="IB67" s="65"/>
+      <c r="IC67" s="65"/>
+      <c r="ID67" s="65"/>
+      <c r="IE67" s="65"/>
+      <c r="IF67" s="65"/>
+      <c r="IG67" s="65"/>
+      <c r="IH67" s="65"/>
+      <c r="II67" s="65"/>
+      <c r="IJ67" s="65"/>
+      <c r="IK67" s="65"/>
+      <c r="IL67" s="65"/>
+      <c r="IM67" s="65"/>
+      <c r="IN67" s="65"/>
+      <c r="IO67" s="65"/>
+      <c r="IP67" s="65"/>
+      <c r="IQ67" s="65"/>
+      <c r="IR67" s="65"/>
+      <c r="IS67" s="65"/>
+      <c r="IT67" s="65"/>
+      <c r="IU67" s="65"/>
+      <c r="IV67" s="65"/>
+      <c r="IW67" s="65"/>
+      <c r="IX67" s="65"/>
+      <c r="IY67" s="65"/>
+      <c r="IZ67" s="65"/>
+      <c r="JA67" s="65"/>
+      <c r="JB67" s="65"/>
+      <c r="JC67" s="65"/>
+      <c r="JD67" s="65"/>
+      <c r="JE67" s="65"/>
+      <c r="JF67" s="65"/>
+      <c r="JG67" s="65"/>
+      <c r="JH67" s="65"/>
+      <c r="JI67" s="65"/>
+      <c r="JJ67" s="65"/>
+      <c r="JK67" s="65"/>
+      <c r="JL67" s="65"/>
+      <c r="JM67" s="65"/>
+      <c r="JN67" s="65"/>
+      <c r="JO67" s="65"/>
+      <c r="JP67" s="65"/>
+      <c r="JQ67" s="65"/>
+      <c r="JR67" s="65"/>
+      <c r="JS67" s="65"/>
+      <c r="JT67" s="65"/>
+      <c r="JU67" s="65"/>
+      <c r="JV67" s="65"/>
+      <c r="JW67" s="65"/>
+      <c r="JX67" s="65"/>
+      <c r="JY67" s="65"/>
+      <c r="JZ67" s="65"/>
+      <c r="KA67" s="65"/>
+      <c r="KB67" s="65"/>
+      <c r="KC67" s="65"/>
+      <c r="KD67" s="65"/>
+      <c r="KE67" s="65"/>
+      <c r="KF67" s="65"/>
+      <c r="KG67" s="65"/>
+      <c r="KH67" s="65"/>
+      <c r="KI67" s="65"/>
+      <c r="KJ67" s="65"/>
+      <c r="KK67" s="65"/>
+      <c r="KL67" s="65"/>
+      <c r="KM67" s="65"/>
+      <c r="KN67" s="65"/>
+      <c r="KO67" s="65"/>
+      <c r="KP67" s="65"/>
+      <c r="KQ67" s="65"/>
+      <c r="KR67" s="65"/>
+      <c r="KS67" s="65"/>
+      <c r="KT67" s="65"/>
+      <c r="KU67" s="65"/>
+      <c r="KV67" s="65"/>
+      <c r="KW67" s="65"/>
+      <c r="KX67" s="65"/>
+      <c r="KY67" s="65"/>
+      <c r="KZ67" s="65"/>
+      <c r="LA67" s="65"/>
+      <c r="LB67" s="65"/>
+      <c r="LC67" s="65"/>
+      <c r="LD67" s="65"/>
+      <c r="LE67" s="65"/>
+      <c r="LF67" s="65"/>
+      <c r="LG67" s="65"/>
+      <c r="LH67" s="65"/>
+      <c r="LI67" s="65"/>
+      <c r="LJ67" s="65"/>
+      <c r="LK67" s="65"/>
+      <c r="LL67" s="65"/>
+      <c r="LM67" s="65"/>
+      <c r="LN67" s="65"/>
+      <c r="LO67" s="65"/>
+      <c r="LP67" s="65"/>
+      <c r="LQ67" s="65"/>
+      <c r="LR67" s="65"/>
+      <c r="LS67" s="65"/>
+      <c r="LT67" s="65"/>
+      <c r="LU67" s="65"/>
+      <c r="LV67" s="65"/>
+      <c r="LW67" s="65"/>
+      <c r="LX67" s="65"/>
+      <c r="LY67" s="65"/>
+      <c r="LZ67" s="65"/>
+      <c r="MA67" s="65"/>
+      <c r="MB67" s="65"/>
+      <c r="MC67" s="65"/>
+      <c r="MD67" s="65"/>
+      <c r="ME67" s="65"/>
+      <c r="MF67" s="65"/>
+      <c r="MG67" s="65"/>
+      <c r="MH67" s="65"/>
+      <c r="MI67" s="65"/>
+      <c r="MJ67" s="65"/>
+      <c r="MK67" s="65"/>
+      <c r="ML67" s="65"/>
+      <c r="MM67" s="65"/>
+      <c r="MN67" s="65"/>
+      <c r="MO67" s="65"/>
+      <c r="MP67" s="65"/>
+      <c r="MQ67" s="65"/>
+      <c r="MR67" s="65"/>
+      <c r="MS67" s="65"/>
+      <c r="MT67" s="65"/>
+      <c r="MU67" s="65"/>
+      <c r="MV67" s="65"/>
+      <c r="MW67" s="65"/>
+      <c r="MX67" s="65"/>
+      <c r="MY67" s="65"/>
+      <c r="MZ67" s="65"/>
+      <c r="NA67" s="65"/>
+      <c r="NB67" s="65"/>
+      <c r="NC67" s="65"/>
+      <c r="ND67" s="65"/>
+      <c r="NE67" s="65"/>
+      <c r="NF67" s="65"/>
+      <c r="NG67" s="65"/>
+      <c r="NH67" s="65"/>
+      <c r="NI67" s="65"/>
+      <c r="NJ67" s="65"/>
+      <c r="NK67" s="65"/>
+      <c r="NL67" s="65"/>
+      <c r="NM67" s="65"/>
+      <c r="NN67" s="65"/>
+      <c r="NO67" s="65"/>
+      <c r="NP67" s="65"/>
+      <c r="NQ67" s="65"/>
+      <c r="NR67" s="65"/>
+      <c r="NS67" s="65"/>
+      <c r="NT67" s="65"/>
+      <c r="NU67" s="65"/>
+      <c r="NV67" s="65"/>
+      <c r="NW67" s="65"/>
+      <c r="NX67" s="65"/>
+      <c r="NY67" s="65"/>
+      <c r="NZ67" s="65"/>
+      <c r="OA67" s="65"/>
+      <c r="OB67" s="65"/>
+      <c r="OC67" s="65"/>
+      <c r="OD67" s="65"/>
+      <c r="OE67" s="65"/>
+      <c r="OF67" s="65"/>
+      <c r="OG67" s="65"/>
+      <c r="OH67" s="65"/>
+      <c r="OI67" s="65"/>
+      <c r="OJ67" s="65"/>
+      <c r="OK67" s="65"/>
+      <c r="OL67" s="65"/>
+      <c r="OM67" s="65"/>
+      <c r="ON67" s="65"/>
+      <c r="OO67" s="65"/>
+      <c r="OP67" s="65"/>
+      <c r="OQ67" s="65"/>
+      <c r="OR67" s="65"/>
+      <c r="OS67" s="65"/>
+      <c r="OT67" s="65"/>
+      <c r="OU67" s="65"/>
+      <c r="OV67" s="65"/>
+      <c r="OW67" s="65"/>
+      <c r="OX67" s="65"/>
+      <c r="OY67" s="65"/>
+      <c r="OZ67" s="65"/>
+      <c r="PA67" s="65"/>
+      <c r="PB67" s="65"/>
+      <c r="PC67" s="65"/>
+      <c r="PD67" s="65"/>
+      <c r="PE67" s="65"/>
+      <c r="PF67" s="65"/>
+      <c r="PG67" s="65"/>
+      <c r="PH67" s="65"/>
+      <c r="PI67" s="65"/>
+      <c r="PJ67" s="65"/>
+      <c r="PK67" s="65"/>
+      <c r="PL67" s="65"/>
+      <c r="PM67" s="65"/>
+      <c r="PN67" s="65"/>
+      <c r="PO67" s="65"/>
+      <c r="PP67" s="65"/>
+      <c r="PQ67" s="65"/>
+      <c r="PR67" s="65"/>
+      <c r="PS67" s="65"/>
+      <c r="PT67" s="65"/>
+      <c r="PU67" s="65"/>
+      <c r="PV67" s="65"/>
+      <c r="PW67" s="65"/>
+      <c r="PX67" s="65"/>
+      <c r="PY67" s="65"/>
+      <c r="PZ67" s="65"/>
+      <c r="QA67" s="65"/>
+      <c r="QB67" s="65"/>
+      <c r="QC67" s="65"/>
+      <c r="QD67" s="65"/>
+      <c r="QE67" s="65"/>
+      <c r="QF67" s="65"/>
+      <c r="QG67" s="65"/>
+      <c r="QH67" s="65"/>
+      <c r="QI67" s="65"/>
+      <c r="QJ67" s="65"/>
+      <c r="QK67" s="65"/>
+      <c r="QL67" s="65"/>
+      <c r="QM67" s="65"/>
+      <c r="QN67" s="65"/>
+      <c r="QO67" s="65"/>
+      <c r="QP67" s="65"/>
+      <c r="QQ67" s="65"/>
+      <c r="QR67" s="65"/>
+      <c r="QS67" s="65"/>
+      <c r="QT67" s="65"/>
+      <c r="QU67" s="65"/>
+      <c r="QV67" s="65"/>
+      <c r="QW67" s="65"/>
+      <c r="QX67" s="65"/>
+      <c r="QY67" s="65"/>
+      <c r="QZ67" s="65"/>
+      <c r="RA67" s="65"/>
+      <c r="RB67" s="65"/>
+      <c r="RC67" s="65"/>
+      <c r="RD67" s="65"/>
+      <c r="RE67" s="65"/>
+      <c r="RF67" s="65"/>
+      <c r="RG67" s="65"/>
+      <c r="RH67" s="65"/>
+      <c r="RI67" s="65"/>
+      <c r="RJ67" s="65"/>
+      <c r="RK67" s="65"/>
+      <c r="RL67" s="65"/>
+      <c r="RM67" s="65"/>
+      <c r="RN67" s="65"/>
+      <c r="RO67" s="65"/>
+      <c r="RP67" s="65"/>
+      <c r="RQ67" s="65"/>
+      <c r="RR67" s="65"/>
+      <c r="RS67" s="65"/>
+      <c r="RT67" s="65"/>
+      <c r="RU67" s="65"/>
+      <c r="RV67" s="65"/>
+      <c r="RW67" s="65"/>
+      <c r="RX67" s="65"/>
+      <c r="RY67" s="65"/>
+      <c r="RZ67" s="65"/>
+      <c r="SA67" s="65"/>
+      <c r="SB67" s="65"/>
+      <c r="SC67" s="65"/>
+      <c r="SD67" s="65"/>
+      <c r="SE67" s="65"/>
+      <c r="SF67" s="65"/>
+      <c r="SG67" s="65"/>
+      <c r="SH67" s="65"/>
+      <c r="SI67" s="65"/>
+      <c r="SJ67" s="65"/>
+      <c r="SK67" s="65"/>
+      <c r="SL67" s="65"/>
+      <c r="SM67" s="65"/>
+      <c r="SN67" s="65"/>
+      <c r="SO67" s="65"/>
+      <c r="SP67" s="65"/>
+      <c r="SQ67" s="65"/>
+      <c r="SR67" s="65"/>
+      <c r="SS67" s="65"/>
+      <c r="ST67" s="65"/>
+      <c r="SU67" s="65"/>
+      <c r="SV67" s="65"/>
+      <c r="SW67" s="65"/>
+      <c r="SX67" s="65"/>
+      <c r="SY67" s="65"/>
+      <c r="SZ67" s="65"/>
+      <c r="TA67" s="65"/>
+      <c r="TB67" s="65"/>
+      <c r="TC67" s="65"/>
+      <c r="TD67" s="65"/>
+      <c r="TE67" s="65"/>
+      <c r="TF67" s="65"/>
+      <c r="TG67" s="65"/>
+      <c r="TH67" s="65"/>
+      <c r="TI67" s="65"/>
+      <c r="TJ67" s="65"/>
+      <c r="TK67" s="65"/>
+      <c r="TL67" s="65"/>
+      <c r="TM67" s="65"/>
+      <c r="TN67" s="65"/>
+      <c r="TO67" s="65"/>
+      <c r="TP67" s="65"/>
+      <c r="TQ67" s="65"/>
+      <c r="TR67" s="65"/>
+      <c r="TS67" s="65"/>
+      <c r="TT67" s="65"/>
+      <c r="TU67" s="65"/>
+      <c r="TV67" s="65"/>
+      <c r="TW67" s="65"/>
+      <c r="TX67" s="65"/>
+      <c r="TY67" s="65"/>
+      <c r="TZ67" s="65"/>
+      <c r="UA67" s="65"/>
+      <c r="UB67" s="65"/>
+      <c r="UC67" s="65"/>
+      <c r="UD67" s="65"/>
+      <c r="UE67" s="65"/>
+      <c r="UF67" s="65"/>
+      <c r="UG67" s="65"/>
+      <c r="UH67" s="65"/>
+      <c r="UI67" s="65"/>
+      <c r="UJ67" s="65"/>
+      <c r="UK67" s="65"/>
+      <c r="UL67" s="65"/>
+      <c r="UM67" s="65"/>
+      <c r="UN67" s="65"/>
+      <c r="UO67" s="65"/>
+      <c r="UP67" s="65"/>
+      <c r="UQ67" s="65"/>
+      <c r="UR67" s="65"/>
+      <c r="US67" s="65"/>
+      <c r="UT67" s="65"/>
+      <c r="UU67" s="65"/>
+      <c r="UV67" s="65"/>
+      <c r="UW67" s="65"/>
+      <c r="UX67" s="65"/>
+      <c r="UY67" s="65"/>
+      <c r="UZ67" s="65"/>
+      <c r="VA67" s="65"/>
+      <c r="VB67" s="65"/>
+      <c r="VC67" s="65"/>
+      <c r="VD67" s="65"/>
+      <c r="VE67" s="65"/>
+      <c r="VF67" s="65"/>
+      <c r="VG67" s="65"/>
+      <c r="VH67" s="65"/>
+      <c r="VI67" s="65"/>
+      <c r="VJ67" s="65"/>
+      <c r="VK67" s="65"/>
+      <c r="VL67" s="65"/>
+      <c r="VM67" s="65"/>
+      <c r="VN67" s="65"/>
+      <c r="VO67" s="65"/>
+      <c r="VP67" s="65"/>
+      <c r="VQ67" s="65"/>
+      <c r="VR67" s="65"/>
+      <c r="VS67" s="65"/>
+      <c r="VT67" s="65"/>
+      <c r="VU67" s="65"/>
+      <c r="VV67" s="65"/>
+      <c r="VW67" s="65"/>
+      <c r="VX67" s="65"/>
+      <c r="VY67" s="65"/>
+      <c r="VZ67" s="65"/>
+      <c r="WA67" s="65"/>
+      <c r="WB67" s="65"/>
+      <c r="WC67" s="65"/>
+      <c r="WD67" s="65"/>
+      <c r="WE67" s="65"/>
+      <c r="WF67" s="65"/>
+      <c r="WG67" s="65"/>
+      <c r="WH67" s="65"/>
+      <c r="WI67" s="65"/>
+      <c r="WJ67" s="65"/>
+      <c r="WK67" s="65"/>
+      <c r="WL67" s="65"/>
+      <c r="WM67" s="65"/>
+      <c r="WN67" s="65"/>
+      <c r="WO67" s="65"/>
+      <c r="WP67" s="65"/>
+      <c r="WQ67" s="65"/>
+      <c r="WR67" s="65"/>
+      <c r="WS67" s="65"/>
+      <c r="WT67" s="65"/>
+      <c r="WU67" s="65"/>
+      <c r="WV67" s="65"/>
+      <c r="WW67" s="65"/>
+      <c r="WX67" s="65"/>
+      <c r="WY67" s="65"/>
+      <c r="WZ67" s="65"/>
+      <c r="XA67" s="65"/>
+      <c r="XB67" s="65"/>
+      <c r="XC67" s="65"/>
+      <c r="XD67" s="65"/>
+      <c r="XE67" s="65"/>
+      <c r="XF67" s="65"/>
+      <c r="XG67" s="65"/>
+      <c r="XH67" s="65"/>
+      <c r="XI67" s="65"/>
+      <c r="XJ67" s="65"/>
+      <c r="XK67" s="65"/>
+      <c r="XL67" s="65"/>
+      <c r="XM67" s="65"/>
+      <c r="XN67" s="65"/>
+      <c r="XO67" s="65"/>
+      <c r="XP67" s="65"/>
+      <c r="XQ67" s="65"/>
+      <c r="XR67" s="65"/>
+      <c r="XS67" s="65"/>
+      <c r="XT67" s="65"/>
+      <c r="XU67" s="65"/>
+      <c r="XV67" s="65"/>
+      <c r="XW67" s="65"/>
+      <c r="XX67" s="65"/>
+      <c r="XY67" s="65"/>
+      <c r="XZ67" s="65"/>
+      <c r="YA67" s="65"/>
+      <c r="YB67" s="65"/>
+      <c r="YC67" s="65"/>
+      <c r="YD67" s="65"/>
+      <c r="YE67" s="65"/>
+      <c r="YF67" s="65"/>
+      <c r="YG67" s="65"/>
+      <c r="YH67" s="65"/>
+      <c r="YI67" s="65"/>
+      <c r="YJ67" s="65"/>
+      <c r="YK67" s="65"/>
+      <c r="YL67" s="65"/>
+      <c r="YM67" s="65"/>
+      <c r="YN67" s="65"/>
+      <c r="YO67" s="65"/>
+      <c r="YP67" s="65"/>
+      <c r="YQ67" s="65"/>
+      <c r="YR67" s="65"/>
+      <c r="YS67" s="65"/>
+      <c r="YT67" s="65"/>
+      <c r="YU67" s="65"/>
+      <c r="YV67" s="65"/>
+      <c r="YW67" s="65"/>
+      <c r="YX67" s="65"/>
+      <c r="YY67" s="65"/>
+      <c r="YZ67" s="65"/>
+      <c r="ZA67" s="65"/>
+      <c r="ZB67" s="65"/>
+      <c r="ZC67" s="65"/>
+      <c r="ZD67" s="65"/>
+      <c r="ZE67" s="65"/>
+      <c r="ZF67" s="65"/>
+      <c r="ZG67" s="65"/>
+      <c r="ZH67" s="65"/>
+      <c r="ZI67" s="65"/>
+      <c r="ZJ67" s="65"/>
+      <c r="ZK67" s="65"/>
+      <c r="ZL67" s="65"/>
+      <c r="ZM67" s="65"/>
+      <c r="ZN67" s="65"/>
+      <c r="ZO67" s="65"/>
+      <c r="ZP67" s="65"/>
+      <c r="ZQ67" s="65"/>
+      <c r="ZR67" s="65"/>
+      <c r="ZS67" s="65"/>
+      <c r="ZT67" s="65"/>
+      <c r="ZU67" s="65"/>
+      <c r="ZV67" s="65"/>
+      <c r="ZW67" s="65"/>
+      <c r="ZX67" s="65"/>
+      <c r="ZY67" s="65"/>
+      <c r="ZZ67" s="65"/>
+      <c r="AAA67" s="65"/>
+      <c r="AAB67" s="65"/>
+      <c r="AAC67" s="65"/>
+      <c r="AAD67" s="65"/>
+      <c r="AAE67" s="65"/>
+      <c r="AAF67" s="65"/>
+      <c r="AAG67" s="65"/>
+      <c r="AAH67" s="65"/>
+      <c r="AAI67" s="65"/>
+      <c r="AAJ67" s="65"/>
+      <c r="AAK67" s="65"/>
+      <c r="AAL67" s="65"/>
+      <c r="AAM67" s="65"/>
+      <c r="AAN67" s="65"/>
+      <c r="AAO67" s="65"/>
+      <c r="AAP67" s="65"/>
+      <c r="AAQ67" s="65"/>
+      <c r="AAR67" s="65"/>
+      <c r="AAS67" s="65"/>
+      <c r="AAT67" s="65"/>
+      <c r="AAU67" s="65"/>
+      <c r="AAV67" s="65"/>
+      <c r="AAW67" s="65"/>
+      <c r="AAX67" s="65"/>
+      <c r="AAY67" s="65"/>
+      <c r="AAZ67" s="65"/>
+      <c r="ABA67" s="65"/>
+      <c r="ABB67" s="65"/>
+      <c r="ABC67" s="65"/>
+      <c r="ABD67" s="65"/>
+      <c r="ABE67" s="65"/>
+      <c r="ABF67" s="65"/>
+      <c r="ABG67" s="65"/>
+      <c r="ABH67" s="65"/>
+      <c r="ABI67" s="65"/>
+      <c r="ABJ67" s="65"/>
+      <c r="ABK67" s="65"/>
+      <c r="ABL67" s="65"/>
+      <c r="ABM67" s="65"/>
+      <c r="ABN67" s="65"/>
+      <c r="ABO67" s="65"/>
+      <c r="ABP67" s="65"/>
+      <c r="ABQ67" s="65"/>
+      <c r="ABR67" s="65"/>
+      <c r="ABS67" s="65"/>
+      <c r="ABT67" s="65"/>
+      <c r="ABU67" s="65"/>
+      <c r="ABV67" s="65"/>
+      <c r="ABW67" s="65"/>
+      <c r="ABX67" s="65"/>
+      <c r="ABY67" s="65"/>
+      <c r="ABZ67" s="65"/>
+      <c r="ACA67" s="65"/>
+      <c r="ACB67" s="65"/>
+      <c r="ACC67" s="65"/>
+      <c r="ACD67" s="65"/>
+      <c r="ACE67" s="65"/>
+      <c r="ACF67" s="65"/>
+      <c r="ACG67" s="65"/>
+      <c r="ACH67" s="65"/>
+      <c r="ACI67" s="65"/>
+      <c r="ACJ67" s="65"/>
+      <c r="ACK67" s="65"/>
+      <c r="ACL67" s="65"/>
+      <c r="ACM67" s="65"/>
+      <c r="ACN67" s="65"/>
+      <c r="ACO67" s="65"/>
+      <c r="ACP67" s="65"/>
+      <c r="ACQ67" s="65"/>
+      <c r="ACR67" s="65"/>
+      <c r="ACS67" s="65"/>
+      <c r="ACT67" s="65"/>
+      <c r="ACU67" s="65"/>
+      <c r="ACV67" s="65"/>
+      <c r="ACW67" s="65"/>
+      <c r="ACX67" s="65"/>
+      <c r="ACY67" s="65"/>
+      <c r="ACZ67" s="65"/>
+      <c r="ADA67" s="65"/>
+      <c r="ADB67" s="65"/>
+      <c r="ADC67" s="65"/>
+      <c r="ADD67" s="65"/>
+      <c r="ADE67" s="65"/>
+      <c r="ADF67" s="65"/>
+      <c r="ADG67" s="65"/>
+      <c r="ADH67" s="65"/>
+      <c r="ADI67" s="65"/>
+      <c r="ADJ67" s="65"/>
+      <c r="ADK67" s="65"/>
+      <c r="ADL67" s="65"/>
+      <c r="ADM67" s="65"/>
+      <c r="ADN67" s="65"/>
+      <c r="ADO67" s="65"/>
+      <c r="ADP67" s="65"/>
+      <c r="ADQ67" s="65"/>
+      <c r="ADR67" s="65"/>
+      <c r="ADS67" s="65"/>
+      <c r="ADT67" s="65"/>
+      <c r="ADU67" s="65"/>
+      <c r="ADV67" s="65"/>
+      <c r="ADW67" s="65"/>
+      <c r="ADX67" s="65"/>
+      <c r="ADY67" s="65"/>
+      <c r="ADZ67" s="65"/>
+      <c r="AEA67" s="65"/>
+      <c r="AEB67" s="65"/>
+      <c r="AEC67" s="65"/>
+      <c r="AED67" s="65"/>
+      <c r="AEE67" s="65"/>
+      <c r="AEF67" s="65"/>
+      <c r="AEG67" s="65"/>
+      <c r="AEH67" s="65"/>
+      <c r="AEI67" s="65"/>
+      <c r="AEJ67" s="65"/>
+      <c r="AEK67" s="65"/>
+      <c r="AEL67" s="65"/>
+      <c r="AEM67" s="65"/>
+      <c r="AEN67" s="65"/>
+      <c r="AEO67" s="65"/>
+      <c r="AEP67" s="65"/>
+      <c r="AEQ67" s="65"/>
+      <c r="AER67" s="65"/>
+      <c r="AES67" s="65"/>
+      <c r="AET67" s="65"/>
+      <c r="AEU67" s="65"/>
+      <c r="AEV67" s="65"/>
+      <c r="AEW67" s="65"/>
+      <c r="AEX67" s="65"/>
+      <c r="AEY67" s="65"/>
+      <c r="AEZ67" s="65"/>
+      <c r="AFA67" s="65"/>
+      <c r="AFB67" s="65"/>
+      <c r="AFC67" s="65"/>
+      <c r="AFD67" s="65"/>
+      <c r="AFE67" s="65"/>
+      <c r="AFF67" s="65"/>
+      <c r="AFG67" s="65"/>
+      <c r="AFH67" s="65"/>
+      <c r="AFI67" s="65"/>
+      <c r="AFJ67" s="65"/>
+      <c r="AFK67" s="65"/>
+      <c r="AFL67" s="65"/>
+      <c r="AFM67" s="65"/>
+      <c r="AFN67" s="65"/>
+      <c r="AFO67" s="65"/>
+      <c r="AFP67" s="65"/>
+      <c r="AFQ67" s="65"/>
+      <c r="AFR67" s="65"/>
+      <c r="AFS67" s="65"/>
+      <c r="AFT67" s="65"/>
+      <c r="AFU67" s="65"/>
+      <c r="AFV67" s="65"/>
+      <c r="AFW67" s="65"/>
+      <c r="AFX67" s="65"/>
+      <c r="AFY67" s="65"/>
+      <c r="AFZ67" s="65"/>
+      <c r="AGA67" s="65"/>
+      <c r="AGB67" s="65"/>
+      <c r="AGC67" s="65"/>
+      <c r="AGD67" s="65"/>
+      <c r="AGE67" s="65"/>
+      <c r="AGF67" s="65"/>
+      <c r="AGG67" s="65"/>
+      <c r="AGH67" s="65"/>
+      <c r="AGI67" s="65"/>
+      <c r="AGJ67" s="65"/>
+      <c r="AGK67" s="65"/>
+      <c r="AGL67" s="65"/>
+      <c r="AGM67" s="65"/>
+      <c r="AGN67" s="65"/>
+      <c r="AGO67" s="65"/>
+      <c r="AGP67" s="65"/>
+      <c r="AGQ67" s="65"/>
+      <c r="AGR67" s="65"/>
+      <c r="AGS67" s="65"/>
+      <c r="AGT67" s="65"/>
+      <c r="AGU67" s="65"/>
+      <c r="AGV67" s="65"/>
+      <c r="AGW67" s="65"/>
+      <c r="AGX67" s="65"/>
+      <c r="AGY67" s="65"/>
+      <c r="AGZ67" s="65"/>
+      <c r="AHA67" s="65"/>
+      <c r="AHB67" s="65"/>
+      <c r="AHC67" s="65"/>
+      <c r="AHD67" s="65"/>
+      <c r="AHE67" s="65"/>
+      <c r="AHF67" s="65"/>
+      <c r="AHG67" s="65"/>
+      <c r="AHH67" s="65"/>
+      <c r="AHI67" s="65"/>
+      <c r="AHJ67" s="65"/>
+      <c r="AHK67" s="65"/>
+      <c r="AHL67" s="65"/>
+      <c r="AHM67" s="65"/>
+      <c r="AHN67" s="65"/>
+      <c r="AHO67" s="65"/>
+      <c r="AHP67" s="65"/>
+      <c r="AHQ67" s="65"/>
+      <c r="AHR67" s="65"/>
+      <c r="AHS67" s="65"/>
+      <c r="AHT67" s="65"/>
+      <c r="AHU67" s="65"/>
+      <c r="AHV67" s="65"/>
+      <c r="AHW67" s="65"/>
+      <c r="AHX67" s="65"/>
+      <c r="AHY67" s="65"/>
+      <c r="AHZ67" s="65"/>
+      <c r="AIA67" s="65"/>
+      <c r="AIB67" s="65"/>
+      <c r="AIC67" s="65"/>
+      <c r="AID67" s="65"/>
+      <c r="AIE67" s="65"/>
+      <c r="AIF67" s="65"/>
+      <c r="AIG67" s="65"/>
+      <c r="AIH67" s="65"/>
+      <c r="AII67" s="65"/>
+      <c r="AIJ67" s="65"/>
+      <c r="AIK67" s="65"/>
+      <c r="AIL67" s="65"/>
+      <c r="AIM67" s="65"/>
+      <c r="AIN67" s="65"/>
+      <c r="AIO67" s="65"/>
+      <c r="AIP67" s="65"/>
+      <c r="AIQ67" s="65"/>
+      <c r="AIR67" s="65"/>
+      <c r="AIS67" s="65"/>
+      <c r="AIT67" s="65"/>
+      <c r="AIU67" s="65"/>
+      <c r="AIV67" s="65"/>
+      <c r="AIW67" s="65"/>
+      <c r="AIX67" s="65"/>
+      <c r="AIY67" s="65"/>
+      <c r="AIZ67" s="65"/>
+      <c r="AJA67" s="65"/>
+      <c r="AJB67" s="65"/>
+      <c r="AJC67" s="65"/>
+      <c r="AJD67" s="65"/>
+      <c r="AJE67" s="65"/>
+      <c r="AJF67" s="65"/>
+      <c r="AJG67" s="65"/>
+      <c r="AJH67" s="65"/>
+      <c r="AJI67" s="65"/>
+      <c r="AJJ67" s="65"/>
+      <c r="AJK67" s="65"/>
+      <c r="AJL67" s="65"/>
+      <c r="AJM67" s="65"/>
+      <c r="AJN67" s="65"/>
+      <c r="AJO67" s="65"/>
+      <c r="AJP67" s="65"/>
+      <c r="AJQ67" s="65"/>
+      <c r="AJR67" s="65"/>
+      <c r="AJS67" s="65"/>
+      <c r="AJT67" s="65"/>
+      <c r="AJU67" s="65"/>
+      <c r="AJV67" s="65"/>
+      <c r="AJW67" s="65"/>
+      <c r="AJX67" s="65"/>
+      <c r="AJY67" s="65"/>
+      <c r="AJZ67" s="65"/>
+      <c r="AKA67" s="65"/>
+      <c r="AKB67" s="65"/>
+      <c r="AKC67" s="65"/>
+      <c r="AKD67" s="65"/>
+      <c r="AKE67" s="65"/>
+      <c r="AKF67" s="65"/>
+      <c r="AKG67" s="65"/>
+      <c r="AKH67" s="65"/>
+      <c r="AKI67" s="65"/>
+      <c r="AKJ67" s="65"/>
+      <c r="AKK67" s="65"/>
+      <c r="AKL67" s="65"/>
+      <c r="AKM67" s="65"/>
+      <c r="AKN67" s="65"/>
+      <c r="AKO67" s="65"/>
+      <c r="AKP67" s="65"/>
+      <c r="AKQ67" s="65"/>
+      <c r="AKR67" s="65"/>
+      <c r="AKS67" s="65"/>
+      <c r="AKT67" s="65"/>
+      <c r="AKU67" s="65"/>
+      <c r="AKV67" s="65"/>
+      <c r="AKW67" s="65"/>
+      <c r="AKX67" s="65"/>
+      <c r="AKY67" s="65"/>
+      <c r="AKZ67" s="65"/>
+      <c r="ALA67" s="65"/>
+      <c r="ALB67" s="65"/>
+      <c r="ALC67" s="65"/>
+      <c r="ALD67" s="65"/>
+      <c r="ALE67" s="65"/>
+      <c r="ALF67" s="65"/>
+      <c r="ALG67" s="65"/>
+      <c r="ALH67" s="65"/>
+      <c r="ALI67" s="65"/>
+      <c r="ALJ67" s="65"/>
+      <c r="ALK67" s="65"/>
+      <c r="ALL67" s="65"/>
+      <c r="ALM67" s="65"/>
+      <c r="ALN67" s="65"/>
+      <c r="ALO67" s="65"/>
+      <c r="ALP67" s="65"/>
+      <c r="ALQ67" s="65"/>
+      <c r="ALR67" s="65"/>
+      <c r="ALS67" s="65"/>
+      <c r="ALT67" s="65"/>
+      <c r="ALU67" s="65"/>
+      <c r="ALV67" s="65"/>
+      <c r="ALW67" s="65"/>
+      <c r="ALX67" s="65"/>
+      <c r="ALY67" s="65"/>
+      <c r="ALZ67" s="65"/>
+      <c r="AMA67" s="65"/>
+      <c r="AMB67" s="65"/>
+      <c r="AMC67" s="65"/>
+      <c r="AMD67" s="65"/>
+      <c r="AME67" s="65"/>
+      <c r="AMF67" s="65"/>
+      <c r="AMG67" s="65"/>
+      <c r="AMH67" s="65"/>
+      <c r="AMI67" s="65"/>
+      <c r="AMJ67" s="65"/>
     </row>
     <row r="68" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
-      <c r="B68" s="67" t="s">
-        <v>92</v>
+      <c r="B68" s="66" t="s">
+        <v>88</v>
       </c>
-      <c r="C68" s="67"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="69"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="68"/>
       <c r="K68" s="26"/>
       <c r="L68" s="24"/>
       <c r="M68" s="24"/>
@@ -30843,15 +30819,15 @@
     </row>
     <row r="69" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="69"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="68"/>
       <c r="K69" s="26"/>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
@@ -31869,15 +31845,15 @@
     </row>
     <row r="70" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="68"/>
-      <c r="H70" s="68"/>
-      <c r="I70" s="68"/>
-      <c r="J70" s="69"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="68"/>
       <c r="K70" s="26"/>
       <c r="L70" s="24"/>
       <c r="M70" s="24"/>
@@ -32895,15 +32871,15 @@
     </row>
     <row r="71" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="69"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="68"/>
       <c r="K71" s="26"/>
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
@@ -33920,16 +33896,16 @@
       <c r="AMJ71" s="24"/>
     </row>
     <row r="72" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="70"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
       <c r="K72" s="26"/>
       <c r="L72" s="24"/>
       <c r="M72" s="24"/>
@@ -34947,23 +34923,23 @@
     </row>
     <row r="73" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
-      <c r="B73" s="67" t="s">
-        <v>93</v>
+      <c r="B73" s="66" t="s">
+        <v>89</v>
       </c>
-      <c r="C73" s="67"/>
-      <c r="D73" s="71" t="s">
-        <v>94</v>
+      <c r="C73" s="66"/>
+      <c r="D73" s="70" t="s">
+        <v>90</v>
       </c>
-      <c r="E73" s="71"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="73" t="s">
-        <v>95</v>
+      <c r="E73" s="70"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="72" t="s">
+        <v>91</v>
       </c>
-      <c r="H73" s="68" t="s">
+      <c r="H73" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="I73" s="68"/>
-      <c r="J73" s="69"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="68"/>
       <c r="K73" s="26"/>
       <c r="L73" s="24"/>
       <c r="M73" s="24"/>
@@ -53507,8 +53483,8 @@
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="F10:H11"/>
     <mergeCell ref="B13:I14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B19:I20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>

--- a/src/main/resources/protocol.xlsx
+++ b/src/main/resources/protocol.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t xml:space="preserve">г. Новочеркасск</t>
   </si>
@@ -61,10 +61,10 @@
     <t xml:space="preserve">Номинальные параметры</t>
   </si>
   <si>
-    <t xml:space="preserve">P, kW</t>
+    <t xml:space="preserve">P, кВт</t>
   </si>
   <si>
-    <t xml:space="preserve">U line, V</t>
+    <t xml:space="preserve">U линейное, V</t>
   </si>
   <si>
     <t xml:space="preserve">I, А</t>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">#MGRNAME#</t>
   </si>
   <si>
-    <t xml:space="preserve">U, V</t>
+    <t xml:space="preserve">U,В</t>
   </si>
   <si>
     <t xml:space="preserve">R15, МΩ</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">R60, МΩ</t>
   </si>
   <si>
-    <t xml:space="preserve">Kabs, о.е.</t>
+    <t xml:space="preserve">кАбс, о.е.</t>
   </si>
   <si>
     <t xml:space="preserve">Результат</t>
@@ -121,10 +121,13 @@
     <t xml:space="preserve">#VIUNAME#</t>
   </si>
   <si>
+    <t xml:space="preserve">U, В</t>
+  </si>
+  <si>
     <t xml:space="preserve">I, мА</t>
   </si>
   <si>
-    <t xml:space="preserve">Time, sec</t>
+    <t xml:space="preserve">Время, сек</t>
   </si>
   <si>
     <t xml:space="preserve">#VIUU#</t>
@@ -216,13 +219,13 @@
     <t xml:space="preserve">#HHNAME#</t>
   </si>
   <si>
-    <t xml:space="preserve">Uuv, V</t>
+    <t xml:space="preserve">Uuv,В</t>
   </si>
   <si>
-    <t xml:space="preserve">Uvw, V</t>
+    <t xml:space="preserve">Uvw, В</t>
   </si>
   <si>
-    <t xml:space="preserve">Uwu, V</t>
+    <t xml:space="preserve">Uwu,В</t>
   </si>
   <si>
     <t xml:space="preserve">Iu, А</t>
@@ -1180,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C34" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F55" activeCellId="0" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10732,15 +10735,15 @@
     <row r="27" s="31" customFormat="true" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="35"/>
       <c r="B27" s="29" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>26</v>
@@ -11766,18 +11769,18 @@
     <row r="28" s="31" customFormat="true" ht="24.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="35"/>
       <c r="B28" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="39"/>
@@ -12840,7 +12843,7 @@
     <row r="31" s="30" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="32"/>
       <c r="B31" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
@@ -14894,15 +14897,15 @@
     <row r="33" s="31" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="35"/>
       <c r="B33" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="39"/>
@@ -15926,15 +15929,15 @@
     <row r="34" s="31" customFormat="true" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="35"/>
       <c r="B34" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="39"/>
@@ -16978,15 +16981,15 @@
     <row r="36" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="35"/>
       <c r="B36" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="39"/>
@@ -17004,15 +17007,15 @@
     <row r="37" s="31" customFormat="true" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="35"/>
       <c r="B37" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="39"/>
@@ -17052,7 +17055,7 @@
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E39" s="53"/>
       <c r="F39" s="40" t="s">
@@ -17076,11 +17079,11 @@
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="39"/>
@@ -17138,7 +17141,7 @@
     <row r="43" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="32"/>
       <c r="B43" s="54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" s="54"/>
       <c r="D43" s="54"/>
@@ -19192,25 +19195,25 @@
     <row r="45" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="35"/>
       <c r="B45" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I45" s="39"/>
       <c r="J45" s="41"/>
@@ -20232,25 +20235,25 @@
     <row r="46" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="35"/>
       <c r="B46" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I46" s="55"/>
       <c r="J46" s="41"/>
@@ -23330,7 +23333,7 @@
       <c r="D49" s="40"/>
       <c r="E49" s="40"/>
       <c r="F49" s="29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
@@ -27432,7 +27435,7 @@
     <row r="53" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="32"/>
       <c r="B53" s="62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" s="62"/>
       <c r="D53" s="62"/>
@@ -27474,19 +27477,19 @@
     <row r="55" s="31" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="35"/>
       <c r="B55" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G55" s="55"/>
       <c r="H55" s="55"/>
@@ -27504,19 +27507,19 @@
     <row r="56" s="31" customFormat="true" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="35"/>
       <c r="B56" s="63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
@@ -27556,15 +27559,15 @@
     <row r="58" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="35"/>
       <c r="B58" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E58" s="29"/>
       <c r="F58" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G58" s="29"/>
       <c r="H58" s="55"/>
@@ -27584,15 +27587,15 @@
     <row r="59" s="31" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="35"/>
       <c r="B59" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59" s="29"/>
       <c r="F59" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G59" s="29"/>
       <c r="H59" s="55"/>
@@ -27662,7 +27665,7 @@
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
       <c r="F62" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
@@ -29792,7 +29795,7 @@
     <row r="68" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
       <c r="B68" s="66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C68" s="66"/>
       <c r="D68" s="67"/>
@@ -34924,16 +34927,16 @@
     <row r="73" s="31" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C73" s="66"/>
       <c r="D73" s="70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E73" s="70"/>
       <c r="F73" s="71"/>
       <c r="G73" s="72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H73" s="67" t="s">
         <v>10</v>
